--- a/BackTest/2019-10-18 BackTest LBA.xlsx
+++ b/BackTest/2019-10-18 BackTest LBA.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2000000000000011</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>12.16</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
       <c r="L13" t="n">
         <v>12.19</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.5000000000000018</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>19.99999999999986</v>
+      </c>
       <c r="L14" t="n">
         <v>12.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.6000000000000032</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>12.22</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.7000000000000046</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.28571428571414</v>
+      </c>
       <c r="L16" t="n">
         <v>12.23</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.7000000000000046</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>12.24</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>24.99999999999994</v>
+      </c>
       <c r="L18" t="n">
         <v>12.26</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.000000000000005</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>11.1111111111112</v>
+      </c>
       <c r="L19" t="n">
         <v>12.27</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.000000000000005</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>11.1111111111112</v>
+      </c>
       <c r="L20" t="n">
         <v>12.28</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.100000000000005</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>11.11111111111102</v>
+      </c>
       <c r="L21" t="n">
         <v>12.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.200000000000005</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>11.11111111111102</v>
+      </c>
       <c r="L22" t="n">
         <v>12.32</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.200000000000005</v>
       </c>
       <c r="K23" t="n">
-        <v>33.33333333333324</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L23" t="n">
         <v>12.33</v>
@@ -1466,7 +1488,7 @@
         <v>1.200000000000005</v>
       </c>
       <c r="K24" t="n">
-        <v>33.33333333333324</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L24" t="n">
         <v>12.36</v>
@@ -1515,7 +1537,7 @@
         <v>1.300000000000004</v>
       </c>
       <c r="K25" t="n">
-        <v>23.07692307692306</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L25" t="n">
         <v>12.37</v>
@@ -1564,7 +1586,7 @@
         <v>1.400000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>14.28571428571432</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L26" t="n">
         <v>12.38</v>
@@ -1613,7 +1635,7 @@
         <v>1.500000000000005</v>
       </c>
       <c r="K27" t="n">
-        <v>6.666666666666619</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L27" t="n">
         <v>12.38</v>
@@ -1662,7 +1684,7 @@
         <v>1.600000000000007</v>
       </c>
       <c r="K28" t="n">
-        <v>6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>12.37</v>
@@ -1711,7 +1733,7 @@
         <v>1.600000000000007</v>
       </c>
       <c r="K29" t="n">
-        <v>6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>12.37</v>
@@ -1760,7 +1782,7 @@
         <v>1.600000000000007</v>
       </c>
       <c r="K30" t="n">
-        <v>6.66666666666673</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L30" t="n">
         <v>12.37</v>
@@ -1809,7 +1831,7 @@
         <v>1.600000000000007</v>
       </c>
       <c r="K31" t="n">
-        <v>6.66666666666673</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L31" t="n">
         <v>12.36</v>
@@ -1860,7 +1882,7 @@
         <v>1.700000000000006</v>
       </c>
       <c r="K32" t="n">
-        <v>6.666666666666619</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L32" t="n">
         <v>12.35</v>
@@ -1911,7 +1933,7 @@
         <v>1.700000000000006</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L33" t="n">
         <v>12.34</v>
@@ -1962,7 +1984,7 @@
         <v>1.800000000000006</v>
       </c>
       <c r="K34" t="n">
-        <v>7.692307692307776</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L34" t="n">
         <v>12.32</v>
@@ -2064,7 +2086,7 @@
         <v>1.800000000000006</v>
       </c>
       <c r="K36" t="n">
-        <v>9.090909090909207</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L36" t="n">
         <v>12.31</v>
@@ -2115,7 +2137,7 @@
         <v>1.800000000000006</v>
       </c>
       <c r="K37" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>12.32</v>
@@ -2166,7 +2188,7 @@
         <v>1.800000000000006</v>
       </c>
       <c r="K38" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>12.32</v>
@@ -2319,7 +2341,7 @@
         <v>1.800000000000006</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.28571428571421</v>
+        <v>-100</v>
       </c>
       <c r="L41" t="n">
         <v>12.32</v>
@@ -2370,7 +2392,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>12.32</v>
@@ -2421,7 +2443,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K43" t="n">
-        <v>-14.28571428571421</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
         <v>12.32</v>
@@ -2472,7 +2494,7 @@
         <v>2.000000000000005</v>
       </c>
       <c r="K44" t="n">
-        <v>-24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>12.32</v>
@@ -2523,7 +2545,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>12.33</v>
@@ -2574,7 +2596,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K46" t="n">
-        <v>14.28571428571421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>12.34</v>
@@ -2625,7 +2647,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K47" t="n">
-        <v>33.33333333333353</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>12.35</v>
@@ -2676,7 +2698,7 @@
         <v>2.200000000000005</v>
       </c>
       <c r="K48" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L48" t="n">
         <v>12.37</v>
@@ -2727,7 +2749,7 @@
         <v>2.200000000000005</v>
       </c>
       <c r="K49" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L49" t="n">
         <v>12.39</v>
@@ -2778,7 +2800,7 @@
         <v>2.500000000000005</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.11111111111129</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L50" t="n">
         <v>12.38</v>
@@ -2829,7 +2851,7 @@
         <v>2.700000000000006</v>
       </c>
       <c r="K51" t="n">
-        <v>9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>12.39</v>
@@ -2931,7 +2953,7 @@
         <v>2.800000000000006</v>
       </c>
       <c r="K53" t="n">
-        <v>9.090909090909062</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L53" t="n">
         <v>12.4</v>
@@ -2982,7 +3004,7 @@
         <v>2.800000000000006</v>
       </c>
       <c r="K54" t="n">
-        <v>19.99999999999993</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L54" t="n">
         <v>12.42</v>
@@ -3033,7 +3055,7 @@
         <v>2.900000000000006</v>
       </c>
       <c r="K55" t="n">
-        <v>9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>12.42</v>
@@ -3084,7 +3106,7 @@
         <v>3.000000000000005</v>
       </c>
       <c r="K56" t="n">
-        <v>16.66666666666662</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L56" t="n">
         <v>12.43</v>
@@ -3135,7 +3157,7 @@
         <v>3.100000000000005</v>
       </c>
       <c r="K57" t="n">
-        <v>23.07692307692301</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L57" t="n">
         <v>12.44999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>3.100000000000005</v>
       </c>
       <c r="K58" t="n">
-        <v>23.07692307692301</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L58" t="n">
         <v>12.45999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>3.200000000000005</v>
       </c>
       <c r="K59" t="n">
-        <v>28.5714285714285</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L59" t="n">
         <v>12.47999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>3.400000000000006</v>
       </c>
       <c r="K60" t="n">
-        <v>37.49999999999999</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L60" t="n">
         <v>12.54999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>3.400000000000006</v>
       </c>
       <c r="K61" t="n">
-        <v>37.49999999999999</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L61" t="n">
         <v>12.59999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>3.500000000000005</v>
       </c>
       <c r="K62" t="n">
-        <v>37.49999999999999</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L62" t="n">
         <v>12.65999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>3.600000000000005</v>
       </c>
       <c r="K63" t="n">
-        <v>29.41176470588237</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="L63" t="n">
         <v>12.69999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>3.600000000000005</v>
       </c>
       <c r="K64" t="n">
-        <v>37.49999999999999</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L64" t="n">
         <v>12.73999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>3.700000000000005</v>
       </c>
       <c r="K65" t="n">
-        <v>37.49999999999999</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L65" t="n">
         <v>12.79999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>3.700000000000005</v>
       </c>
       <c r="K66" t="n">
-        <v>37.49999999999999</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L66" t="n">
         <v>12.84999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>3.800000000000004</v>
       </c>
       <c r="K67" t="n">
-        <v>29.41176470588237</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L67" t="n">
         <v>12.87999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>4.100000000000003</v>
       </c>
       <c r="K68" t="n">
-        <v>36.84210526315789</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L68" t="n">
         <v>12.93999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>4.200000000000005</v>
       </c>
       <c r="K69" t="n">
-        <v>40.00000000000004</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="L69" t="n">
         <v>12.99999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>4.300000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>66.66666666666676</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L70" t="n">
         <v>13.04999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>4.500000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>66.66666666666673</v>
+        <v>60.00000000000008</v>
       </c>
       <c r="L71" t="n">
         <v>13.11999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>4.600000000000003</v>
       </c>
       <c r="K72" t="n">
-        <v>57.89473684210535</v>
+        <v>60.00000000000008</v>
       </c>
       <c r="L72" t="n">
         <v>13.16999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>4.700000000000003</v>
       </c>
       <c r="K73" t="n">
-        <v>47.36842105263167</v>
+        <v>45.45454545454554</v>
       </c>
       <c r="L73" t="n">
         <v>13.21999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>4.800000000000002</v>
       </c>
       <c r="K74" t="n">
-        <v>40.00000000000011</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L74" t="n">
         <v>13.25999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>4.900000000000002</v>
       </c>
       <c r="K75" t="n">
-        <v>50.00000000000009</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L75" t="n">
         <v>13.29999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>5.000000000000002</v>
       </c>
       <c r="K76" t="n">
-        <v>40.00000000000011</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L76" t="n">
         <v>13.32999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>5.200000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>42.85714285714295</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L77" t="n">
         <v>13.39</v>
@@ -4206,7 +4228,7 @@
         <v>5.200000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>42.85714285714295</v>
+        <v>20</v>
       </c>
       <c r="L78" t="n">
         <v>13.42</v>
@@ -4257,7 +4279,7 @@
         <v>5.4</v>
       </c>
       <c r="K79" t="n">
-        <v>45.45454545454554</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L79" t="n">
         <v>13.45999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>21.73913043478267</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L80" t="n">
         <v>13.45999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>21.73913043478267</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L81" t="n">
         <v>13.43999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>25.00000000000006</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L82" t="n">
         <v>13.44999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>30.43478260869571</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L83" t="n">
         <v>13.46999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>5.999999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>25.00000000000006</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L84" t="n">
         <v>13.48999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>5.999999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>21.73913043478267</v>
+        <v>20</v>
       </c>
       <c r="L85" t="n">
         <v>13.49999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>25.00000000000006</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L86" t="n">
         <v>13.52999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>25.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>13.52999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>14.28571428571436</v>
+        <v>-25</v>
       </c>
       <c r="L88" t="n">
         <v>13.52999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
         <v>13.50999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>13.51999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>6.499999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>15.78947368421061</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L92" t="n">
         <v>13.55999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>6.6</v>
       </c>
       <c r="K93" t="n">
-        <v>15.7894736842105</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L93" t="n">
         <v>13.56999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>6.700000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>26.31578947368423</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L94" t="n">
         <v>13.59999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>6.800000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>26.31578947368423</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L95" t="n">
         <v>13.63999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>7.000000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>19.99999999999993</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L96" t="n">
         <v>13.64999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>7.100000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>5.263157894736822</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L97" t="n">
         <v>13.65999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>7.100000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>5.263157894736822</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L98" t="n">
         <v>13.66999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>10.00000000000004</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L99" t="n">
         <v>13.70999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>7.500000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>22.22222222222221</v>
+        <v>16.66666666666669</v>
       </c>
       <c r="L100" t="n">
         <v>13.73999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>7.600000000000003</v>
       </c>
       <c r="K101" t="n">
-        <v>15.78947368421044</v>
+        <v>-9.090909090909179</v>
       </c>
       <c r="L101" t="n">
         <v>13.74999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>7.600000000000003</v>
       </c>
       <c r="K102" t="n">
-        <v>5.882352941176434</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>13.73999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>7.700000000000003</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L103" t="n">
         <v>13.72999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>7.800000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>11.11111111111104</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L104" t="n">
         <v>13.71999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>8.000000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L105" t="n">
         <v>13.67999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>8.200000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>4.761904761904738</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L106" t="n">
         <v>13.67999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>8.200000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>9.999999999999947</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L107" t="n">
         <v>13.68999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>4.761904761904738</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L108" t="n">
         <v>13.68999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>8.4</v>
       </c>
       <c r="K109" t="n">
-        <v>9.090909090909047</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L109" t="n">
         <v>13.66999999999998</v>
@@ -5838,7 +5860,7 @@
         <v>8.4</v>
       </c>
       <c r="K110" t="n">
-        <v>9.090909090909047</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>13.65999999999998</v>
@@ -5889,7 +5911,7 @@
         <v>8.4</v>
       </c>
       <c r="K111" t="n">
-        <v>4.761904761904738</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>13.65999999999998</v>
@@ -5940,7 +5962,7 @@
         <v>8.4</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.263157894736911</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L112" t="n">
         <v>13.65999999999998</v>
@@ -5991,7 +6013,7 @@
         <v>8.5</v>
       </c>
       <c r="K113" t="n">
-        <v>-5.263157894736822</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L113" t="n">
         <v>13.65999999999998</v>
@@ -6042,7 +6064,7 @@
         <v>8.6</v>
       </c>
       <c r="K114" t="n">
-        <v>-5.263157894736921</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>13.65999999999998</v>
@@ -6093,7 +6115,7 @@
         <v>8.6</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.11111111111118</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>13.67999999999998</v>
@@ -6144,7 +6166,7 @@
         <v>8.799999999999999</v>
       </c>
       <c r="K116" t="n">
-        <v>-11.11111111111109</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>13.65999999999998</v>
@@ -6246,7 +6268,7 @@
         <v>8.999999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>-5.263157894736832</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>13.63999999999998</v>
@@ -6297,7 +6319,7 @@
         <v>9.199999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>13.63999999999998</v>
@@ -6348,7 +6370,7 @@
         <v>9.199999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>-5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>13.63999999999998</v>
@@ -6450,7 +6472,7 @@
         <v>9.299999999999997</v>
       </c>
       <c r="K122" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>13.62999999999998</v>
@@ -6501,7 +6523,7 @@
         <v>9.299999999999997</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L123" t="n">
         <v>13.62999999999998</v>
@@ -6603,7 +6625,7 @@
         <v>9.399999999999997</v>
       </c>
       <c r="K125" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>13.62999999999998</v>
@@ -6654,7 +6676,7 @@
         <v>9.399999999999997</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L126" t="n">
         <v>13.64999999999998</v>
@@ -6705,7 +6727,7 @@
         <v>9.399999999999997</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L127" t="n">
         <v>13.65999999999998</v>
@@ -6756,7 +6778,7 @@
         <v>9.399999999999997</v>
       </c>
       <c r="K128" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>13.67999999999998</v>
@@ -6807,7 +6829,7 @@
         <v>9.599999999999996</v>
       </c>
       <c r="K129" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L129" t="n">
         <v>13.65999999999998</v>
@@ -6909,7 +6931,7 @@
         <v>9.899999999999997</v>
       </c>
       <c r="K131" t="n">
-        <v>6.666666666666778</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L131" t="n">
         <v>13.66999999999998</v>
@@ -6960,7 +6982,7 @@
         <v>9.899999999999997</v>
       </c>
       <c r="K132" t="n">
-        <v>6.666666666666778</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L132" t="n">
         <v>13.68999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>9.899999999999997</v>
       </c>
       <c r="K133" t="n">
-        <v>14.28571428571439</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L133" t="n">
         <v>13.70999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>9.899999999999997</v>
       </c>
       <c r="K134" t="n">
-        <v>7.692307692307819</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L134" t="n">
         <v>13.71999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>9.899999999999997</v>
       </c>
       <c r="K135" t="n">
-        <v>7.692307692307819</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L135" t="n">
         <v>13.72999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>9.899999999999997</v>
       </c>
       <c r="K136" t="n">
-        <v>27.27272727272739</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L136" t="n">
         <v>13.73999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>9.899999999999997</v>
       </c>
       <c r="K137" t="n">
-        <v>20.00000000000014</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L137" t="n">
         <v>13.75</v>
@@ -7266,7 +7288,7 @@
         <v>9.899999999999997</v>
       </c>
       <c r="K138" t="n">
-        <v>33.33333333333346</v>
+        <v>100</v>
       </c>
       <c r="L138" t="n">
         <v>13.76</v>
@@ -7317,7 +7339,7 @@
         <v>10.1</v>
       </c>
       <c r="K139" t="n">
-        <v>-11.11111111111107</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L139" t="n">
         <v>13.77</v>
@@ -7368,7 +7390,7 @@
         <v>10.2</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L140" t="n">
         <v>13.77</v>
@@ -7419,7 +7441,7 @@
         <v>10.3</v>
       </c>
       <c r="K141" t="n">
-        <v>-9.090909090909062</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L141" t="n">
         <v>13.75</v>
@@ -7470,7 +7492,7 @@
         <v>10.3</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L142" t="n">
         <v>13.73</v>
@@ -7521,7 +7543,7 @@
         <v>10.4</v>
       </c>
       <c r="K143" t="n">
-        <v>-9.090909090909062</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L143" t="n">
         <v>13.69999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>10.5</v>
       </c>
       <c r="K144" t="n">
-        <v>-27.27272727272718</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L144" t="n">
         <v>13.65999999999999</v>
@@ -7623,7 +7645,7 @@
         <v>10.6</v>
       </c>
       <c r="K145" t="n">
-        <v>-16.66666666666662</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L145" t="n">
         <v>13.62999999999999</v>
@@ -7674,7 +7696,7 @@
         <v>10.7</v>
       </c>
       <c r="K146" t="n">
-        <v>-23.07692307692301</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L146" t="n">
         <v>13.58999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>10.7</v>
       </c>
       <c r="K147" t="n">
-        <v>-23.07692307692301</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L147" t="n">
         <v>13.54999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>10.8</v>
       </c>
       <c r="K148" t="n">
-        <v>-28.5714285714285</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L148" t="n">
         <v>13.49999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>10.9</v>
       </c>
       <c r="K149" t="n">
-        <v>-7.692307692307672</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L149" t="n">
         <v>13.47999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>-33.33333333333324</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L150" t="n">
         <v>13.43999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>-45.45454545454554</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L151" t="n">
         <v>13.41</v>
@@ -7980,7 +8002,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>-33.33333333333343</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L152" t="n">
         <v>13.39</v>
@@ -8031,7 +8053,7 @@
         <v>11.3</v>
       </c>
       <c r="K153" t="n">
-        <v>-42.857142857143</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L153" t="n">
         <v>13.36</v>
@@ -8082,7 +8104,7 @@
         <v>11.4</v>
       </c>
       <c r="K154" t="n">
-        <v>-33.33333333333333</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L154" t="n">
         <v>13.35</v>
@@ -8133,7 +8155,7 @@
         <v>11.4</v>
       </c>
       <c r="K155" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L155" t="n">
         <v>13.33</v>
@@ -8184,7 +8206,7 @@
         <v>11.4</v>
       </c>
       <c r="K156" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L156" t="n">
         <v>13.32</v>
@@ -8235,7 +8257,7 @@
         <v>11.5</v>
       </c>
       <c r="K157" t="n">
-        <v>-37.50000000000006</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L157" t="n">
         <v>13.3</v>
@@ -8286,7 +8308,7 @@
         <v>11.5</v>
       </c>
       <c r="K158" t="n">
-        <v>-37.50000000000006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>13.29</v>
@@ -8337,7 +8359,7 @@
         <v>11.5</v>
       </c>
       <c r="K159" t="n">
-        <v>-28.57142857142859</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L159" t="n">
         <v>13.26999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>11.5</v>
       </c>
       <c r="K160" t="n">
-        <v>-38.46153846153844</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L160" t="n">
         <v>13.25999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>11.5</v>
       </c>
       <c r="K161" t="n">
-        <v>-33.33333333333333</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L161" t="n">
         <v>13.24999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>11.5</v>
       </c>
       <c r="K162" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>13.22999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>11.5</v>
       </c>
       <c r="K163" t="n">
-        <v>-27.27272727272731</v>
+        <v>-100</v>
       </c>
       <c r="L163" t="n">
         <v>13.22999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>11.6</v>
       </c>
       <c r="K164" t="n">
-        <v>-27.27272727272731</v>
+        <v>-100</v>
       </c>
       <c r="L164" t="n">
         <v>13.20999999999998</v>
@@ -8643,7 +8665,7 @@
         <v>11.7</v>
       </c>
       <c r="K165" t="n">
-        <v>-45.4545454545454</v>
+        <v>-100</v>
       </c>
       <c r="L165" t="n">
         <v>13.17999999999998</v>
@@ -8694,7 +8716,7 @@
         <v>11.7</v>
       </c>
       <c r="K166" t="n">
-        <v>-39.99999999999996</v>
+        <v>-100</v>
       </c>
       <c r="L166" t="n">
         <v>13.14999999999998</v>
@@ -8745,7 +8767,7 @@
         <v>11.7</v>
       </c>
       <c r="K167" t="n">
-        <v>-39.99999999999996</v>
+        <v>-100</v>
       </c>
       <c r="L167" t="n">
         <v>13.12999999999998</v>
@@ -8796,7 +8818,7 @@
         <v>11.7</v>
       </c>
       <c r="K168" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L168" t="n">
         <v>13.10999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>11.8</v>
       </c>
       <c r="K170" t="n">
-        <v>-25.00000000000006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>13.08999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>11.9</v>
       </c>
       <c r="K171" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L171" t="n">
         <v>13.06999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>12</v>
       </c>
       <c r="K172" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L172" t="n">
         <v>13.05999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>12</v>
       </c>
       <c r="K173" t="n">
-        <v>-14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>13.04999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>12</v>
       </c>
       <c r="K174" t="n">
-        <v>-33.33333333333353</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L174" t="n">
         <v>13.04999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>12.3</v>
       </c>
       <c r="K175" t="n">
-        <v>-55.55555555555565</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L175" t="n">
         <v>13.02999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>12.3</v>
       </c>
       <c r="K176" t="n">
-        <v>-55.55555555555565</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>13.00999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>12.3</v>
       </c>
       <c r="K177" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L177" t="n">
         <v>12.98999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>12.3</v>
       </c>
       <c r="K178" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L178" t="n">
         <v>12.96999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>12.4</v>
       </c>
       <c r="K180" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L180" t="n">
         <v>12.93</v>
@@ -9459,7 +9481,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L181" t="n">
         <v>12.91</v>
@@ -9510,7 +9532,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L182" t="n">
         <v>12.9</v>
@@ -9561,7 +9583,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L183" t="n">
         <v>12.89</v>
@@ -9612,7 +9634,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>12.86</v>
@@ -9663,7 +9685,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L185" t="n">
         <v>12.87</v>
@@ -9714,7 +9736,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L186" t="n">
         <v>12.88</v>
@@ -9765,7 +9787,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L187" t="n">
         <v>12.89</v>
@@ -9816,7 +9838,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L188" t="n">
         <v>12.91</v>
@@ -9867,7 +9889,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L189" t="n">
         <v>12.92</v>
@@ -9918,7 +9940,7 @@
         <v>13.19999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L190" t="n">
         <v>12.92</v>
@@ -10071,7 +10093,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>-6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>12.93</v>
@@ -10122,7 +10144,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>12.93999999999999</v>
@@ -10173,7 +10195,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>12.93999999999999</v>
@@ -10275,7 +10297,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L197" t="n">
         <v>12.94999999999999</v>

--- a/BackTest/2019-10-18 BackTest LBA.xlsx
+++ b/BackTest/2019-10-18 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S197"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>12.06000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>12.06333333333335</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,19 @@
         <v>12.06500000000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,23 @@
         <v>12.06333333333335</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +658,23 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +701,19 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +740,23 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +783,23 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +826,19 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +865,23 @@
         <v>12.06333333333335</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2000000000000011</v>
+        <v>12.3</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +908,23 @@
         <v>12.06500000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3000000000000007</v>
+        <v>12.4</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +951,19 @@
         <v>12.06333333333335</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5000000000000018</v>
+        <v>12.2</v>
       </c>
       <c r="K14" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +993,18 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6000000000000032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1034,18 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7000000000000046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1075,18 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7000000000000046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1116,18 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.9000000000000057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>24.99999999999994</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1157,18 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.000000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>11.1111111111112</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1198,18 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.000000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>11.1111111111112</v>
-      </c>
-      <c r="L20" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1239,18 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>11.11111111111102</v>
-      </c>
-      <c r="L21" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1280,18 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.200000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>11.11111111111102</v>
-      </c>
-      <c r="L22" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1321,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.200000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>42.85714285714278</v>
-      </c>
-      <c r="L23" t="n">
-        <v>12.33</v>
+        <v>12.2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1362,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.200000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>33.33333333333314</v>
-      </c>
-      <c r="L24" t="n">
-        <v>12.36</v>
+        <v>12.2</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1403,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>33.33333333333353</v>
-      </c>
-      <c r="L25" t="n">
-        <v>12.37</v>
+        <v>12.2</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>12.295</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1444,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.400000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>14.2857142857145</v>
-      </c>
-      <c r="L26" t="n">
-        <v>12.38</v>
+        <v>12.2</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>12.305</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1485,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.500000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L27" t="n">
-        <v>12.38</v>
+        <v>12.2</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1526,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.600000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>12.37</v>
+        <v>12.2</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>12.315</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1567,18 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.600000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>12.37</v>
+        <v>12.2</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1608,18 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.600000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L30" t="n">
-        <v>12.37</v>
+        <v>12.2</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>12.32500000000001</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1649,18 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.600000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12.36</v>
+        <v>12.2</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>12.33000000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>12.26666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1690,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.700000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L32" t="n">
-        <v>12.35</v>
+        <v>12.2</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>12.335</v>
-      </c>
-      <c r="N32" t="n">
-        <v>12.27666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1731,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.700000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L33" t="n">
-        <v>12.34</v>
+        <v>12.2</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>12.335</v>
-      </c>
-      <c r="N33" t="n">
-        <v>12.28666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1772,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L34" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="N34" t="n">
-        <v>12.29333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1813,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>12.31</v>
+        <v>12.2</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="N35" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1854,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>33.33333333333373</v>
-      </c>
-      <c r="L36" t="n">
-        <v>12.31</v>
+        <v>12.2</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>12.345</v>
-      </c>
-      <c r="N36" t="n">
-        <v>12.30666666666666</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1895,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="N37" t="n">
-        <v>12.31333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1936,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>12.34500000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>12.31666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1977,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>12.345</v>
-      </c>
-      <c r="N39" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +2018,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>12.345</v>
-      </c>
-      <c r="N40" t="n">
-        <v>12.32333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2059,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L41" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>12.34000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>12.32666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2100,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.900000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>12.335</v>
-      </c>
-      <c r="N42" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2141,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.900000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>100</v>
-      </c>
-      <c r="L43" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="N43" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2182,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.000000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="N44" t="n">
-        <v>12.33333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2223,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L45" t="n">
-        <v>12.33</v>
+        <v>12.2</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="N45" t="n">
-        <v>12.33666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2264,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L46" t="n">
-        <v>12.34</v>
+        <v>12.2</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>12.325</v>
-      </c>
-      <c r="N46" t="n">
-        <v>12.34333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2305,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L47" t="n">
-        <v>12.35</v>
+        <v>12.2</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>12.335</v>
-      </c>
-      <c r="N47" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2346,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.200000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>50</v>
-      </c>
-      <c r="L48" t="n">
-        <v>12.37</v>
+        <v>12.2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>12.345</v>
-      </c>
-      <c r="N48" t="n">
-        <v>12.35333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2387,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.200000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>50</v>
-      </c>
-      <c r="L49" t="n">
-        <v>12.39</v>
+        <v>12.2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>12.355</v>
-      </c>
-      <c r="N49" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2428,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.500000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>-14.2857142857145</v>
-      </c>
-      <c r="L50" t="n">
-        <v>12.38</v>
+        <v>12.2</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="N50" t="n">
-        <v>12.35666666666666</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2469,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.700000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>12.39</v>
+        <v>12.2</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>12.355</v>
-      </c>
-      <c r="N51" t="n">
-        <v>12.35666666666666</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2510,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.700000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>12.39</v>
+        <v>12.2</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>12.355</v>
-      </c>
-      <c r="N52" t="n">
-        <v>12.35333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2551,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L53" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="N53" t="n">
-        <v>12.35333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2592,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L54" t="n">
-        <v>12.42</v>
+        <v>12.2</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="N54" t="n">
-        <v>12.35333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2633,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.900000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>12.42</v>
+        <v>12.2</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>12.37499999999999</v>
-      </c>
-      <c r="N55" t="n">
-        <v>12.35333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2674,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.000000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>11.11111111111107</v>
-      </c>
-      <c r="L56" t="n">
-        <v>12.43</v>
+        <v>12.2</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>12.38499999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2715,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>11.11111111111107</v>
-      </c>
-      <c r="L57" t="n">
-        <v>12.44999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="N57" t="n">
-        <v>12.37333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2756,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>11.11111111111107</v>
-      </c>
-      <c r="L58" t="n">
-        <v>12.45999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>12.415</v>
-      </c>
-      <c r="N58" t="n">
-        <v>12.38333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2797,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.200000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>71.4285714285715</v>
-      </c>
-      <c r="L59" t="n">
-        <v>12.47999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>12.43499999999999</v>
-      </c>
-      <c r="N59" t="n">
-        <v>12.39666666666666</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2838,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.400000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>71.4285714285715</v>
-      </c>
-      <c r="L60" t="n">
-        <v>12.54999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>12.46499999999999</v>
-      </c>
-      <c r="N60" t="n">
-        <v>12.41666666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2879,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.400000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>71.4285714285715</v>
-      </c>
-      <c r="L61" t="n">
-        <v>12.59999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>12.49499999999999</v>
-      </c>
-      <c r="N61" t="n">
-        <v>12.43666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2920,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.500000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>71.4285714285715</v>
-      </c>
-      <c r="L62" t="n">
-        <v>12.65999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>12.52499999999999</v>
-      </c>
-      <c r="N62" t="n">
-        <v>12.45666666666666</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2961,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.600000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>50.00000000000011</v>
-      </c>
-      <c r="L63" t="n">
-        <v>12.69999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>12.54999999999999</v>
-      </c>
-      <c r="N63" t="n">
-        <v>12.47333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +3002,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.600000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>71.4285714285715</v>
-      </c>
-      <c r="L64" t="n">
-        <v>12.73999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>12.57999999999999</v>
-      </c>
-      <c r="N64" t="n">
-        <v>12.49333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +3043,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.700000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>71.4285714285715</v>
-      </c>
-      <c r="L65" t="n">
-        <v>12.79999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>12.60999999999999</v>
-      </c>
-      <c r="N65" t="n">
-        <v>12.51666666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3084,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.700000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>66.66666666666676</v>
-      </c>
-      <c r="L66" t="n">
-        <v>12.84999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>12.63999999999999</v>
-      </c>
-      <c r="N66" t="n">
-        <v>12.53999999999999</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3125,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.800000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L67" t="n">
-        <v>12.87999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>12.66499999999999</v>
-      </c>
-      <c r="N67" t="n">
-        <v>12.55999999999999</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3166,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>4.100000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>55.55555555555565</v>
-      </c>
-      <c r="L68" t="n">
-        <v>12.93999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>12.69999999999999</v>
-      </c>
-      <c r="N68" t="n">
-        <v>12.58999999999999</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3207,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4.200000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>50.00000000000011</v>
-      </c>
-      <c r="L69" t="n">
-        <v>12.99999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>12.73999999999999</v>
-      </c>
-      <c r="N69" t="n">
-        <v>12.62333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3248,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>55.55555555555565</v>
-      </c>
-      <c r="L70" t="n">
-        <v>13.04999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>12.79999999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>12.65999999999999</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3289,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>4.500000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>60.00000000000008</v>
-      </c>
-      <c r="L71" t="n">
-        <v>13.11999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>12.85999999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>12.70333333333332</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3330,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4.600000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>60.00000000000008</v>
-      </c>
-      <c r="L72" t="n">
-        <v>13.16999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>12.915</v>
-      </c>
-      <c r="N72" t="n">
-        <v>12.73999999999999</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3371,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J73" t="n">
-        <v>4.700000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>45.45454545454554</v>
-      </c>
-      <c r="L73" t="n">
-        <v>13.21999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>12.95999999999999</v>
-      </c>
-      <c r="N73" t="n">
-        <v>12.77333333333332</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3412,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="J74" t="n">
-        <v>4.800000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>27.27272727272739</v>
-      </c>
-      <c r="L74" t="n">
-        <v>13.25999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>12.99999999999999</v>
-      </c>
-      <c r="N74" t="n">
-        <v>12.80666666666666</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3453,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J75" t="n">
-        <v>4.900000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>33.33333333333343</v>
-      </c>
-      <c r="L75" t="n">
-        <v>13.29999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>13.04999999999999</v>
-      </c>
-      <c r="N75" t="n">
-        <v>12.83999999999999</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,29 +3494,19 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5.000000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>33.33333333333343</v>
-      </c>
-      <c r="L76" t="n">
-        <v>13.32999999999999</v>
+        <v>12.2</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>13.08999999999999</v>
-      </c>
-      <c r="N76" t="n">
-        <v>12.86999999999999</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
-        <v>1</v>
+        <v>1.08516393442623</v>
       </c>
     </row>
     <row r="77">
@@ -4171,28 +3535,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.200000000000001</v>
-      </c>
-      <c r="K77" t="n">
-        <v>27.27272727272739</v>
-      </c>
-      <c r="L77" t="n">
-        <v>13.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>13.13499999999999</v>
-      </c>
-      <c r="N77" t="n">
-        <v>12.90666666666666</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3570,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5.200000000000001</v>
-      </c>
-      <c r="K78" t="n">
-        <v>20</v>
-      </c>
-      <c r="L78" t="n">
-        <v>13.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>13.17999999999999</v>
-      </c>
-      <c r="N78" t="n">
-        <v>12.93999999999999</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3605,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K79" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L79" t="n">
-        <v>13.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>13.22999999999999</v>
-      </c>
-      <c r="N79" t="n">
-        <v>12.97999999999999</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3640,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5.699999999999999</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L80" t="n">
-        <v>13.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>13.25499999999999</v>
-      </c>
-      <c r="N80" t="n">
-        <v>13.01999999999999</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3675,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5.699999999999999</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L81" t="n">
-        <v>13.43999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>13.27999999999999</v>
-      </c>
-      <c r="N81" t="n">
-        <v>13.05333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3710,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5.899999999999999</v>
-      </c>
-      <c r="K82" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L82" t="n">
-        <v>13.44999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>13.30999999999999</v>
-      </c>
-      <c r="N82" t="n">
-        <v>13.09333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3745,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J83" t="n">
-        <v>5.899999999999999</v>
-      </c>
-      <c r="K83" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L83" t="n">
-        <v>13.46999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>13.345</v>
-      </c>
-      <c r="N83" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3780,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>5.999999999999998</v>
-      </c>
-      <c r="K84" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L84" t="n">
-        <v>13.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>13.375</v>
-      </c>
-      <c r="N84" t="n">
-        <v>13.16333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3815,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5.999999999999998</v>
-      </c>
-      <c r="K85" t="n">
-        <v>20</v>
-      </c>
-      <c r="L85" t="n">
-        <v>13.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="N85" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3850,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>6.099999999999998</v>
-      </c>
-      <c r="K86" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L86" t="n">
-        <v>13.52999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="N86" t="n">
-        <v>13.23666666666666</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3885,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J87" t="n">
-        <v>6.199999999999998</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>13.52999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="N87" t="n">
-        <v>13.26666666666666</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3920,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6.199999999999998</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L88" t="n">
-        <v>13.52999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>13.475</v>
-      </c>
-      <c r="N88" t="n">
-        <v>13.29666666666666</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3955,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6.199999999999998</v>
-      </c>
-      <c r="K89" t="n">
-        <v>20</v>
-      </c>
-      <c r="L89" t="n">
-        <v>13.50999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>13.485</v>
-      </c>
-      <c r="N89" t="n">
-        <v>13.32333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3990,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6.199999999999998</v>
-      </c>
-      <c r="K90" t="n">
-        <v>20</v>
-      </c>
-      <c r="L90" t="n">
-        <v>13.51999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="N90" t="n">
-        <v>13.34333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4025,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6.299999999999997</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>13.53999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="N91" t="n">
-        <v>13.36666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4060,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6.499999999999998</v>
-      </c>
-      <c r="K92" t="n">
-        <v>33.33333333333353</v>
-      </c>
-      <c r="L92" t="n">
-        <v>13.55999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>13.505</v>
-      </c>
-      <c r="N92" t="n">
-        <v>13.39333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4095,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K93" t="n">
-        <v>33.33333333333314</v>
-      </c>
-      <c r="L93" t="n">
-        <v>13.56999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>13.52</v>
-      </c>
-      <c r="N93" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4130,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.700000000000001</v>
-      </c>
-      <c r="K94" t="n">
-        <v>42.85714285714278</v>
-      </c>
-      <c r="L94" t="n">
-        <v>13.59999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>13.545</v>
-      </c>
-      <c r="N94" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4165,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="K95" t="n">
-        <v>42.85714285714278</v>
-      </c>
-      <c r="L95" t="n">
-        <v>13.63999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="N95" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4200,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J96" t="n">
-        <v>7.000000000000002</v>
-      </c>
-      <c r="K96" t="n">
-        <v>24.99999999999978</v>
-      </c>
-      <c r="L96" t="n">
-        <v>13.64999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="N96" t="n">
-        <v>13.50333333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4235,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>7.100000000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>11.11111111111102</v>
-      </c>
-      <c r="L97" t="n">
-        <v>13.65999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>13.595</v>
-      </c>
-      <c r="N97" t="n">
-        <v>13.52666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4270,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>7.100000000000001</v>
-      </c>
-      <c r="K98" t="n">
-        <v>11.11111111111102</v>
-      </c>
-      <c r="L98" t="n">
-        <v>13.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="N98" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4305,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="J99" t="n">
-        <v>7.400000000000002</v>
-      </c>
-      <c r="K99" t="n">
-        <v>33.33333333333324</v>
-      </c>
-      <c r="L99" t="n">
-        <v>13.70999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="N99" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4340,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J100" t="n">
-        <v>7.500000000000002</v>
-      </c>
-      <c r="K100" t="n">
-        <v>16.66666666666669</v>
-      </c>
-      <c r="L100" t="n">
-        <v>13.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="N100" t="n">
-        <v>13.57333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4375,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>7.600000000000003</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-9.090909090909179</v>
-      </c>
-      <c r="L101" t="n">
-        <v>13.74999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>13.645</v>
-      </c>
-      <c r="N101" t="n">
-        <v>13.57666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4410,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>7.600000000000003</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>13.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="N102" t="n">
-        <v>13.58333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4445,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>7.700000000000003</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-20.00000000000007</v>
-      </c>
-      <c r="L103" t="n">
-        <v>13.72999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="N103" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4480,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>7.800000000000002</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-20.00000000000007</v>
-      </c>
-      <c r="L104" t="n">
-        <v>13.71999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="N104" t="n">
-        <v>13.60333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4515,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>8.000000000000002</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-19.99999999999993</v>
-      </c>
-      <c r="L105" t="n">
-        <v>13.67999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="N105" t="n">
-        <v>13.60666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4550,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J106" t="n">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="K106" t="n">
-        <v>9.090909090909062</v>
-      </c>
-      <c r="L106" t="n">
-        <v>13.67999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>13.665</v>
-      </c>
-      <c r="N106" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4585,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>8.200000000000001</v>
-      </c>
-      <c r="K107" t="n">
-        <v>9.090909090909062</v>
-      </c>
-      <c r="L107" t="n">
-        <v>13.68999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>13.675</v>
-      </c>
-      <c r="N107" t="n">
-        <v>13.62666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4620,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-33.33333333333346</v>
-      </c>
-      <c r="L108" t="n">
-        <v>13.68999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="N108" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4655,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J109" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L109" t="n">
-        <v>13.66999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="N109" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4690,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J110" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>13.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="N110" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4725,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J111" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>13.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>13.705</v>
-      </c>
-      <c r="N111" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4760,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J112" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K112" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L112" t="n">
-        <v>13.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="N112" t="n">
-        <v>13.65333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4795,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L113" t="n">
-        <v>13.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>13.695</v>
-      </c>
-      <c r="N113" t="n">
-        <v>13.65333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4830,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J114" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K114" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L114" t="n">
-        <v>13.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="N114" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4865,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J115" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>13.67999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="N115" t="n">
-        <v>13.66666666666667</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4900,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J116" t="n">
-        <v>8.799999999999999</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L116" t="n">
-        <v>13.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="N116" t="n">
-        <v>13.66333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4935,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>8.899999999999999</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>13.64999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="N117" t="n">
-        <v>13.66666666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4970,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J118" t="n">
-        <v>8.999999999999998</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L118" t="n">
-        <v>13.63999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>13.665</v>
-      </c>
-      <c r="N118" t="n">
-        <v>13.66666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +5005,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J119" t="n">
-        <v>9.199999999999998</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>13.63999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>13.655</v>
-      </c>
-      <c r="N119" t="n">
-        <v>13.67333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +5040,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J120" t="n">
-        <v>9.199999999999998</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>13.63999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="N120" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +5075,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J121" t="n">
-        <v>9.199999999999998</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>13.63999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="N121" t="n">
-        <v>13.68333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +5110,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J122" t="n">
-        <v>9.299999999999997</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>13.62999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>13.645</v>
-      </c>
-      <c r="N122" t="n">
-        <v>13.67666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5145,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J123" t="n">
-        <v>9.299999999999997</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L123" t="n">
-        <v>13.62999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>13.645</v>
-      </c>
-      <c r="N123" t="n">
-        <v>13.67333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5180,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J124" t="n">
-        <v>9.399999999999997</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>13.62999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>13.645</v>
-      </c>
-      <c r="N124" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5215,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J125" t="n">
-        <v>9.399999999999997</v>
-      </c>
-      <c r="K125" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L125" t="n">
-        <v>13.62999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>13.655</v>
-      </c>
-      <c r="N125" t="n">
-        <v>13.66333333333333</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5250,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J126" t="n">
-        <v>9.399999999999997</v>
-      </c>
-      <c r="K126" t="n">
-        <v>20</v>
-      </c>
-      <c r="L126" t="n">
-        <v>13.64999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>13.655</v>
-      </c>
-      <c r="N126" t="n">
-        <v>13.66333333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5285,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J127" t="n">
-        <v>9.399999999999997</v>
-      </c>
-      <c r="K127" t="n">
-        <v>50</v>
-      </c>
-      <c r="L127" t="n">
-        <v>13.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>13.655</v>
-      </c>
-      <c r="N127" t="n">
-        <v>13.66666666666666</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5320,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J128" t="n">
-        <v>9.399999999999997</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>13.67999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="N128" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5355,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J129" t="n">
-        <v>9.599999999999996</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L129" t="n">
-        <v>13.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="N129" t="n">
-        <v>13.65666666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5390,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J130" t="n">
-        <v>9.799999999999995</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>13.65999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="N130" t="n">
-        <v>13.65333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5425,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J131" t="n">
-        <v>9.899999999999997</v>
-      </c>
-      <c r="K131" t="n">
-        <v>33.33333333333353</v>
-      </c>
-      <c r="L131" t="n">
-        <v>13.66999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>13.655</v>
-      </c>
-      <c r="N131" t="n">
-        <v>13.65666666666666</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5460,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J132" t="n">
-        <v>9.899999999999997</v>
-      </c>
-      <c r="K132" t="n">
-        <v>33.33333333333353</v>
-      </c>
-      <c r="L132" t="n">
-        <v>13.68999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="N132" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5495,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J133" t="n">
-        <v>9.899999999999997</v>
-      </c>
-      <c r="K133" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L133" t="n">
-        <v>13.70999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="N133" t="n">
-        <v>13.66666666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5530,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J134" t="n">
-        <v>9.899999999999997</v>
-      </c>
-      <c r="K134" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L134" t="n">
-        <v>13.71999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>13.675</v>
-      </c>
-      <c r="N134" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5565,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J135" t="n">
-        <v>9.899999999999997</v>
-      </c>
-      <c r="K135" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L135" t="n">
-        <v>13.72999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="N135" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5600,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J136" t="n">
-        <v>9.899999999999997</v>
-      </c>
-      <c r="K136" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L136" t="n">
-        <v>13.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>13.695</v>
-      </c>
-      <c r="N136" t="n">
-        <v>13.68333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5635,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J137" t="n">
-        <v>9.899999999999997</v>
-      </c>
-      <c r="K137" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L137" t="n">
-        <v>13.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>13.705</v>
-      </c>
-      <c r="N137" t="n">
-        <v>13.68666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5670,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1.700000000000001</v>
-      </c>
-      <c r="J138" t="n">
-        <v>9.899999999999997</v>
-      </c>
-      <c r="K138" t="n">
-        <v>100</v>
-      </c>
-      <c r="L138" t="n">
-        <v>13.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="N138" t="n">
-        <v>13.69333333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5705,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J139" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L139" t="n">
-        <v>13.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>13.715</v>
-      </c>
-      <c r="N139" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5740,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J140" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L140" t="n">
-        <v>13.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>13.715</v>
-      </c>
-      <c r="N140" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5775,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J141" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L141" t="n">
-        <v>13.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="N141" t="n">
-        <v>13.68666666666667</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5810,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J142" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L142" t="n">
-        <v>13.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="N142" t="n">
-        <v>13.68333333333334</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5845,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J143" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L143" t="n">
-        <v>13.69999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>13.705</v>
-      </c>
-      <c r="N143" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5880,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J144" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-66.66666666666676</v>
-      </c>
-      <c r="L144" t="n">
-        <v>13.65999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="N144" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5915,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J145" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-42.857142857143</v>
-      </c>
-      <c r="L145" t="n">
-        <v>13.62999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="N145" t="n">
-        <v>13.66333333333334</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5950,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J146" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-50.00000000000011</v>
-      </c>
-      <c r="L146" t="n">
-        <v>13.58999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>13.665</v>
-      </c>
-      <c r="N146" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5985,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J147" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-50.00000000000011</v>
-      </c>
-      <c r="L147" t="n">
-        <v>13.54999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="N147" t="n">
-        <v>13.65333333333333</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +6020,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="J148" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L148" t="n">
-        <v>13.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="N148" t="n">
-        <v>13.64666666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +6055,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J149" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L149" t="n">
-        <v>13.47999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>13.625</v>
-      </c>
-      <c r="N149" t="n">
-        <v>13.63666666666667</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +6090,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="J150" t="n">
-        <v>10.99999999999999</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L150" t="n">
-        <v>13.43999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>13.605</v>
-      </c>
-      <c r="N150" t="n">
-        <v>13.62333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +6125,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="J151" t="n">
-        <v>10.99999999999999</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L151" t="n">
-        <v>13.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="N151" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6160,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J152" t="n">
-        <v>11.09999999999999</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L152" t="n">
-        <v>13.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="N152" t="n">
-        <v>13.60333333333333</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6195,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-25.00000000000017</v>
-      </c>
-      <c r="L153" t="n">
-        <v>13.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="N153" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6230,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="J154" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-24.99999999999989</v>
-      </c>
-      <c r="L154" t="n">
-        <v>13.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>13.505</v>
-      </c>
-      <c r="N154" t="n">
-        <v>13.57666666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6265,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="J155" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L155" t="n">
-        <v>13.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="N155" t="n">
-        <v>13.56333333333333</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6300,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1.200000000000001</v>
-      </c>
-      <c r="J156" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L156" t="n">
-        <v>13.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>13.455</v>
-      </c>
-      <c r="N156" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6335,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L157" t="n">
-        <v>13.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>13.425</v>
-      </c>
-      <c r="N157" t="n">
-        <v>13.53333333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +6370,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L158" t="n">
-        <v>13.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>13.395</v>
-      </c>
-      <c r="N158" t="n">
-        <v>13.51666666666667</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +6405,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J159" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L159" t="n">
-        <v>13.26999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>13.375</v>
-      </c>
-      <c r="N159" t="n">
-        <v>13.50666666666667</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +6440,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L160" t="n">
-        <v>13.25999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="N160" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6475,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J161" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-49.99999999999978</v>
-      </c>
-      <c r="L161" t="n">
-        <v>13.24999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>13.32999999999999</v>
-      </c>
-      <c r="N161" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6510,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>13.22999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>13.30999999999999</v>
-      </c>
-      <c r="N162" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6545,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L163" t="n">
-        <v>13.22999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>13.29499999999999</v>
-      </c>
-      <c r="N163" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6580,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L164" t="n">
-        <v>13.20999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="N164" t="n">
-        <v>13.40666666666667</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6615,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J165" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L165" t="n">
-        <v>13.17999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>13.255</v>
-      </c>
-      <c r="N165" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +6650,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J166" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L166" t="n">
-        <v>13.14999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>13.235</v>
-      </c>
-      <c r="N166" t="n">
-        <v>13.35333333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +6685,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J167" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L167" t="n">
-        <v>13.12999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>13.215</v>
-      </c>
-      <c r="N167" t="n">
-        <v>13.32666666666666</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,28 +6720,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J168" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L168" t="n">
-        <v>13.10999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="N168" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,28 +6755,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L169" t="n">
-        <v>13.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>13.185</v>
-      </c>
-      <c r="N169" t="n">
-        <v>13.28333333333333</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +6790,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L170" t="n">
-        <v>13.08999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>13.175</v>
-      </c>
-      <c r="N170" t="n">
-        <v>13.26333333333333</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,28 +6825,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J171" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L171" t="n">
-        <v>13.06999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="N171" t="n">
-        <v>13.24333333333333</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,28 +6860,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="n">
-        <v>12</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L172" t="n">
-        <v>13.05999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>13.145</v>
-      </c>
-      <c r="N172" t="n">
-        <v>13.22666666666666</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,28 +6895,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="n">
-        <v>12</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>13.04999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="N173" t="n">
-        <v>13.21333333333333</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9118,28 +6930,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="n">
-        <v>12</v>
-      </c>
-      <c r="K174" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L174" t="n">
-        <v>13.04999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="N174" t="n">
-        <v>13.20333333333333</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,28 +6965,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="J175" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L175" t="n">
-        <v>13.02999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>13.105</v>
-      </c>
-      <c r="N175" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,1099 +7000,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="J176" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L176" t="n">
-        <v>13.00999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="N176" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C177" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D177" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E177" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F177" t="n">
-        <v>44482.8906</v>
-      </c>
-      <c r="G177" t="n">
-        <v>13.39666666666667</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="J177" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L177" t="n">
-        <v>12.98999999999999</v>
-      </c>
-      <c r="M177" t="n">
-        <v>13.06000000000001</v>
-      </c>
-      <c r="N177" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C178" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D178" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E178" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F178" t="n">
-        <v>47661.7465</v>
-      </c>
-      <c r="G178" t="n">
-        <v>13.38500000000001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="J178" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L178" t="n">
-        <v>12.96999999999999</v>
-      </c>
-      <c r="M178" t="n">
-        <v>13.04000000000001</v>
-      </c>
-      <c r="N178" t="n">
-        <v>13.12333333333334</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C179" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D179" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E179" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F179" t="n">
-        <v>70466.4127</v>
-      </c>
-      <c r="G179" t="n">
-        <v>13.37166666666667</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J179" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L179" t="n">
-        <v>12.94999999999999</v>
-      </c>
-      <c r="M179" t="n">
-        <v>13.02500000000001</v>
-      </c>
-      <c r="N179" t="n">
-        <v>13.10666666666667</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C180" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D180" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E180" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F180" t="n">
-        <v>7643.5723</v>
-      </c>
-      <c r="G180" t="n">
-        <v>13.35833333333334</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J180" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L180" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="M180" t="n">
-        <v>13.01000000000001</v>
-      </c>
-      <c r="N180" t="n">
-        <v>13.09333333333334</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C181" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D181" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F181" t="n">
-        <v>21603.1695</v>
-      </c>
-      <c r="G181" t="n">
-        <v>13.34333333333334</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="J181" t="n">
-        <v>12.49999999999999</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L181" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="M181" t="n">
-        <v>12.99000000000001</v>
-      </c>
-      <c r="N181" t="n">
-        <v>13.07666666666667</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>13</v>
-      </c>
-      <c r="C182" t="n">
-        <v>13</v>
-      </c>
-      <c r="D182" t="n">
-        <v>13</v>
-      </c>
-      <c r="E182" t="n">
-        <v>13</v>
-      </c>
-      <c r="F182" t="n">
-        <v>8987.961499999999</v>
-      </c>
-      <c r="G182" t="n">
-        <v>13.33333333333334</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J182" t="n">
-        <v>12.69999999999999</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L182" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="M182" t="n">
-        <v>12.98000000000001</v>
-      </c>
-      <c r="N182" t="n">
-        <v>13.06333333333334</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>13</v>
-      </c>
-      <c r="C183" t="n">
-        <v>13</v>
-      </c>
-      <c r="D183" t="n">
-        <v>13</v>
-      </c>
-      <c r="E183" t="n">
-        <v>13</v>
-      </c>
-      <c r="F183" t="n">
-        <v>8988</v>
-      </c>
-      <c r="G183" t="n">
-        <v>13.32333333333333</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J183" t="n">
-        <v>12.69999999999999</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L183" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="M183" t="n">
-        <v>12.97000000000001</v>
-      </c>
-      <c r="N183" t="n">
-        <v>13.05666666666667</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C184" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D184" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E184" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F184" t="n">
-        <v>59992.2809</v>
-      </c>
-      <c r="G184" t="n">
-        <v>13.30833333333333</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.7000000000000011</v>
-      </c>
-      <c r="J184" t="n">
-        <v>12.89999999999999</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0</v>
-      </c>
-      <c r="L184" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="M184" t="n">
-        <v>12.95500000000001</v>
-      </c>
-      <c r="N184" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C185" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D185" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E185" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F185" t="n">
-        <v>8864</v>
-      </c>
-      <c r="G185" t="n">
-        <v>13.295</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J185" t="n">
-        <v>12.99999999999999</v>
-      </c>
-      <c r="K185" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L185" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="M185" t="n">
-        <v>12.95000000000001</v>
-      </c>
-      <c r="N185" t="n">
-        <v>13.02666666666667</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C186" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D186" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E186" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F186" t="n">
-        <v>182.2526</v>
-      </c>
-      <c r="G186" t="n">
-        <v>13.28166666666666</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J186" t="n">
-        <v>12.99999999999999</v>
-      </c>
-      <c r="K186" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L186" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="M186" t="n">
-        <v>12.945</v>
-      </c>
-      <c r="N186" t="n">
-        <v>13.01333333333333</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C187" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D187" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E187" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F187" t="n">
-        <v>22460</v>
-      </c>
-      <c r="G187" t="n">
-        <v>13.26833333333333</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J187" t="n">
-        <v>12.99999999999999</v>
-      </c>
-      <c r="K187" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L187" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="M187" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="N187" t="n">
-        <v>13.00333333333333</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C188" t="n">
-        <v>13</v>
-      </c>
-      <c r="D188" t="n">
-        <v>13</v>
-      </c>
-      <c r="E188" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F188" t="n">
-        <v>273666.8476</v>
-      </c>
-      <c r="G188" t="n">
-        <v>13.25666666666666</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J188" t="n">
-        <v>13.09999999999999</v>
-      </c>
-      <c r="K188" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L188" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="M188" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="N188" t="n">
-        <v>12.99666666666667</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>13</v>
-      </c>
-      <c r="C189" t="n">
-        <v>13</v>
-      </c>
-      <c r="D189" t="n">
-        <v>13</v>
-      </c>
-      <c r="E189" t="n">
-        <v>13</v>
-      </c>
-      <c r="F189" t="n">
-        <v>8386.233899999999</v>
-      </c>
-      <c r="G189" t="n">
-        <v>13.24833333333333</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J189" t="n">
-        <v>13.09999999999999</v>
-      </c>
-      <c r="K189" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L189" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="M189" t="n">
-        <v>12.935</v>
-      </c>
-      <c r="N189" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>13</v>
-      </c>
-      <c r="C190" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D190" t="n">
-        <v>13</v>
-      </c>
-      <c r="E190" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F190" t="n">
-        <v>46701.5801</v>
-      </c>
-      <c r="G190" t="n">
-        <v>13.23499999999999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J190" t="n">
-        <v>13.19999999999999</v>
-      </c>
-      <c r="K190" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L190" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="M190" t="n">
-        <v>12.925</v>
-      </c>
-      <c r="N190" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>13</v>
-      </c>
-      <c r="C191" t="n">
-        <v>13</v>
-      </c>
-      <c r="D191" t="n">
-        <v>13</v>
-      </c>
-      <c r="E191" t="n">
-        <v>13</v>
-      </c>
-      <c r="F191" t="n">
-        <v>13600</v>
-      </c>
-      <c r="G191" t="n">
-        <v>13.22166666666666</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J191" t="n">
-        <v>13.29999999999999</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0</v>
-      </c>
-      <c r="L191" t="n">
-        <v>12.93999999999999</v>
-      </c>
-      <c r="M191" t="n">
-        <v>12.925</v>
-      </c>
-      <c r="N191" t="n">
-        <v>12.97333333333333</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C192" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D192" t="n">
-        <v>13</v>
-      </c>
-      <c r="E192" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F192" t="n">
-        <v>173450.7889</v>
-      </c>
-      <c r="G192" t="n">
-        <v>13.20666666666666</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J192" t="n">
-        <v>13.39999999999999</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L192" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="M192" t="n">
-        <v>12.915</v>
-      </c>
-      <c r="N192" t="n">
-        <v>12.96333333333333</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C193" t="n">
-        <v>13</v>
-      </c>
-      <c r="D193" t="n">
-        <v>13</v>
-      </c>
-      <c r="E193" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F193" t="n">
-        <v>62585.5817</v>
-      </c>
-      <c r="G193" t="n">
-        <v>13.19333333333333</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J193" t="n">
-        <v>13.49999999999999</v>
-      </c>
-      <c r="K193" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L193" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="M193" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="N193" t="n">
-        <v>12.95666666666667</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C194" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D194" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E194" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F194" t="n">
-        <v>6240</v>
-      </c>
-      <c r="G194" t="n">
-        <v>13.17833333333333</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J194" t="n">
-        <v>13.59999999999999</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" t="n">
-        <v>12.93999999999999</v>
-      </c>
-      <c r="M194" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="N194" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C195" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D195" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E195" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F195" t="n">
-        <v>36744.4823</v>
-      </c>
-      <c r="G195" t="n">
-        <v>13.16333333333333</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J195" t="n">
-        <v>13.59999999999999</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" t="n">
-        <v>12.93999999999999</v>
-      </c>
-      <c r="M195" t="n">
-        <v>12.90499999999999</v>
-      </c>
-      <c r="N195" t="n">
-        <v>12.94666666666667</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>13</v>
-      </c>
-      <c r="C196" t="n">
-        <v>13</v>
-      </c>
-      <c r="D196" t="n">
-        <v>13</v>
-      </c>
-      <c r="E196" t="n">
-        <v>13</v>
-      </c>
-      <c r="F196" t="n">
-        <v>10</v>
-      </c>
-      <c r="G196" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0.9000000000000004</v>
-      </c>
-      <c r="J196" t="n">
-        <v>13.69999999999999</v>
-      </c>
-      <c r="K196" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L196" t="n">
-        <v>12.94999999999999</v>
-      </c>
-      <c r="M196" t="n">
-        <v>12.91499999999999</v>
-      </c>
-      <c r="N196" t="n">
-        <v>12.94666666666667</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C197" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D197" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E197" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F197" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G197" t="n">
-        <v>13.135</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="J197" t="n">
-        <v>13.79999999999999</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L197" t="n">
-        <v>12.94999999999999</v>
-      </c>
-      <c r="M197" t="n">
-        <v>12.91999999999999</v>
-      </c>
-      <c r="N197" t="n">
-        <v>12.94333333333333</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest LBA.xlsx
+++ b/BackTest/2019-10-18 BackTest LBA.xlsx
@@ -451,17 +451,13 @@
         <v>12.06000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>12.06333333333335</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>12.06500000000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>12.06333333333335</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,17 +766,13 @@
         <v>12.06166666666668</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -865,22 +801,14 @@
         <v>12.06333333333335</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -908,22 +836,14 @@
         <v>12.06500000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,17 +871,13 @@
         <v>12.06333333333335</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -996,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1078,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1119,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1160,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1201,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1242,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1283,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1324,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1365,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1406,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1447,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1488,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1529,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1570,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1611,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1652,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1693,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1734,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1775,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1816,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1857,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1898,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1939,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1980,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2021,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2062,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2103,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2144,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2185,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2226,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2267,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2308,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2349,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2390,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2431,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2472,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2513,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2554,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2595,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2636,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2677,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2718,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2759,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2800,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2841,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2882,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2923,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2964,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3005,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3046,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3087,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3128,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3169,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3210,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3251,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3292,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3330,17 +2904,11 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3371,17 +2939,11 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3412,17 +2974,11 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3456,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3494,19 +3044,13 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>1.08516393442623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3885,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3920,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3955,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3990,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4025,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4060,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4095,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4130,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4165,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -6822,13 +6366,17 @@
         <v>13.46500000000001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>13.1</v>
+      </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
@@ -6857,14 +6405,22 @@
         <v>13.45500000000001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>13</v>
+      </c>
+      <c r="K172" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6892,14 +6448,22 @@
         <v>13.44666666666668</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6927,14 +6491,22 @@
         <v>13.43666666666668</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6962,14 +6534,22 @@
         <v>13.42166666666668</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6997,14 +6577,22 @@
         <v>13.41000000000001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K176" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-18 BackTest LBA.xlsx
+++ b/BackTest/2019-10-18 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>12.1</v>
       </c>
       <c r="F2" t="n">
-        <v>3110</v>
+        <v>34233.7196</v>
       </c>
       <c r="G2" t="n">
-        <v>12.06000000000001</v>
+        <v>12.05833333333335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>12.1</v>
       </c>
       <c r="F3" t="n">
-        <v>13110</v>
+        <v>3110</v>
       </c>
       <c r="G3" t="n">
-        <v>12.06166666666668</v>
+        <v>12.06000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>12.1</v>
       </c>
       <c r="F4" t="n">
-        <v>3110</v>
+        <v>13110</v>
       </c>
       <c r="G4" t="n">
-        <v>12.06333333333335</v>
+        <v>12.06166666666668</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>12.1</v>
       </c>
       <c r="F5" t="n">
-        <v>328.1895</v>
+        <v>3110</v>
       </c>
       <c r="G5" t="n">
-        <v>12.06500000000002</v>
+        <v>12.06333333333335</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,19 +585,23 @@
         <v>12.1</v>
       </c>
       <c r="F6" t="n">
-        <v>2043.6286</v>
+        <v>328.1895</v>
       </c>
       <c r="G6" t="n">
-        <v>12.06333333333335</v>
+        <v>12.06500000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -620,20 +624,28 @@
         <v>12.1</v>
       </c>
       <c r="F7" t="n">
-        <v>32104.5068</v>
+        <v>2043.6286</v>
       </c>
       <c r="G7" t="n">
-        <v>12.06166666666668</v>
+        <v>12.06333333333335</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,32 +655,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F8" t="n">
-        <v>20000</v>
+        <v>32104.5068</v>
       </c>
       <c r="G8" t="n">
         <v>12.06166666666668</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,19 +710,23 @@
         <v>12.2</v>
       </c>
       <c r="F9" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="G9" t="n">
         <v>12.06166666666668</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -725,7 +749,7 @@
         <v>12.2</v>
       </c>
       <c r="F10" t="n">
-        <v>14800</v>
+        <v>30000</v>
       </c>
       <c r="G10" t="n">
         <v>12.06166666666668</v>
@@ -737,8 +761,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -760,7 +790,7 @@
         <v>12.2</v>
       </c>
       <c r="F11" t="n">
-        <v>50000</v>
+        <v>14800</v>
       </c>
       <c r="G11" t="n">
         <v>12.06166666666668</v>
@@ -772,8 +802,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +819,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E12" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F12" t="n">
-        <v>247908.6178</v>
+        <v>50000</v>
       </c>
       <c r="G12" t="n">
-        <v>12.06333333333335</v>
+        <v>12.06166666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +854,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F13" t="n">
-        <v>25.3225</v>
+        <v>247908.6178</v>
       </c>
       <c r="G13" t="n">
-        <v>12.06500000000001</v>
+        <v>12.06333333333335</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +889,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C14" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D14" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E14" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F14" t="n">
-        <v>18833.4044</v>
+        <v>25.3225</v>
       </c>
       <c r="G14" t="n">
-        <v>12.06333333333335</v>
+        <v>12.06500000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +924,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C15" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D15" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F15" t="n">
-        <v>9421</v>
+        <v>18833.4044</v>
       </c>
       <c r="G15" t="n">
-        <v>12.06500000000001</v>
+        <v>12.06333333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,19 +959,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C16" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D16" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E16" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F16" t="n">
-        <v>38949</v>
+        <v>9421</v>
       </c>
       <c r="G16" t="n">
         <v>12.06500000000001</v>
@@ -964,16 +1000,16 @@
         <v>12.2</v>
       </c>
       <c r="D17" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E17" t="n">
         <v>12.2</v>
       </c>
       <c r="F17" t="n">
-        <v>83135.2647</v>
+        <v>38949</v>
       </c>
       <c r="G17" t="n">
-        <v>12.06666666666668</v>
+        <v>12.06500000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +1029,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C18" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D18" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E18" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>83135.2647</v>
       </c>
       <c r="G18" t="n">
-        <v>12.07000000000001</v>
+        <v>12.06666666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1064,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F19" t="n">
-        <v>2885.03</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>12.07500000000001</v>
+        <v>12.07000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1111,10 @@
         <v>12.3</v>
       </c>
       <c r="F20" t="n">
-        <v>41322.3139</v>
+        <v>2885.03</v>
       </c>
       <c r="G20" t="n">
-        <v>12.07833333333334</v>
+        <v>12.07500000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F21" t="n">
-        <v>213406.3828</v>
+        <v>41322.3139</v>
       </c>
       <c r="G21" t="n">
-        <v>12.08333333333334</v>
+        <v>12.07833333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1169,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>213406.3828</v>
       </c>
       <c r="G22" t="n">
-        <v>12.09000000000001</v>
+        <v>12.08333333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1216,10 @@
         <v>12.5</v>
       </c>
       <c r="F23" t="n">
-        <v>50200</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>12.09666666666667</v>
+        <v>12.09000000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1251,10 @@
         <v>12.5</v>
       </c>
       <c r="F24" t="n">
-        <v>9035.440000000001</v>
+        <v>50200</v>
       </c>
       <c r="G24" t="n">
-        <v>12.10333333333334</v>
+        <v>12.09666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1274,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F25" t="n">
-        <v>6698.8709</v>
+        <v>9035.440000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>12.10833333333334</v>
+        <v>12.10333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1309,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E26" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F26" t="n">
-        <v>73748</v>
+        <v>6698.8709</v>
       </c>
       <c r="G26" t="n">
-        <v>12.11166666666667</v>
+        <v>12.10833333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,10 +1344,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C27" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D27" t="n">
         <v>12.3</v>
@@ -1320,10 +1356,10 @@
         <v>12.2</v>
       </c>
       <c r="F27" t="n">
-        <v>49160</v>
+        <v>73748</v>
       </c>
       <c r="G27" t="n">
-        <v>12.11333333333334</v>
+        <v>12.11166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1382,19 @@
         <v>12.3</v>
       </c>
       <c r="C28" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D28" t="n">
         <v>12.3</v>
       </c>
       <c r="E28" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F28" t="n">
-        <v>24580</v>
+        <v>49160</v>
       </c>
       <c r="G28" t="n">
-        <v>12.11833333333334</v>
+        <v>12.11333333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1426,10 @@
         <v>12.3</v>
       </c>
       <c r="F29" t="n">
-        <v>49160</v>
+        <v>24580</v>
       </c>
       <c r="G29" t="n">
-        <v>12.12500000000001</v>
+        <v>12.11833333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1461,10 @@
         <v>12.3</v>
       </c>
       <c r="F30" t="n">
-        <v>61450</v>
+        <v>49160</v>
       </c>
       <c r="G30" t="n">
-        <v>12.13</v>
+        <v>12.12500000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1496,10 @@
         <v>12.3</v>
       </c>
       <c r="F31" t="n">
-        <v>8372.313899999999</v>
+        <v>61450</v>
       </c>
       <c r="G31" t="n">
-        <v>12.135</v>
+        <v>12.13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1522,19 @@
         <v>12.3</v>
       </c>
       <c r="C32" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D32" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E32" t="n">
         <v>12.3</v>
       </c>
       <c r="F32" t="n">
-        <v>49662.3139</v>
+        <v>8372.313899999999</v>
       </c>
       <c r="G32" t="n">
-        <v>12.13833333333334</v>
+        <v>12.135</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1554,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C33" t="n">
         <v>12.4</v>
@@ -1527,13 +1563,13 @@
         <v>12.4</v>
       </c>
       <c r="E33" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F33" t="n">
-        <v>1900</v>
+        <v>49662.3139</v>
       </c>
       <c r="G33" t="n">
-        <v>12.14333333333334</v>
+        <v>12.13833333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1592,19 @@
         <v>12.4</v>
       </c>
       <c r="C34" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D34" t="n">
         <v>12.4</v>
       </c>
       <c r="E34" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F34" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="G34" t="n">
-        <v>12.14666666666667</v>
+        <v>12.14333333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1624,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C35" t="n">
         <v>12.3</v>
       </c>
       <c r="D35" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E35" t="n">
         <v>12.3</v>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>2600</v>
       </c>
       <c r="G35" t="n">
-        <v>12.15</v>
+        <v>12.14666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1671,10 @@
         <v>12.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G36" t="n">
-        <v>12.155</v>
+        <v>12.15</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1706,10 @@
         <v>12.3</v>
       </c>
       <c r="F37" t="n">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="G37" t="n">
-        <v>12.16</v>
+        <v>12.155</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1699,16 +1735,16 @@
         <v>12.3</v>
       </c>
       <c r="D38" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E38" t="n">
         <v>12.3</v>
       </c>
       <c r="F38" t="n">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="G38" t="n">
-        <v>12.165</v>
+        <v>12.16</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1734,16 +1770,16 @@
         <v>12.3</v>
       </c>
       <c r="D39" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E39" t="n">
         <v>12.3</v>
       </c>
       <c r="F39" t="n">
-        <v>7400</v>
+        <v>2400</v>
       </c>
       <c r="G39" t="n">
-        <v>12.17</v>
+        <v>12.165</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1811,10 @@
         <v>12.3</v>
       </c>
       <c r="F40" t="n">
-        <v>5950</v>
+        <v>7400</v>
       </c>
       <c r="G40" t="n">
-        <v>12.17666666666666</v>
+        <v>12.17</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1846,10 @@
         <v>12.3</v>
       </c>
       <c r="F41" t="n">
-        <v>52950</v>
+        <v>5950</v>
       </c>
       <c r="G41" t="n">
-        <v>12.18333333333333</v>
+        <v>12.17666666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1869,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C42" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D42" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E42" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>52950</v>
       </c>
       <c r="G42" t="n">
-        <v>12.19166666666666</v>
+        <v>12.18333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1916,10 @@
         <v>12.4</v>
       </c>
       <c r="F43" t="n">
-        <v>550</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>12.2</v>
+        <v>12.19166666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1942,19 @@
         <v>12.4</v>
       </c>
       <c r="C44" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D44" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E44" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F44" t="n">
-        <v>76950</v>
+        <v>550</v>
       </c>
       <c r="G44" t="n">
-        <v>12.20499999999999</v>
+        <v>12.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1977,19 @@
         <v>12.4</v>
       </c>
       <c r="C45" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D45" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E45" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F45" t="n">
-        <v>166.0073</v>
+        <v>76950</v>
       </c>
       <c r="G45" t="n">
-        <v>12.21166666666666</v>
+        <v>12.20499999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2021,10 @@
         <v>12.4</v>
       </c>
       <c r="F46" t="n">
-        <v>450</v>
+        <v>166.0073</v>
       </c>
       <c r="G46" t="n">
-        <v>12.21833333333333</v>
+        <v>12.21166666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2056,10 @@
         <v>12.4</v>
       </c>
       <c r="F47" t="n">
-        <v>29600</v>
+        <v>450</v>
       </c>
       <c r="G47" t="n">
-        <v>12.22666666666666</v>
+        <v>12.21833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2082,19 @@
         <v>12.4</v>
       </c>
       <c r="C48" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D48" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E48" t="n">
         <v>12.4</v>
       </c>
       <c r="F48" t="n">
-        <v>4500</v>
+        <v>29600</v>
       </c>
       <c r="G48" t="n">
-        <v>12.23666666666666</v>
+        <v>12.22666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2126,10 @@
         <v>12.4</v>
       </c>
       <c r="F49" t="n">
-        <v>36800</v>
+        <v>4500</v>
       </c>
       <c r="G49" t="n">
-        <v>12.24666666666666</v>
+        <v>12.23666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2152,19 @@
         <v>12.4</v>
       </c>
       <c r="C50" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="D50" t="n">
         <v>12.5</v>
       </c>
       <c r="E50" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F50" t="n">
-        <v>19200</v>
+        <v>36800</v>
       </c>
       <c r="G50" t="n">
-        <v>12.25</v>
+        <v>12.24666666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2187,19 @@
         <v>12.4</v>
       </c>
       <c r="C51" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D51" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E51" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F51" t="n">
-        <v>360</v>
+        <v>19200</v>
       </c>
       <c r="G51" t="n">
-        <v>12.25666666666666</v>
+        <v>12.25</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2231,10 @@
         <v>12.4</v>
       </c>
       <c r="F52" t="n">
-        <v>3750</v>
+        <v>360</v>
       </c>
       <c r="G52" t="n">
-        <v>12.26333333333333</v>
+        <v>12.25666666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2257,19 @@
         <v>12.4</v>
       </c>
       <c r="C53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E53" t="n">
         <v>12.4</v>
       </c>
       <c r="F53" t="n">
-        <v>70900</v>
+        <v>3750</v>
       </c>
       <c r="G53" t="n">
-        <v>12.27166666666666</v>
+        <v>12.26333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,7 +2289,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C54" t="n">
         <v>12.5</v>
@@ -2262,13 +2298,13 @@
         <v>12.5</v>
       </c>
       <c r="E54" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F54" t="n">
-        <v>269434.0544</v>
+        <v>70900</v>
       </c>
       <c r="G54" t="n">
-        <v>12.28</v>
+        <v>12.27166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2327,19 @@
         <v>12.5</v>
       </c>
       <c r="C55" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D55" t="n">
         <v>12.5</v>
       </c>
       <c r="E55" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F55" t="n">
-        <v>180800</v>
+        <v>269434.0544</v>
       </c>
       <c r="G55" t="n">
-        <v>12.28666666666666</v>
+        <v>12.28</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2362,19 @@
         <v>12.5</v>
       </c>
       <c r="C56" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D56" t="n">
         <v>12.5</v>
       </c>
       <c r="E56" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F56" t="n">
-        <v>80007.3285</v>
+        <v>180800</v>
       </c>
       <c r="G56" t="n">
-        <v>12.29499999999999</v>
+        <v>12.28666666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2394,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C57" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D57" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E57" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F57" t="n">
-        <v>3500</v>
+        <v>80007.3285</v>
       </c>
       <c r="G57" t="n">
-        <v>12.305</v>
+        <v>12.29499999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2441,10 @@
         <v>12.6</v>
       </c>
       <c r="F58" t="n">
-        <v>15906.9047</v>
+        <v>3500</v>
       </c>
       <c r="G58" t="n">
-        <v>12.315</v>
+        <v>12.305</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2464,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C59" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D59" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E59" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F59" t="n">
-        <v>402172.356</v>
+        <v>15906.9047</v>
       </c>
       <c r="G59" t="n">
-        <v>12.325</v>
+        <v>12.315</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2499,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="C60" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D60" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E60" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F60" t="n">
-        <v>1450</v>
+        <v>402172.356</v>
       </c>
       <c r="G60" t="n">
-        <v>12.33833333333333</v>
+        <v>12.325</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2546,10 @@
         <v>12.9</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>1450</v>
       </c>
       <c r="G61" t="n">
-        <v>12.35166666666666</v>
+        <v>12.33833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2572,19 @@
         <v>12.9</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D62" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E62" t="n">
         <v>12.9</v>
       </c>
       <c r="F62" t="n">
-        <v>412804.1085</v>
+        <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>12.36666666666666</v>
+        <v>12.35166666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,25 +2607,25 @@
         <v>12.9</v>
       </c>
       <c r="C63" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
         <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="F63" t="n">
-        <v>428157.2433</v>
+        <v>412804.1085</v>
       </c>
       <c r="G63" t="n">
-        <v>12.37999999999999</v>
+        <v>12.36666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2609,22 +2645,22 @@
         <v>12.9</v>
       </c>
       <c r="D64" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E64" t="n">
         <v>12.7</v>
       </c>
       <c r="F64" t="n">
-        <v>108987.8014</v>
+        <v>428157.2433</v>
       </c>
       <c r="G64" t="n">
-        <v>12.39333333333333</v>
+        <v>12.37999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2641,25 +2677,25 @@
         <v>12.9</v>
       </c>
       <c r="C65" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D65" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E65" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F65" t="n">
-        <v>332844.5663</v>
+        <v>108987.8014</v>
       </c>
       <c r="G65" t="n">
-        <v>12.40833333333333</v>
+        <v>12.39333333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2673,28 +2709,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C66" t="n">
         <v>13</v>
       </c>
       <c r="D66" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E66" t="n">
         <v>12.9</v>
       </c>
       <c r="F66" t="n">
-        <v>21649.1388</v>
+        <v>332844.5663</v>
       </c>
       <c r="G66" t="n">
-        <v>12.42333333333332</v>
+        <v>12.40833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2708,28 +2744,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C67" t="n">
         <v>13</v>
       </c>
-      <c r="C67" t="n">
-        <v>12.9</v>
-      </c>
       <c r="D67" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E67" t="n">
         <v>12.9</v>
       </c>
       <c r="F67" t="n">
-        <v>22309.1742</v>
+        <v>21649.1388</v>
       </c>
       <c r="G67" t="n">
-        <v>12.43666666666666</v>
+        <v>12.42333333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2746,25 +2782,25 @@
         <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D68" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E68" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F68" t="n">
-        <v>33421.2311</v>
+        <v>22309.1742</v>
       </c>
       <c r="G68" t="n">
-        <v>12.45333333333332</v>
+        <v>12.43666666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2778,22 +2814,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>13</v>
+      </c>
+      <c r="C69" t="n">
         <v>13.2</v>
       </c>
-      <c r="C69" t="n">
-        <v>13.3</v>
-      </c>
       <c r="D69" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E69" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F69" t="n">
-        <v>101718.9473</v>
+        <v>33421.2311</v>
       </c>
       <c r="G69" t="n">
-        <v>12.47166666666666</v>
+        <v>12.45333333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2849,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="C70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E70" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F70" t="n">
-        <v>4051.175</v>
+        <v>101718.9473</v>
       </c>
       <c r="G70" t="n">
-        <v>12.49166666666665</v>
+        <v>12.47166666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2887,19 @@
         <v>13.4</v>
       </c>
       <c r="C71" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D71" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E71" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F71" t="n">
-        <v>325224.886</v>
+        <v>4051.175</v>
       </c>
       <c r="G71" t="n">
-        <v>12.51499999999999</v>
+        <v>12.49166666666665</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,28 +2919,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C72" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D72" t="n">
         <v>13.6</v>
       </c>
       <c r="E72" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F72" t="n">
-        <v>117173.5118</v>
+        <v>325224.886</v>
       </c>
       <c r="G72" t="n">
-        <v>12.53499999999999</v>
+        <v>12.51499999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2921,25 +2957,25 @@
         <v>13.6</v>
       </c>
       <c r="C73" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D73" t="n">
         <v>13.6</v>
       </c>
       <c r="E73" t="n">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="F73" t="n">
-        <v>106548.0577</v>
+        <v>117173.5118</v>
       </c>
       <c r="G73" t="n">
-        <v>12.55166666666666</v>
+        <v>12.53499999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2953,28 +2989,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C74" t="n">
         <v>13.4</v>
       </c>
-      <c r="C74" t="n">
-        <v>13.3</v>
-      </c>
       <c r="D74" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E74" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F74" t="n">
-        <v>1372147.0943</v>
+        <v>106548.0577</v>
       </c>
       <c r="G74" t="n">
-        <v>12.56999999999999</v>
+        <v>12.55166666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2991,19 +3027,19 @@
         <v>13.4</v>
       </c>
       <c r="C75" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D75" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="E75" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F75" t="n">
-        <v>31596.2088</v>
+        <v>1372147.0943</v>
       </c>
       <c r="G75" t="n">
-        <v>12.58833333333332</v>
+        <v>12.56999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3062,19 @@
         <v>13.4</v>
       </c>
       <c r="C76" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D76" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E76" t="n">
         <v>13.3</v>
       </c>
       <c r="F76" t="n">
-        <v>243008.7156</v>
+        <v>31596.2088</v>
       </c>
       <c r="G76" t="n">
-        <v>12.60666666666665</v>
+        <v>12.58833333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3097,19 @@
         <v>13.4</v>
       </c>
       <c r="C77" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D77" t="n">
         <v>13.5</v>
       </c>
-      <c r="D77" t="n">
-        <v>13.6</v>
-      </c>
       <c r="E77" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F77" t="n">
-        <v>184655.42</v>
+        <v>243008.7156</v>
       </c>
       <c r="G77" t="n">
-        <v>12.62833333333332</v>
+        <v>12.60666666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,7 +3129,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C78" t="n">
         <v>13.5</v>
@@ -3105,10 +3141,10 @@
         <v>13.4</v>
       </c>
       <c r="F78" t="n">
-        <v>26994.313</v>
+        <v>184655.42</v>
       </c>
       <c r="G78" t="n">
-        <v>12.64666666666665</v>
+        <v>12.62833333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3167,19 @@
         <v>13.5</v>
       </c>
       <c r="C79" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D79" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E79" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F79" t="n">
-        <v>234235.5035413044</v>
+        <v>26994.313</v>
       </c>
       <c r="G79" t="n">
-        <v>12.66999999999999</v>
+        <v>12.64666666666665</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3202,19 @@
         <v>13.5</v>
       </c>
       <c r="C80" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="D80" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E80" t="n">
         <v>13.5</v>
       </c>
-      <c r="E80" t="n">
-        <v>13.4</v>
-      </c>
       <c r="F80" t="n">
-        <v>163470.7461</v>
+        <v>234235.5035413044</v>
       </c>
       <c r="G80" t="n">
-        <v>12.68833333333332</v>
+        <v>12.66999999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3234,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C81" t="n">
         <v>13.4</v>
       </c>
       <c r="D81" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="E81" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F81" t="n">
-        <v>264483.3675673913</v>
+        <v>163470.7461</v>
       </c>
       <c r="G81" t="n">
-        <v>12.70499999999999</v>
+        <v>12.68833333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3269,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C82" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D82" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E82" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F82" t="n">
-        <v>95385.24400000001</v>
+        <v>264483.3675673913</v>
       </c>
       <c r="G82" t="n">
-        <v>12.72333333333332</v>
+        <v>12.70499999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3304,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C83" t="n">
         <v>13.6</v>
       </c>
       <c r="D83" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E83" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F83" t="n">
-        <v>21215.5394</v>
+        <v>95385.24400000001</v>
       </c>
       <c r="G83" t="n">
-        <v>12.74166666666665</v>
+        <v>12.72333333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3342,19 @@
         <v>13.6</v>
       </c>
       <c r="C84" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E84" t="n">
         <v>13.5</v>
       </c>
-      <c r="D84" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E84" t="n">
-        <v>13.3</v>
-      </c>
       <c r="F84" t="n">
-        <v>59673.3433</v>
+        <v>21215.5394</v>
       </c>
       <c r="G84" t="n">
-        <v>12.75833333333332</v>
+        <v>12.74166666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3374,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C85" t="n">
         <v>13.5</v>
       </c>
       <c r="D85" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E85" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F85" t="n">
-        <v>40712.3951</v>
+        <v>59673.3433</v>
       </c>
       <c r="G85" t="n">
-        <v>12.77666666666665</v>
+        <v>12.75833333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3409,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C86" t="n">
         <v>13.5</v>
       </c>
-      <c r="C86" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E86" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F86" t="n">
-        <v>49773.065</v>
+        <v>40712.3951</v>
       </c>
       <c r="G86" t="n">
-        <v>12.79833333333332</v>
+        <v>12.77666666666665</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3444,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C87" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E87" t="n">
         <v>13.5</v>
       </c>
-      <c r="D87" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E87" t="n">
-        <v>13.3</v>
-      </c>
       <c r="F87" t="n">
-        <v>142187.092</v>
+        <v>49773.065</v>
       </c>
       <c r="G87" t="n">
-        <v>12.81999999999999</v>
+        <v>12.79833333333332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3479,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C88" t="n">
         <v>13.5</v>
       </c>
       <c r="D88" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E88" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F88" t="n">
-        <v>65233.3288</v>
+        <v>142187.092</v>
       </c>
       <c r="G88" t="n">
-        <v>12.83999999999999</v>
+        <v>12.81999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3484,16 +3520,16 @@
         <v>13.5</v>
       </c>
       <c r="D89" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E89" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F89" t="n">
-        <v>6138.381</v>
+        <v>65233.3288</v>
       </c>
       <c r="G89" t="n">
-        <v>12.85999999999999</v>
+        <v>12.83999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3519,16 +3555,16 @@
         <v>13.5</v>
       </c>
       <c r="D90" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E90" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F90" t="n">
-        <v>43106.6361</v>
+        <v>6138.381</v>
       </c>
       <c r="G90" t="n">
-        <v>12.87999999999999</v>
+        <v>12.85999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3587,19 @@
         <v>13.5</v>
       </c>
       <c r="C91" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D91" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="E91" t="n">
         <v>13.5</v>
       </c>
       <c r="F91" t="n">
-        <v>804498.3001</v>
+        <v>43106.6361</v>
       </c>
       <c r="G91" t="n">
-        <v>12.90166666666666</v>
+        <v>12.87999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3619,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C92" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D92" t="n">
         <v>13.9</v>
       </c>
       <c r="E92" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F92" t="n">
-        <v>64481.2609</v>
+        <v>804498.3001</v>
       </c>
       <c r="G92" t="n">
-        <v>12.92499999999999</v>
+        <v>12.90166666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3654,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C93" t="n">
         <v>13.8</v>
       </c>
-      <c r="C93" t="n">
-        <v>13.7</v>
-      </c>
       <c r="D93" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="E93" t="n">
         <v>13.6</v>
       </c>
       <c r="F93" t="n">
-        <v>488479.4757890617</v>
+        <v>64481.2609</v>
       </c>
       <c r="G93" t="n">
-        <v>12.94666666666666</v>
+        <v>12.92499999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3689,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C94" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D94" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="E94" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F94" t="n">
-        <v>86104.54577053488</v>
+        <v>488479.4757890617</v>
       </c>
       <c r="G94" t="n">
-        <v>12.97166666666666</v>
+        <v>12.94666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3727,19 @@
         <v>13.7</v>
       </c>
       <c r="C95" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D95" t="n">
         <v>13.9</v>
       </c>
       <c r="E95" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F95" t="n">
-        <v>69724.56526404442</v>
+        <v>86104.54577053488</v>
       </c>
       <c r="G95" t="n">
-        <v>12.99833333333333</v>
+        <v>12.97166666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3759,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C96" t="n">
         <v>13.9</v>
-      </c>
-      <c r="C96" t="n">
-        <v>13.7</v>
       </c>
       <c r="D96" t="n">
         <v>13.9</v>
       </c>
       <c r="E96" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F96" t="n">
-        <v>37299.91126008758</v>
+        <v>69724.56526404442</v>
       </c>
       <c r="G96" t="n">
-        <v>13.02166666666666</v>
+        <v>12.99833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3794,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="C97" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D97" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="E97" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F97" t="n">
-        <v>64603.958</v>
+        <v>37299.91126008758</v>
       </c>
       <c r="G97" t="n">
-        <v>13.04333333333333</v>
+        <v>13.02166666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3829,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C98" t="n">
         <v>13.6</v>
       </c>
       <c r="D98" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E98" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F98" t="n">
-        <v>174055.8764</v>
+        <v>64603.958</v>
       </c>
       <c r="G98" t="n">
-        <v>13.065</v>
+        <v>13.04333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3864,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C99" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D99" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E99" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F99" t="n">
-        <v>189296.725</v>
+        <v>174055.8764</v>
       </c>
       <c r="G99" t="n">
-        <v>13.09166666666667</v>
+        <v>13.065</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3902,19 @@
         <v>13.7</v>
       </c>
       <c r="C100" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D100" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E100" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F100" t="n">
-        <v>74408.38740000001</v>
+        <v>189296.725</v>
       </c>
       <c r="G100" t="n">
-        <v>13.11666666666667</v>
+        <v>13.09166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,10 +3934,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C101" t="n">
         <v>13.8</v>
-      </c>
-      <c r="C101" t="n">
-        <v>13.7</v>
       </c>
       <c r="D101" t="n">
         <v>13.8</v>
@@ -3910,10 +3946,10 @@
         <v>13.5</v>
       </c>
       <c r="F101" t="n">
-        <v>253926.5924</v>
+        <v>74408.38740000001</v>
       </c>
       <c r="G101" t="n">
-        <v>13.14</v>
+        <v>13.11666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3969,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C102" t="n">
         <v>13.7</v>
       </c>
       <c r="D102" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E102" t="n">
         <v>13.5</v>
       </c>
       <c r="F102" t="n">
-        <v>92237.7935</v>
+        <v>253926.5924</v>
       </c>
       <c r="G102" t="n">
-        <v>13.16166666666667</v>
+        <v>13.14</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +4007,19 @@
         <v>13.7</v>
       </c>
       <c r="C103" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D103" t="n">
         <v>13.7</v>
       </c>
       <c r="E103" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F103" t="n">
-        <v>31536.54782352941</v>
+        <v>92237.7935</v>
       </c>
       <c r="G103" t="n">
-        <v>13.18166666666667</v>
+        <v>13.16166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,10 +4039,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C104" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D104" t="n">
         <v>13.7</v>
@@ -4015,10 +4051,10 @@
         <v>13.6</v>
       </c>
       <c r="F104" t="n">
-        <v>19379.67507647059</v>
+        <v>31536.54782352941</v>
       </c>
       <c r="G104" t="n">
-        <v>13.205</v>
+        <v>13.18166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4077,19 @@
         <v>13.6</v>
       </c>
       <c r="C105" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D105" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E105" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F105" t="n">
-        <v>38936.9632</v>
+        <v>19379.67507647059</v>
       </c>
       <c r="G105" t="n">
-        <v>13.22333333333334</v>
+        <v>13.205</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4109,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C106" t="n">
         <v>13.5</v>
       </c>
-      <c r="C106" t="n">
-        <v>13.7</v>
-      </c>
       <c r="D106" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E106" t="n">
         <v>13.5</v>
       </c>
       <c r="F106" t="n">
-        <v>77476.4391</v>
+        <v>38936.9632</v>
       </c>
       <c r="G106" t="n">
-        <v>13.245</v>
+        <v>13.22333333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4144,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C107" t="n">
         <v>13.7</v>
       </c>
       <c r="D107" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E107" t="n">
         <v>13.5</v>
       </c>
       <c r="F107" t="n">
-        <v>121683.0617</v>
+        <v>77476.4391</v>
       </c>
       <c r="G107" t="n">
-        <v>13.26666666666667</v>
+        <v>13.245</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4179,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C108" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D108" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E108" t="n">
         <v>13.5</v>
       </c>
       <c r="F108" t="n">
-        <v>18382.1984</v>
+        <v>121683.0617</v>
       </c>
       <c r="G108" t="n">
-        <v>13.28500000000001</v>
+        <v>13.26666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,7 +4217,7 @@
         <v>13.6</v>
       </c>
       <c r="C109" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D109" t="n">
         <v>13.7</v>
@@ -4190,10 +4226,10 @@
         <v>13.5</v>
       </c>
       <c r="F109" t="n">
-        <v>145438.7925</v>
+        <v>18382.1984</v>
       </c>
       <c r="G109" t="n">
-        <v>13.30500000000001</v>
+        <v>13.28500000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,7 +4249,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C110" t="n">
         <v>13.7</v>
@@ -4225,10 +4261,10 @@
         <v>13.5</v>
       </c>
       <c r="F110" t="n">
-        <v>28472.1818</v>
+        <v>145438.7925</v>
       </c>
       <c r="G110" t="n">
-        <v>13.33000000000001</v>
+        <v>13.30500000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4257,13 +4293,13 @@
         <v>13.7</v>
       </c>
       <c r="E111" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F111" t="n">
-        <v>17256.6256</v>
+        <v>28472.1818</v>
       </c>
       <c r="G111" t="n">
-        <v>13.35166666666668</v>
+        <v>13.33000000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4292,13 +4328,13 @@
         <v>13.7</v>
       </c>
       <c r="E112" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F112" t="n">
-        <v>4100</v>
+        <v>17256.6256</v>
       </c>
       <c r="G112" t="n">
-        <v>13.37333333333334</v>
+        <v>13.35166666666668</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4354,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C113" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D113" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E113" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F113" t="n">
-        <v>4662.9148</v>
+        <v>4100</v>
       </c>
       <c r="G113" t="n">
-        <v>13.39166666666668</v>
+        <v>13.37333333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4392,19 @@
         <v>13.6</v>
       </c>
       <c r="C114" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D114" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E114" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F114" t="n">
-        <v>168413.7289</v>
+        <v>4662.9148</v>
       </c>
       <c r="G114" t="n">
-        <v>13.41166666666668</v>
+        <v>13.39166666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,7 +4424,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C115" t="n">
         <v>13.7</v>
@@ -4397,13 +4433,13 @@
         <v>13.7</v>
       </c>
       <c r="E115" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F115" t="n">
-        <v>28612.1861</v>
+        <v>168413.7289</v>
       </c>
       <c r="G115" t="n">
-        <v>13.43333333333334</v>
+        <v>13.41166666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4426,19 +4462,19 @@
         <v>13.7</v>
       </c>
       <c r="C116" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D116" t="n">
         <v>13.7</v>
       </c>
       <c r="E116" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F116" t="n">
-        <v>1492.2752</v>
+        <v>28612.1861</v>
       </c>
       <c r="G116" t="n">
-        <v>13.45000000000001</v>
+        <v>13.43333333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4494,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C117" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D117" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E117" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F117" t="n">
-        <v>1233.75</v>
+        <v>1492.2752</v>
       </c>
       <c r="G117" t="n">
-        <v>13.46666666666668</v>
+        <v>13.45000000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4529,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F118" t="n">
-        <v>3327.3941</v>
+        <v>1233.75</v>
       </c>
       <c r="G118" t="n">
-        <v>13.48166666666668</v>
+        <v>13.46666666666668</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4567,19 @@
         <v>13.5</v>
       </c>
       <c r="C119" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D119" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E119" t="n">
         <v>13.5</v>
       </c>
       <c r="F119" t="n">
-        <v>67103.14109999999</v>
+        <v>3327.3941</v>
       </c>
       <c r="G119" t="n">
-        <v>13.49833333333334</v>
+        <v>13.48166666666668</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,7 +4599,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C120" t="n">
         <v>13.7</v>
@@ -4572,13 +4608,13 @@
         <v>13.7</v>
       </c>
       <c r="E120" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F120" t="n">
-        <v>3900.0729</v>
+        <v>67103.14109999999</v>
       </c>
       <c r="G120" t="n">
-        <v>13.51166666666668</v>
+        <v>13.49833333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4607,13 +4643,13 @@
         <v>13.7</v>
       </c>
       <c r="E121" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F121" t="n">
-        <v>60472.3772</v>
+        <v>3900.0729</v>
       </c>
       <c r="G121" t="n">
-        <v>13.52500000000001</v>
+        <v>13.51166666666668</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4669,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C122" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D122" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E122" t="n">
         <v>13.6</v>
       </c>
       <c r="F122" t="n">
-        <v>40686.1522</v>
+        <v>60472.3772</v>
       </c>
       <c r="G122" t="n">
-        <v>13.53500000000001</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4716,10 @@
         <v>13.6</v>
       </c>
       <c r="F123" t="n">
-        <v>400</v>
+        <v>40686.1522</v>
       </c>
       <c r="G123" t="n">
-        <v>13.54666666666668</v>
+        <v>13.53500000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4742,19 @@
         <v>13.6</v>
       </c>
       <c r="C124" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D124" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E124" t="n">
         <v>13.6</v>
       </c>
       <c r="F124" t="n">
-        <v>21285.6934</v>
+        <v>400</v>
       </c>
       <c r="G124" t="n">
-        <v>13.56000000000001</v>
+        <v>13.54666666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,7 +4774,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C125" t="n">
         <v>13.7</v>
@@ -4750,10 +4786,10 @@
         <v>13.6</v>
       </c>
       <c r="F125" t="n">
-        <v>4748.3918</v>
+        <v>21285.6934</v>
       </c>
       <c r="G125" t="n">
-        <v>13.57166666666668</v>
+        <v>13.56000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4782,13 +4818,13 @@
         <v>13.7</v>
       </c>
       <c r="E126" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F126" t="n">
-        <v>68359.0145</v>
+        <v>4748.3918</v>
       </c>
       <c r="G126" t="n">
-        <v>13.58333333333335</v>
+        <v>13.57166666666668</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,7 +4844,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C127" t="n">
         <v>13.7</v>
@@ -4817,13 +4853,13 @@
         <v>13.7</v>
       </c>
       <c r="E127" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F127" t="n">
-        <v>11161.5583</v>
+        <v>68359.0145</v>
       </c>
       <c r="G127" t="n">
-        <v>13.59666666666669</v>
+        <v>13.58333333333335</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,7 +4879,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C128" t="n">
         <v>13.7</v>
@@ -4852,13 +4888,13 @@
         <v>13.7</v>
       </c>
       <c r="E128" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F128" t="n">
-        <v>24890.5109</v>
+        <v>11161.5583</v>
       </c>
       <c r="G128" t="n">
-        <v>13.60500000000002</v>
+        <v>13.59666666666669</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4914,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C129" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D129" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E129" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F129" t="n">
-        <v>56538.997</v>
+        <v>24890.5109</v>
       </c>
       <c r="G129" t="n">
-        <v>13.60833333333335</v>
+        <v>13.60500000000002</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +4952,19 @@
         <v>13.6</v>
       </c>
       <c r="C130" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D130" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E130" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F130" t="n">
-        <v>135939.5331</v>
+        <v>56538.997</v>
       </c>
       <c r="G130" t="n">
-        <v>13.61333333333335</v>
+        <v>13.60833333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4951,19 +4987,19 @@
         <v>13.6</v>
       </c>
       <c r="C131" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D131" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E131" t="n">
         <v>13.6</v>
       </c>
       <c r="F131" t="n">
-        <v>60087.0528</v>
+        <v>135939.5331</v>
       </c>
       <c r="G131" t="n">
-        <v>13.61666666666668</v>
+        <v>13.61333333333335</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,7 +5019,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C132" t="n">
         <v>13.8</v>
@@ -4992,13 +5028,13 @@
         <v>13.8</v>
       </c>
       <c r="E132" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F132" t="n">
-        <v>23323.2608</v>
+        <v>60087.0528</v>
       </c>
       <c r="G132" t="n">
-        <v>13.62166666666669</v>
+        <v>13.61666666666668</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5066,10 @@
         <v>13.8</v>
       </c>
       <c r="F133" t="n">
-        <v>126265.6077</v>
+        <v>23323.2608</v>
       </c>
       <c r="G133" t="n">
-        <v>13.62833333333335</v>
+        <v>13.62166666666669</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5101,10 @@
         <v>13.8</v>
       </c>
       <c r="F134" t="n">
-        <v>10225.2643</v>
+        <v>126265.6077</v>
       </c>
       <c r="G134" t="n">
-        <v>13.63666666666668</v>
+        <v>13.62833333333335</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5136,10 @@
         <v>13.8</v>
       </c>
       <c r="F135" t="n">
-        <v>133873.041</v>
+        <v>10225.2643</v>
       </c>
       <c r="G135" t="n">
-        <v>13.64333333333335</v>
+        <v>13.63666666666668</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5171,10 @@
         <v>13.8</v>
       </c>
       <c r="F136" t="n">
-        <v>4798.913</v>
+        <v>133873.041</v>
       </c>
       <c r="G136" t="n">
-        <v>13.65166666666668</v>
+        <v>13.64333333333335</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5206,10 @@
         <v>13.8</v>
       </c>
       <c r="F137" t="n">
-        <v>2154.9869</v>
+        <v>4798.913</v>
       </c>
       <c r="G137" t="n">
-        <v>13.65666666666668</v>
+        <v>13.65166666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5241,10 @@
         <v>13.8</v>
       </c>
       <c r="F138" t="n">
-        <v>63124.6234</v>
+        <v>2154.9869</v>
       </c>
       <c r="G138" t="n">
-        <v>13.66166666666668</v>
+        <v>13.65666666666668</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5264,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C139" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D139" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E139" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F139" t="n">
-        <v>111889.4542</v>
+        <v>63124.6234</v>
       </c>
       <c r="G139" t="n">
-        <v>13.66000000000002</v>
+        <v>13.66166666666668</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5266,19 +5302,19 @@
         <v>13.7</v>
       </c>
       <c r="C140" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D140" t="n">
         <v>13.7</v>
       </c>
       <c r="E140" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F140" t="n">
-        <v>93003.9457</v>
+        <v>111889.4542</v>
       </c>
       <c r="G140" t="n">
-        <v>13.66500000000002</v>
+        <v>13.66000000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5301,19 +5337,19 @@
         <v>13.7</v>
       </c>
       <c r="C141" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D141" t="n">
         <v>13.7</v>
       </c>
       <c r="E141" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F141" t="n">
-        <v>141034.7252</v>
+        <v>93003.9457</v>
       </c>
       <c r="G141" t="n">
-        <v>13.66833333333335</v>
+        <v>13.66500000000002</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,19 +5369,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C142" t="n">
         <v>13.6</v>
       </c>
       <c r="D142" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E142" t="n">
         <v>13.6</v>
       </c>
       <c r="F142" t="n">
-        <v>40000</v>
+        <v>141034.7252</v>
       </c>
       <c r="G142" t="n">
         <v>13.66833333333335</v>
@@ -5371,19 +5407,19 @@
         <v>13.6</v>
       </c>
       <c r="C143" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D143" t="n">
         <v>13.6</v>
       </c>
       <c r="E143" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F143" t="n">
-        <v>21945.0735</v>
+        <v>40000</v>
       </c>
       <c r="G143" t="n">
-        <v>13.66666666666668</v>
+        <v>13.66833333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5439,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C144" t="n">
         <v>13.5</v>
       </c>
-      <c r="C144" t="n">
-        <v>13.4</v>
-      </c>
       <c r="D144" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E144" t="n">
         <v>13.5</v>
       </c>
-      <c r="E144" t="n">
-        <v>13.4</v>
-      </c>
       <c r="F144" t="n">
-        <v>197881.5877</v>
+        <v>21945.0735</v>
       </c>
       <c r="G144" t="n">
-        <v>13.66500000000002</v>
+        <v>13.66666666666668</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,19 +5474,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C145" t="n">
         <v>13.4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>13.5</v>
       </c>
       <c r="D145" t="n">
         <v>13.5</v>
       </c>
       <c r="E145" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F145" t="n">
-        <v>106970.2176</v>
+        <v>197881.5877</v>
       </c>
       <c r="G145" t="n">
         <v>13.66500000000002</v>
@@ -5473,22 +5509,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C146" t="n">
         <v>13.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>13.4</v>
       </c>
       <c r="D146" t="n">
         <v>13.5</v>
       </c>
       <c r="E146" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F146" t="n">
-        <v>120775.051</v>
+        <v>106970.2176</v>
       </c>
       <c r="G146" t="n">
-        <v>13.66166666666668</v>
+        <v>13.66500000000002</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5544,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C147" t="n">
         <v>13.4</v>
       </c>
       <c r="D147" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E147" t="n">
         <v>13.4</v>
       </c>
       <c r="F147" t="n">
-        <v>22184.2329</v>
+        <v>120775.051</v>
       </c>
       <c r="G147" t="n">
-        <v>13.66000000000002</v>
+        <v>13.66166666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5579,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C148" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D148" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E148" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F148" t="n">
-        <v>44739.2574</v>
+        <v>22184.2329</v>
       </c>
       <c r="G148" t="n">
-        <v>13.65666666666668</v>
+        <v>13.66000000000002</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5614,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C149" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D149" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E149" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F149" t="n">
-        <v>1010</v>
+        <v>44739.2574</v>
       </c>
       <c r="G149" t="n">
-        <v>13.65500000000001</v>
+        <v>13.65666666666668</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5649,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C150" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D150" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E150" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F150" t="n">
-        <v>78940.1562</v>
+        <v>1010</v>
       </c>
       <c r="G150" t="n">
-        <v>13.65166666666668</v>
+        <v>13.65500000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5696,10 @@
         <v>13.3</v>
       </c>
       <c r="F151" t="n">
-        <v>171724.9201</v>
+        <v>78940.1562</v>
       </c>
       <c r="G151" t="n">
-        <v>13.64666666666668</v>
+        <v>13.65166666666668</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5719,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C152" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D152" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E152" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F152" t="n">
-        <v>53086.7348</v>
+        <v>171724.9201</v>
       </c>
       <c r="G152" t="n">
-        <v>13.64000000000001</v>
+        <v>13.64666666666668</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5754,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C153" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D153" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E153" t="n">
         <v>13.2</v>
       </c>
       <c r="F153" t="n">
-        <v>33722.1239</v>
+        <v>53086.7348</v>
       </c>
       <c r="G153" t="n">
-        <v>13.63166666666668</v>
+        <v>13.64000000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5756,19 +5792,19 @@
         <v>13.3</v>
       </c>
       <c r="C154" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D154" t="n">
         <v>13.3</v>
       </c>
       <c r="E154" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F154" t="n">
-        <v>78263.2539</v>
+        <v>33722.1239</v>
       </c>
       <c r="G154" t="n">
-        <v>13.62333333333335</v>
+        <v>13.63166666666668</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5836,10 @@
         <v>13.3</v>
       </c>
       <c r="F155" t="n">
-        <v>30000</v>
+        <v>78263.2539</v>
       </c>
       <c r="G155" t="n">
-        <v>13.61333333333335</v>
+        <v>13.62333333333335</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5871,10 @@
         <v>13.3</v>
       </c>
       <c r="F156" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G156" t="n">
-        <v>13.60666666666668</v>
+        <v>13.61333333333335</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5861,19 +5897,19 @@
         <v>13.3</v>
       </c>
       <c r="C157" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D157" t="n">
         <v>13.3</v>
       </c>
       <c r="E157" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F157" t="n">
-        <v>49335.6584</v>
+        <v>10000</v>
       </c>
       <c r="G157" t="n">
-        <v>13.60000000000001</v>
+        <v>13.60666666666668</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,7 +5929,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C158" t="n">
         <v>13.2</v>
@@ -5905,10 +5941,10 @@
         <v>13.2</v>
       </c>
       <c r="F158" t="n">
-        <v>8173.5345</v>
+        <v>49335.6584</v>
       </c>
       <c r="G158" t="n">
-        <v>13.59333333333334</v>
+        <v>13.60000000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,7 +5964,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C159" t="n">
         <v>13.2</v>
@@ -5940,10 +5976,10 @@
         <v>13.2</v>
       </c>
       <c r="F159" t="n">
-        <v>10406.6375</v>
+        <v>8173.5345</v>
       </c>
       <c r="G159" t="n">
-        <v>13.58166666666668</v>
+        <v>13.59333333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5975,10 +6011,10 @@
         <v>13.2</v>
       </c>
       <c r="F160" t="n">
-        <v>33276.9347</v>
+        <v>10406.6375</v>
       </c>
       <c r="G160" t="n">
-        <v>13.57166666666668</v>
+        <v>13.58166666666668</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6034,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C161" t="n">
         <v>13.2</v>
       </c>
       <c r="D161" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E161" t="n">
         <v>13.2</v>
       </c>
       <c r="F161" t="n">
-        <v>45077.4066</v>
+        <v>33276.9347</v>
       </c>
       <c r="G161" t="n">
-        <v>13.56333333333335</v>
+        <v>13.57166666666668</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,10 +6081,10 @@
         <v>13.2</v>
       </c>
       <c r="F162" t="n">
-        <v>63458.1205</v>
+        <v>45077.4066</v>
       </c>
       <c r="G162" t="n">
-        <v>13.55500000000001</v>
+        <v>13.56333333333335</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6116,10 @@
         <v>13.2</v>
       </c>
       <c r="F163" t="n">
-        <v>72796.1346</v>
+        <v>63458.1205</v>
       </c>
       <c r="G163" t="n">
-        <v>13.54833333333335</v>
+        <v>13.55500000000001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6106,19 +6142,19 @@
         <v>13.2</v>
       </c>
       <c r="C164" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D164" t="n">
         <v>13.2</v>
       </c>
       <c r="E164" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F164" t="n">
-        <v>87851.7352</v>
+        <v>72796.1346</v>
       </c>
       <c r="G164" t="n">
-        <v>13.53833333333335</v>
+        <v>13.54833333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6174,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C165" t="n">
         <v>13.1</v>
       </c>
-      <c r="C165" t="n">
-        <v>13</v>
-      </c>
       <c r="D165" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E165" t="n">
         <v>13.1</v>
       </c>
-      <c r="E165" t="n">
-        <v>13</v>
-      </c>
       <c r="F165" t="n">
-        <v>1679784.0124</v>
+        <v>87851.7352</v>
       </c>
       <c r="G165" t="n">
-        <v>13.53000000000001</v>
+        <v>13.53833333333335</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6209,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C166" t="n">
         <v>13</v>
       </c>
       <c r="D166" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
       </c>
       <c r="F166" t="n">
-        <v>24539.0096</v>
+        <v>1679784.0124</v>
       </c>
       <c r="G166" t="n">
-        <v>13.51833333333335</v>
+        <v>13.53000000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6256,10 @@
         <v>13</v>
       </c>
       <c r="F167" t="n">
-        <v>25691.1841</v>
+        <v>24539.0096</v>
       </c>
       <c r="G167" t="n">
-        <v>13.50666666666668</v>
+        <v>13.51833333333335</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6291,10 @@
         <v>13</v>
       </c>
       <c r="F168" t="n">
-        <v>3483.7133</v>
+        <v>25691.1841</v>
       </c>
       <c r="G168" t="n">
-        <v>13.49666666666668</v>
+        <v>13.50666666666668</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6314,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C169" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D169" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E169" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F169" t="n">
-        <v>148111.9192</v>
+        <v>3483.7133</v>
       </c>
       <c r="G169" t="n">
-        <v>13.48666666666668</v>
+        <v>13.49666666666668</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6325,10 +6361,10 @@
         <v>13.1</v>
       </c>
       <c r="F170" t="n">
-        <v>26830</v>
+        <v>148111.9192</v>
       </c>
       <c r="G170" t="n">
-        <v>13.47666666666668</v>
+        <v>13.48666666666668</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,35 +6384,31 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C171" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D171" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E171" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F171" t="n">
-        <v>35892.8622</v>
+        <v>26830</v>
       </c>
       <c r="G171" t="n">
-        <v>13.46500000000001</v>
+        <v>13.47666666666668</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K171" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
@@ -6390,37 +6422,29 @@
         <v>13</v>
       </c>
       <c r="C172" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D172" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
       </c>
       <c r="F172" t="n">
-        <v>50000</v>
+        <v>35892.8622</v>
       </c>
       <c r="G172" t="n">
-        <v>13.45500000000001</v>
+        <v>13.46500000000001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>13</v>
-      </c>
-      <c r="K172" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6430,7 +6454,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C173" t="n">
         <v>13.1</v>
@@ -6439,31 +6463,23 @@
         <v>13.1</v>
       </c>
       <c r="E173" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F173" t="n">
-        <v>2880</v>
+        <v>50000</v>
       </c>
       <c r="G173" t="n">
-        <v>13.44666666666668</v>
+        <v>13.45500000000001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K173" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6473,7 +6489,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C174" t="n">
         <v>13.1</v>
@@ -6482,31 +6498,23 @@
         <v>13.1</v>
       </c>
       <c r="E174" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F174" t="n">
-        <v>194495.1951</v>
+        <v>2880</v>
       </c>
       <c r="G174" t="n">
-        <v>13.43666666666668</v>
+        <v>13.44666666666668</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K174" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6519,37 +6527,29 @@
         <v>13</v>
       </c>
       <c r="C175" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D175" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E175" t="n">
         <v>13</v>
       </c>
-      <c r="E175" t="n">
-        <v>12.8</v>
-      </c>
       <c r="F175" t="n">
-        <v>196082.2526</v>
+        <v>194495.1951</v>
       </c>
       <c r="G175" t="n">
-        <v>13.42166666666668</v>
+        <v>13.43666666666668</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K175" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6559,41 +6559,68 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C176" t="n">
         <v>12.8</v>
       </c>
       <c r="D176" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E176" t="n">
         <v>12.8</v>
       </c>
       <c r="F176" t="n">
+        <v>196082.2526</v>
+      </c>
+      <c r="G176" t="n">
+        <v>13.42166666666668</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F177" t="n">
         <v>17660</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G177" t="n">
         <v>13.41000000000001</v>
       </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K176" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest LBA.xlsx
+++ b/BackTest/2019-10-18 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>34233.7196</v>
       </c>
       <c r="G2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.05833333333335</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>3110</v>
       </c>
       <c r="G3" t="n">
+        <v>12.01333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.06000000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>13110</v>
       </c>
       <c r="G4" t="n">
+        <v>12.02666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.06166666666668</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>3110</v>
       </c>
       <c r="G5" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.06333333333335</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,22 +625,25 @@
         <v>328.1895</v>
       </c>
       <c r="G6" t="n">
+        <v>12.04666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.06500000000002</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>12.1</v>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -627,26 +667,29 @@
         <v>2043.6286</v>
       </c>
       <c r="G7" t="n">
+        <v>12.05333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.06333333333335</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>12.1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -670,26 +713,29 @@
         <v>32104.5068</v>
       </c>
       <c r="G8" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.06166666666668</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>12.1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,22 +759,25 @@
         <v>20000</v>
       </c>
       <c r="G9" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.06166666666668</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>12.1</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -752,24 +801,29 @@
         <v>30000</v>
       </c>
       <c r="G10" t="n">
+        <v>12.08666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.06166666666668</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L10" t="n">
         <v>12.1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -793,24 +847,29 @@
         <v>14800</v>
       </c>
       <c r="G11" t="n">
+        <v>12.09999999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.06166666666668</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L11" t="n">
         <v>12.1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -834,18 +893,21 @@
         <v>50000</v>
       </c>
       <c r="G12" t="n">
+        <v>12.11333333333332</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.06166666666668</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,18 +931,21 @@
         <v>247908.6178</v>
       </c>
       <c r="G13" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.06333333333335</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -904,18 +969,21 @@
         <v>25.3225</v>
       </c>
       <c r="G14" t="n">
+        <v>12.15999999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.06500000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -939,18 +1007,21 @@
         <v>18833.4044</v>
       </c>
       <c r="G15" t="n">
+        <v>12.16666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.06333333333335</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -974,18 +1045,21 @@
         <v>9421</v>
       </c>
       <c r="G16" t="n">
+        <v>12.17999999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.06500000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1009,18 +1083,21 @@
         <v>38949</v>
       </c>
       <c r="G17" t="n">
+        <v>12.18666666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.06500000000001</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,18 +1121,21 @@
         <v>83135.2647</v>
       </c>
       <c r="G18" t="n">
+        <v>12.19333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.06666666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,18 +1159,21 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
+        <v>12.21333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.07000000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1114,18 +1197,21 @@
         <v>2885.03</v>
       </c>
       <c r="G20" t="n">
+        <v>12.22666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.07500000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,18 +1235,21 @@
         <v>41322.3139</v>
       </c>
       <c r="G21" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.07833333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1184,18 +1273,21 @@
         <v>213406.3828</v>
       </c>
       <c r="G22" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.08333333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1219,18 +1311,21 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
+        <v>12.28666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>12.09000000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,18 +1349,21 @@
         <v>50200</v>
       </c>
       <c r="G24" t="n">
+        <v>12.30666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>12.09666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1289,18 +1387,21 @@
         <v>9035.440000000001</v>
       </c>
       <c r="G25" t="n">
+        <v>12.32666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>12.10333333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1324,18 +1425,21 @@
         <v>6698.8709</v>
       </c>
       <c r="G26" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.10833333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1359,18 +1463,21 @@
         <v>73748</v>
       </c>
       <c r="G27" t="n">
+        <v>12.34666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.11166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1394,18 +1501,21 @@
         <v>49160</v>
       </c>
       <c r="G28" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.11333333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1429,18 +1539,21 @@
         <v>24580</v>
       </c>
       <c r="G29" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.11833333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,18 +1577,21 @@
         <v>49160</v>
       </c>
       <c r="G30" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.12500000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1499,18 +1615,21 @@
         <v>61450</v>
       </c>
       <c r="G31" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.13</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1534,18 +1653,21 @@
         <v>8372.313899999999</v>
       </c>
       <c r="G32" t="n">
+        <v>12.34666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.135</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1569,18 +1691,21 @@
         <v>49662.3139</v>
       </c>
       <c r="G33" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.13833333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1604,18 +1729,21 @@
         <v>1900</v>
       </c>
       <c r="G34" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.14333333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1639,18 +1767,21 @@
         <v>2600</v>
       </c>
       <c r="G35" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.14666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1674,18 +1805,21 @@
         <v>200</v>
       </c>
       <c r="G36" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.15</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1709,18 +1843,21 @@
         <v>1700</v>
       </c>
       <c r="G37" t="n">
+        <v>12.35333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.155</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1744,18 +1881,21 @@
         <v>3300</v>
       </c>
       <c r="G38" t="n">
+        <v>12.34000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.16</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1779,18 +1919,21 @@
         <v>2400</v>
       </c>
       <c r="G39" t="n">
+        <v>12.32666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.165</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1814,18 +1957,21 @@
         <v>7400</v>
       </c>
       <c r="G40" t="n">
+        <v>12.31333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.17</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1849,18 +1995,21 @@
         <v>5950</v>
       </c>
       <c r="G41" t="n">
+        <v>12.30666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.17666666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1884,18 +2033,21 @@
         <v>52950</v>
       </c>
       <c r="G42" t="n">
+        <v>12.30666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.18333333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1919,18 +2071,21 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
+        <v>12.32000000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.19166666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1954,18 +2109,21 @@
         <v>550</v>
       </c>
       <c r="G44" t="n">
+        <v>12.32666666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.2</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1989,18 +2147,21 @@
         <v>76950</v>
       </c>
       <c r="G45" t="n">
+        <v>12.32666666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.20499999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2024,18 +2185,21 @@
         <v>166.0073</v>
       </c>
       <c r="G46" t="n">
+        <v>12.33333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.21166666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,18 +2223,21 @@
         <v>450</v>
       </c>
       <c r="G47" t="n">
+        <v>12.34000000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.21833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,18 +2261,21 @@
         <v>29600</v>
       </c>
       <c r="G48" t="n">
+        <v>12.34000000000001</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.22666666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2129,18 +2299,21 @@
         <v>4500</v>
       </c>
       <c r="G49" t="n">
+        <v>12.34666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.23666666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2164,18 +2337,21 @@
         <v>36800</v>
       </c>
       <c r="G50" t="n">
+        <v>12.36000000000001</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.24666666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2199,18 +2375,21 @@
         <v>19200</v>
       </c>
       <c r="G51" t="n">
+        <v>12.35333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.25</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2234,18 +2413,21 @@
         <v>360</v>
       </c>
       <c r="G52" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.25666666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2269,18 +2451,21 @@
         <v>3750</v>
       </c>
       <c r="G53" t="n">
+        <v>12.36666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.26333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,18 +2489,21 @@
         <v>70900</v>
       </c>
       <c r="G54" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.27166666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,18 +2527,21 @@
         <v>269434.0544</v>
       </c>
       <c r="G55" t="n">
+        <v>12.39333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.28</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,18 +2565,21 @@
         <v>180800</v>
       </c>
       <c r="G56" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.28666666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2409,18 +2603,21 @@
         <v>80007.3285</v>
       </c>
       <c r="G57" t="n">
+        <v>12.41333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.29499999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,18 +2641,21 @@
         <v>3500</v>
       </c>
       <c r="G58" t="n">
+        <v>12.42666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.305</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2479,18 +2679,21 @@
         <v>15906.9047</v>
       </c>
       <c r="G59" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.315</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,18 +2717,21 @@
         <v>402172.356</v>
       </c>
       <c r="G60" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.325</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2549,18 +2755,21 @@
         <v>1450</v>
       </c>
       <c r="G61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.33833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,18 +2793,21 @@
         <v>200</v>
       </c>
       <c r="G62" t="n">
+        <v>12.53333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.35166666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2619,18 +2831,21 @@
         <v>412804.1085</v>
       </c>
       <c r="G63" t="n">
+        <v>12.57333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.36666666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,18 +2869,21 @@
         <v>428157.2433</v>
       </c>
       <c r="G64" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.37999999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,18 +2907,21 @@
         <v>108987.8014</v>
       </c>
       <c r="G65" t="n">
+        <v>12.62666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.39333333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,18 +2945,21 @@
         <v>332844.5663</v>
       </c>
       <c r="G66" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.40833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2759,18 +2983,21 @@
         <v>21649.1388</v>
       </c>
       <c r="G67" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.42333333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,18 +3021,21 @@
         <v>22309.1742</v>
       </c>
       <c r="G68" t="n">
+        <v>12.75333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.43666666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2829,18 +3059,21 @@
         <v>33421.2311</v>
       </c>
       <c r="G69" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.45333333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2864,18 +3097,21 @@
         <v>101718.9473</v>
       </c>
       <c r="G70" t="n">
+        <v>12.85333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.47166666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,18 +3135,21 @@
         <v>4051.175</v>
       </c>
       <c r="G71" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.49166666666665</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,18 +3173,21 @@
         <v>325224.886</v>
       </c>
       <c r="G72" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.51499999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,18 +3211,21 @@
         <v>117173.5118</v>
       </c>
       <c r="G73" t="n">
+        <v>13.05333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.53499999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,18 +3249,21 @@
         <v>106548.0577</v>
       </c>
       <c r="G74" t="n">
+        <v>13.10666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.55166666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3039,18 +3287,21 @@
         <v>1372147.0943</v>
       </c>
       <c r="G75" t="n">
+        <v>13.14666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.56999999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,18 +3325,21 @@
         <v>31596.2088</v>
       </c>
       <c r="G76" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.58833333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,18 +3363,21 @@
         <v>243008.7156</v>
       </c>
       <c r="G77" t="n">
+        <v>13.20666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.60666666666665</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,18 +3401,21 @@
         <v>184655.42</v>
       </c>
       <c r="G78" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.62833333333332</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,18 +3439,21 @@
         <v>26994.313</v>
       </c>
       <c r="G79" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.64666666666665</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,18 +3477,21 @@
         <v>234235.5035413044</v>
       </c>
       <c r="G80" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.66999999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,18 +3515,21 @@
         <v>163470.7461</v>
       </c>
       <c r="G81" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.68833333333332</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3284,18 +3553,21 @@
         <v>264483.3675673913</v>
       </c>
       <c r="G82" t="n">
+        <v>13.38666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.70499999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3319,18 +3591,21 @@
         <v>95385.24400000001</v>
       </c>
       <c r="G83" t="n">
+        <v>13.43333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.72333333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,18 +3629,21 @@
         <v>21215.5394</v>
       </c>
       <c r="G84" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.74166666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3389,18 +3667,21 @@
         <v>59673.3433</v>
       </c>
       <c r="G85" t="n">
+        <v>13.47333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.75833333333332</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,18 +3705,21 @@
         <v>40712.3951</v>
       </c>
       <c r="G86" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.77666666666665</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,18 +3743,21 @@
         <v>49773.065</v>
       </c>
       <c r="G87" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.79833333333332</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,18 +3781,21 @@
         <v>142187.092</v>
       </c>
       <c r="G88" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.81999999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3529,18 +3819,21 @@
         <v>65233.3288</v>
       </c>
       <c r="G89" t="n">
+        <v>13.48666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.83999999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,18 +3857,21 @@
         <v>6138.381</v>
       </c>
       <c r="G90" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.85999999999999</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,18 +3895,21 @@
         <v>43106.6361</v>
       </c>
       <c r="G91" t="n">
+        <v>13.50666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.87999999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,18 +3933,21 @@
         <v>804498.3001</v>
       </c>
       <c r="G92" t="n">
+        <v>13.52666666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.90166666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3669,18 +3971,21 @@
         <v>64481.2609</v>
       </c>
       <c r="G93" t="n">
+        <v>13.54666666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.92499999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,18 +4009,21 @@
         <v>488479.4757890617</v>
       </c>
       <c r="G94" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.94666666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3739,18 +4047,21 @@
         <v>86104.54577053488</v>
       </c>
       <c r="G95" t="n">
+        <v>13.56666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.97166666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,18 +4085,21 @@
         <v>69724.56526404442</v>
       </c>
       <c r="G96" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.99833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,18 +4123,21 @@
         <v>37299.91126008758</v>
       </c>
       <c r="G97" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="H97" t="n">
         <v>13.02166666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,18 +4161,21 @@
         <v>64603.958</v>
       </c>
       <c r="G98" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="H98" t="n">
         <v>13.04333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,18 +4199,21 @@
         <v>174055.8764</v>
       </c>
       <c r="G99" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="H99" t="n">
         <v>13.065</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,18 +4237,21 @@
         <v>189296.725</v>
       </c>
       <c r="G100" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>13.09166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,18 +4275,21 @@
         <v>74408.38740000001</v>
       </c>
       <c r="G101" t="n">
+        <v>13.66666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>13.11666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,18 +4313,21 @@
         <v>253926.5924</v>
       </c>
       <c r="G102" t="n">
+        <v>13.67333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>13.14</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,18 +4351,21 @@
         <v>92237.7935</v>
       </c>
       <c r="G103" t="n">
+        <v>13.68666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>13.16166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,18 +4389,21 @@
         <v>31536.54782352941</v>
       </c>
       <c r="G104" t="n">
+        <v>13.69333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>13.18166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,18 +4427,21 @@
         <v>19379.67507647059</v>
       </c>
       <c r="G105" t="n">
+        <v>13.70666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>13.205</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,18 +4465,21 @@
         <v>38936.9632</v>
       </c>
       <c r="G106" t="n">
+        <v>13.70666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>13.22333333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,18 +4503,21 @@
         <v>77476.4391</v>
       </c>
       <c r="G107" t="n">
+        <v>13.71333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>13.245</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,18 +4541,21 @@
         <v>121683.0617</v>
       </c>
       <c r="G108" t="n">
+        <v>13.70666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>13.26666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,18 +4579,21 @@
         <v>18382.1984</v>
       </c>
       <c r="G109" t="n">
+        <v>13.69999999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>13.28500000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,18 +4617,21 @@
         <v>145438.7925</v>
       </c>
       <c r="G110" t="n">
+        <v>13.69333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>13.30500000000001</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,18 +4655,21 @@
         <v>28472.1818</v>
       </c>
       <c r="G111" t="n">
+        <v>13.67999999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>13.33000000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,18 +4693,21 @@
         <v>17256.6256</v>
       </c>
       <c r="G112" t="n">
+        <v>13.67999999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>13.35166666666668</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4369,18 +4731,21 @@
         <v>4100</v>
       </c>
       <c r="G113" t="n">
+        <v>13.68666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>13.37333333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,18 +4769,21 @@
         <v>4662.9148</v>
       </c>
       <c r="G114" t="n">
+        <v>13.68666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>13.39166666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,18 +4807,21 @@
         <v>168413.7289</v>
       </c>
       <c r="G115" t="n">
+        <v>13.67333333333332</v>
+      </c>
+      <c r="H115" t="n">
         <v>13.41166666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,18 +4845,21 @@
         <v>28612.1861</v>
       </c>
       <c r="G116" t="n">
+        <v>13.66666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>13.43333333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,18 +4883,21 @@
         <v>1492.2752</v>
       </c>
       <c r="G117" t="n">
+        <v>13.65333333333332</v>
+      </c>
+      <c r="H117" t="n">
         <v>13.45000000000001</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,18 +4921,21 @@
         <v>1233.75</v>
       </c>
       <c r="G118" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>13.46666666666668</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,18 +4959,21 @@
         <v>3327.3941</v>
       </c>
       <c r="G119" t="n">
+        <v>13.63999999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>13.48166666666668</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,18 +4997,21 @@
         <v>67103.14109999999</v>
       </c>
       <c r="G120" t="n">
+        <v>13.63999999999999</v>
+      </c>
+      <c r="H120" t="n">
         <v>13.49833333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,18 +5035,21 @@
         <v>3900.0729</v>
       </c>
       <c r="G121" t="n">
+        <v>13.65333333333332</v>
+      </c>
+      <c r="H121" t="n">
         <v>13.51166666666668</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,18 +5073,21 @@
         <v>60472.3772</v>
       </c>
       <c r="G122" t="n">
+        <v>13.65333333333332</v>
+      </c>
+      <c r="H122" t="n">
         <v>13.52500000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4719,18 +5111,21 @@
         <v>40686.1522</v>
       </c>
       <c r="G123" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>13.53500000000001</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,18 +5149,21 @@
         <v>400</v>
       </c>
       <c r="G124" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>13.54666666666668</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4789,18 +5187,21 @@
         <v>21285.6934</v>
       </c>
       <c r="G125" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>13.56000000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,18 +5225,21 @@
         <v>4748.3918</v>
       </c>
       <c r="G126" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>13.57166666666668</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,18 +5263,21 @@
         <v>68359.0145</v>
       </c>
       <c r="G127" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>13.58333333333335</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,18 +5301,21 @@
         <v>11161.5583</v>
       </c>
       <c r="G128" t="n">
+        <v>13.64666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>13.59666666666669</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4929,18 +5339,21 @@
         <v>24890.5109</v>
       </c>
       <c r="G129" t="n">
+        <v>13.65333333333332</v>
+      </c>
+      <c r="H129" t="n">
         <v>13.60500000000002</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,18 +5377,21 @@
         <v>56538.997</v>
       </c>
       <c r="G130" t="n">
+        <v>13.63999999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>13.60833333333335</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,18 +5415,21 @@
         <v>135939.5331</v>
       </c>
       <c r="G131" t="n">
+        <v>13.63999999999999</v>
+      </c>
+      <c r="H131" t="n">
         <v>13.61333333333335</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,18 +5453,21 @@
         <v>60087.0528</v>
       </c>
       <c r="G132" t="n">
+        <v>13.65999999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>13.61666666666668</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,18 +5491,21 @@
         <v>23323.2608</v>
       </c>
       <c r="G133" t="n">
+        <v>13.67333333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>13.62166666666669</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5104,18 +5529,21 @@
         <v>126265.6077</v>
       </c>
       <c r="G134" t="n">
+        <v>13.69333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>13.62833333333335</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5139,18 +5567,21 @@
         <v>10225.2643</v>
       </c>
       <c r="G135" t="n">
+        <v>13.69999999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>13.63666666666668</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,18 +5605,21 @@
         <v>133873.041</v>
       </c>
       <c r="G136" t="n">
+        <v>13.70666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>13.64333333333335</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,18 +5643,21 @@
         <v>4798.913</v>
       </c>
       <c r="G137" t="n">
+        <v>13.71333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>13.65166666666668</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,18 +5681,21 @@
         <v>2154.9869</v>
       </c>
       <c r="G138" t="n">
+        <v>13.72666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>13.65666666666668</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5279,18 +5719,21 @@
         <v>63124.6234</v>
       </c>
       <c r="G139" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="H139" t="n">
         <v>13.66166666666668</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,18 +5757,21 @@
         <v>111889.4542</v>
       </c>
       <c r="G140" t="n">
+        <v>13.73333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>13.66000000000002</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,18 +5795,21 @@
         <v>93003.9457</v>
       </c>
       <c r="G141" t="n">
+        <v>13.73333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>13.66500000000002</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,18 +5833,21 @@
         <v>141034.7252</v>
       </c>
       <c r="G142" t="n">
+        <v>13.72666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>13.66833333333335</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,18 +5871,21 @@
         <v>40000</v>
       </c>
       <c r="G143" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="H143" t="n">
         <v>13.66833333333335</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,18 +5909,21 @@
         <v>21945.0735</v>
       </c>
       <c r="G144" t="n">
+        <v>13.70666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>13.66666666666668</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,18 +5947,21 @@
         <v>197881.5877</v>
       </c>
       <c r="G145" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H145" t="n">
         <v>13.66500000000002</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,18 +5985,21 @@
         <v>106970.2176</v>
       </c>
       <c r="G146" t="n">
+        <v>13.68666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>13.66500000000002</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,18 +6023,21 @@
         <v>120775.051</v>
       </c>
       <c r="G147" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="H147" t="n">
         <v>13.66166666666668</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,18 +6061,21 @@
         <v>22184.2329</v>
       </c>
       <c r="G148" t="n">
+        <v>13.63333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>13.66000000000002</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,18 +6099,21 @@
         <v>44739.2574</v>
       </c>
       <c r="G149" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H149" t="n">
         <v>13.65666666666668</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,18 +6137,21 @@
         <v>1010</v>
       </c>
       <c r="G150" t="n">
+        <v>13.57333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>13.65500000000001</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,18 +6175,21 @@
         <v>78940.1562</v>
       </c>
       <c r="G151" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H151" t="n">
         <v>13.65166666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,18 +6213,21 @@
         <v>171724.9201</v>
       </c>
       <c r="G152" t="n">
+        <v>13.50666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>13.64666666666668</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,18 +6251,21 @@
         <v>53086.7348</v>
       </c>
       <c r="G153" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="H153" t="n">
         <v>13.64000000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,18 +6289,21 @@
         <v>33722.1239</v>
       </c>
       <c r="G154" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="H154" t="n">
         <v>13.63166666666668</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5839,18 +6327,21 @@
         <v>78263.2539</v>
       </c>
       <c r="G155" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="H155" t="n">
         <v>13.62333333333335</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,18 +6365,21 @@
         <v>30000</v>
       </c>
       <c r="G156" t="n">
+        <v>13.39333333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>13.61333333333335</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5909,18 +6403,21 @@
         <v>10000</v>
       </c>
       <c r="G157" t="n">
+        <v>13.37333333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>13.60666666666668</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,18 +6441,21 @@
         <v>49335.6584</v>
       </c>
       <c r="G158" t="n">
+        <v>13.34666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>13.60000000000001</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5979,18 +6479,21 @@
         <v>8173.5345</v>
       </c>
       <c r="G159" t="n">
+        <v>13.32666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>13.59333333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,18 +6517,21 @@
         <v>10406.6375</v>
       </c>
       <c r="G160" t="n">
+        <v>13.31333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>13.58166666666668</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,18 +6555,21 @@
         <v>33276.9347</v>
       </c>
       <c r="G161" t="n">
+        <v>13.29333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>13.57166666666668</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,18 +6593,21 @@
         <v>45077.4066</v>
       </c>
       <c r="G162" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="H162" t="n">
         <v>13.56333333333335</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6119,18 +6631,21 @@
         <v>63458.1205</v>
       </c>
       <c r="G163" t="n">
+        <v>13.26666666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>13.55500000000001</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,18 +6669,21 @@
         <v>72796.1346</v>
       </c>
       <c r="G164" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="H164" t="n">
         <v>13.54833333333335</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,18 +6707,21 @@
         <v>87851.7352</v>
       </c>
       <c r="G165" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="H165" t="n">
         <v>13.53833333333335</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,18 +6745,21 @@
         <v>1679784.0124</v>
       </c>
       <c r="G166" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="H166" t="n">
         <v>13.53000000000001</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,18 +6783,21 @@
         <v>24539.0096</v>
       </c>
       <c r="G167" t="n">
+        <v>13.19999999999999</v>
+      </c>
+      <c r="H167" t="n">
         <v>13.51833333333335</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,18 +6821,21 @@
         <v>25691.1841</v>
       </c>
       <c r="G168" t="n">
+        <v>13.17333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>13.50666666666668</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6329,18 +6859,21 @@
         <v>3483.7133</v>
       </c>
       <c r="G169" t="n">
+        <v>13.15999999999999</v>
+      </c>
+      <c r="H169" t="n">
         <v>13.49666666666668</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,18 +6897,21 @@
         <v>148111.9192</v>
       </c>
       <c r="G170" t="n">
+        <v>13.14666666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>13.48666666666668</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,18 +6935,21 @@
         <v>26830</v>
       </c>
       <c r="G171" t="n">
+        <v>13.13333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>13.47666666666668</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,18 +6973,21 @@
         <v>35892.8622</v>
       </c>
       <c r="G172" t="n">
+        <v>13.11333333333332</v>
+      </c>
+      <c r="H172" t="n">
         <v>13.46500000000001</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6469,18 +7011,21 @@
         <v>50000</v>
       </c>
       <c r="G173" t="n">
+        <v>13.10666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>13.45500000000001</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,18 +7049,21 @@
         <v>2880</v>
       </c>
       <c r="G174" t="n">
+        <v>13.09999999999999</v>
+      </c>
+      <c r="H174" t="n">
         <v>13.44666666666668</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,18 +7087,21 @@
         <v>194495.1951</v>
       </c>
       <c r="G175" t="n">
+        <v>13.09333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>13.43666666666668</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,18 +7125,21 @@
         <v>196082.2526</v>
       </c>
       <c r="G176" t="n">
+        <v>13.06666666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>13.42166666666668</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,18 +7163,401 @@
         <v>17660</v>
       </c>
       <c r="G177" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="H177" t="n">
         <v>13.41000000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>44482.8906</v>
+      </c>
+      <c r="G178" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H178" t="n">
+        <v>13.39666666666667</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C179" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>47661.7465</v>
+      </c>
+      <c r="G179" t="n">
+        <v>12.98666666666667</v>
+      </c>
+      <c r="H179" t="n">
+        <v>13.38500000000001</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>70466.4127</v>
+      </c>
+      <c r="G180" t="n">
+        <v>12.97333333333333</v>
+      </c>
+      <c r="H180" t="n">
+        <v>13.37166666666667</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C181" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E181" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F181" t="n">
+        <v>7643.5723</v>
+      </c>
+      <c r="G181" t="n">
+        <v>12.96666666666667</v>
+      </c>
+      <c r="H181" t="n">
+        <v>13.35833333333334</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>21603.1695</v>
+      </c>
+      <c r="G182" t="n">
+        <v>12.95333333333333</v>
+      </c>
+      <c r="H182" t="n">
+        <v>13.34333333333334</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>13</v>
+      </c>
+      <c r="C183" t="n">
+        <v>13</v>
+      </c>
+      <c r="D183" t="n">
+        <v>13</v>
+      </c>
+      <c r="E183" t="n">
+        <v>13</v>
+      </c>
+      <c r="F183" t="n">
+        <v>8987.961499999999</v>
+      </c>
+      <c r="G183" t="n">
+        <v>12.95333333333333</v>
+      </c>
+      <c r="H183" t="n">
+        <v>13.33333333333334</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>13</v>
+      </c>
+      <c r="C184" t="n">
+        <v>13</v>
+      </c>
+      <c r="D184" t="n">
+        <v>13</v>
+      </c>
+      <c r="E184" t="n">
+        <v>13</v>
+      </c>
+      <c r="F184" t="n">
+        <v>8988</v>
+      </c>
+      <c r="G184" t="n">
+        <v>12.95333333333333</v>
+      </c>
+      <c r="H184" t="n">
+        <v>13.32333333333333</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>59992.2809</v>
+      </c>
+      <c r="G185" t="n">
+        <v>12.93333333333334</v>
+      </c>
+      <c r="H185" t="n">
+        <v>13.30833333333333</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8864</v>
+      </c>
+      <c r="G186" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="H186" t="n">
+        <v>13.295</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>182.2526</v>
+      </c>
+      <c r="G187" t="n">
+        <v>12.91333333333334</v>
+      </c>
+      <c r="H187" t="n">
+        <v>13.28166666666666</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest LBA.xlsx
+++ b/BackTest/2019-10-18 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:N245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>18833.4044</v>
+        <v>6539.9999</v>
       </c>
       <c r="G2" t="n">
-        <v>-259059.6148173554</v>
+        <v>-35868.53091735538</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>9421</v>
+        <v>50000</v>
       </c>
       <c r="G3" t="n">
-        <v>-249638.6148173554</v>
+        <v>-35868.53091735538</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>38949</v>
+        <v>875.4621</v>
       </c>
       <c r="G4" t="n">
-        <v>-288587.6148173554</v>
+        <v>-35868.53091735538</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -538,14 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -570,10 +570,10 @@
         <v>12.2</v>
       </c>
       <c r="F5" t="n">
-        <v>83135.2647</v>
+        <v>48600</v>
       </c>
       <c r="G5" t="n">
-        <v>-288587.6148173554</v>
+        <v>12731.46908264462</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,14 +582,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -602,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D6" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E6" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>24540</v>
       </c>
       <c r="G6" t="n">
-        <v>-288577.6148173554</v>
+        <v>12731.46908264462</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -631,11 +631,7 @@
       <c r="K6" t="n">
         <v>12.2</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -649,19 +645,19 @@
         <v>12.3</v>
       </c>
       <c r="C7" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D7" t="n">
         <v>12.3</v>
       </c>
       <c r="E7" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F7" t="n">
-        <v>2885.03</v>
+        <v>24470</v>
       </c>
       <c r="G7" t="n">
-        <v>-291462.6448173554</v>
+        <v>12731.46908264462</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -670,14 +666,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="K7" t="n">
         <v>12.2</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -690,22 +686,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D8" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E8" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F8" t="n">
-        <v>41322.3139</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>-291462.6448173554</v>
+        <v>12731.46908264462</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -714,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="K8" t="n">
         <v>12.2</v>
@@ -734,32 +730,30 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C9" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D9" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E9" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F9" t="n">
-        <v>213406.3828</v>
+        <v>12150</v>
       </c>
       <c r="G9" t="n">
-        <v>-78056.26201735545</v>
+        <v>12731.46908264462</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>12.2</v>
       </c>
@@ -778,22 +772,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C10" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D10" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E10" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>24300</v>
       </c>
       <c r="G10" t="n">
-        <v>-78046.26201735545</v>
+        <v>12731.46908264462</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -802,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="K10" t="n">
         <v>12.2</v>
@@ -822,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C11" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D11" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E11" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F11" t="n">
-        <v>50200</v>
+        <v>24510</v>
       </c>
       <c r="G11" t="n">
-        <v>-78046.26201735545</v>
+        <v>12731.46908264462</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -864,22 +858,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C12" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D12" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E12" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F12" t="n">
-        <v>9035.440000000001</v>
+        <v>110</v>
       </c>
       <c r="G12" t="n">
-        <v>-78046.26201735545</v>
+        <v>12841.46908264462</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -906,22 +900,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E13" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F13" t="n">
-        <v>6698.8709</v>
+        <v>220</v>
       </c>
       <c r="G13" t="n">
-        <v>-84745.13291735544</v>
+        <v>12841.46908264462</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -951,19 +945,19 @@
         <v>12.2</v>
       </c>
       <c r="C14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E14" t="n">
         <v>12.2</v>
       </c>
       <c r="F14" t="n">
-        <v>73748</v>
+        <v>560</v>
       </c>
       <c r="G14" t="n">
-        <v>-158493.1329173555</v>
+        <v>12281.46908264462</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -990,30 +984,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C15" t="n">
         <v>12.2</v>
       </c>
       <c r="D15" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="n">
         <v>12.2</v>
       </c>
       <c r="F15" t="n">
-        <v>49160</v>
+        <v>39800</v>
       </c>
       <c r="G15" t="n">
-        <v>-207653.1329173555</v>
+        <v>12281.46908264462</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K15" t="n">
         <v>12.2</v>
       </c>
@@ -1032,22 +1028,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C16" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D16" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E16" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F16" t="n">
-        <v>24580</v>
+        <v>7190</v>
       </c>
       <c r="G16" t="n">
-        <v>-183073.1329173555</v>
+        <v>5091.469082644617</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1074,22 +1070,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C17" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D17" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E17" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F17" t="n">
-        <v>49160</v>
+        <v>7180</v>
       </c>
       <c r="G17" t="n">
-        <v>-183073.1329173555</v>
+        <v>12271.46908264462</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1116,22 +1112,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C18" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E18" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>61450</v>
+        <v>17494.9188</v>
       </c>
       <c r="G18" t="n">
-        <v>-183073.1329173555</v>
+        <v>-5223.449717355383</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1158,22 +1154,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C19" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D19" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E19" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F19" t="n">
-        <v>8372.313899999999</v>
+        <v>3590</v>
       </c>
       <c r="G19" t="n">
-        <v>-183073.1329173555</v>
+        <v>-1633.449717355383</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1200,22 +1196,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C20" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D20" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E20" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F20" t="n">
-        <v>49662.3139</v>
+        <v>16800</v>
       </c>
       <c r="G20" t="n">
-        <v>-133410.8190173554</v>
+        <v>-1633.449717355383</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1242,22 +1238,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C21" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D21" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E21" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F21" t="n">
-        <v>1900</v>
+        <v>5600</v>
       </c>
       <c r="G21" t="n">
-        <v>-133410.8190173554</v>
+        <v>-1633.449717355383</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1284,30 +1280,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D22" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F22" t="n">
-        <v>2600</v>
+        <v>5600</v>
       </c>
       <c r="G22" t="n">
-        <v>-136010.8190173554</v>
+        <v>-1633.449717355383</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K22" t="n">
         <v>12.2</v>
       </c>
@@ -1326,30 +1324,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C23" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D23" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E23" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>5600</v>
       </c>
       <c r="G23" t="n">
-        <v>-136010.8190173554</v>
+        <v>-1633.449717355383</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K23" t="n">
         <v>12.2</v>
       </c>
@@ -1368,22 +1368,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C24" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D24" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E24" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F24" t="n">
-        <v>1700</v>
+        <v>5600</v>
       </c>
       <c r="G24" t="n">
-        <v>-136010.8190173554</v>
+        <v>-1633.449717355383</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1410,30 +1410,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C25" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D25" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E25" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F25" t="n">
-        <v>3300</v>
+        <v>5600</v>
       </c>
       <c r="G25" t="n">
-        <v>-136010.8190173554</v>
+        <v>-1633.449717355383</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K25" t="n">
         <v>12.2</v>
       </c>
@@ -1452,30 +1454,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C26" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D26" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E26" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F26" t="n">
-        <v>2400</v>
+        <v>16334.849</v>
       </c>
       <c r="G26" t="n">
-        <v>-136010.8190173554</v>
+        <v>-1633.449717355383</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K26" t="n">
         <v>12.2</v>
       </c>
@@ -1494,30 +1498,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>7400</v>
+        <v>1913</v>
       </c>
       <c r="G27" t="n">
-        <v>-136010.8190173554</v>
+        <v>-3546.449717355383</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K27" t="n">
         <v>12.2</v>
       </c>
@@ -1536,30 +1542,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C28" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="D28" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E28" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F28" t="n">
-        <v>5950</v>
+        <v>619079.1457</v>
       </c>
       <c r="G28" t="n">
-        <v>-136010.8190173554</v>
+        <v>-622625.5954173554</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>12</v>
+      </c>
       <c r="K28" t="n">
         <v>12.2</v>
       </c>
@@ -1578,30 +1586,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>52950</v>
+        <v>51439.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>-136010.8190173554</v>
+        <v>-571185.5955173554</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K29" t="n">
         <v>12.2</v>
       </c>
@@ -1620,30 +1630,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C30" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E30" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>26170</v>
       </c>
       <c r="G30" t="n">
-        <v>-136000.8190173554</v>
+        <v>-571185.5955173554</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12</v>
+      </c>
       <c r="K30" t="n">
         <v>12.2</v>
       </c>
@@ -1662,30 +1674,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C31" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D31" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E31" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F31" t="n">
-        <v>550</v>
+        <v>74295.5974</v>
       </c>
       <c r="G31" t="n">
-        <v>-136000.8190173554</v>
+        <v>-496889.9981173554</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12</v>
+      </c>
       <c r="K31" t="n">
         <v>12.2</v>
       </c>
@@ -1704,30 +1718,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C32" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D32" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E32" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F32" t="n">
-        <v>76950</v>
+        <v>29410</v>
       </c>
       <c r="G32" t="n">
-        <v>-212950.8190173554</v>
+        <v>-526299.9981173554</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K32" t="n">
         <v>12.2</v>
       </c>
@@ -1746,30 +1762,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="C33" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D33" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E33" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F33" t="n">
-        <v>166.0073</v>
+        <v>14200</v>
       </c>
       <c r="G33" t="n">
-        <v>-212784.8117173554</v>
+        <v>-526299.9981173554</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K33" t="n">
         <v>12.2</v>
       </c>
@@ -1788,30 +1806,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D34" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E34" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>450</v>
+        <v>102294.5846</v>
       </c>
       <c r="G34" t="n">
-        <v>-212784.8117173554</v>
+        <v>-526299.9981173554</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K34" t="n">
         <v>12.2</v>
       </c>
@@ -1830,30 +1850,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="C35" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>29600</v>
+        <v>30852.859</v>
       </c>
       <c r="G35" t="n">
-        <v>-212784.8117173554</v>
+        <v>-557152.8571173555</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K35" t="n">
         <v>12.2</v>
       </c>
@@ -1872,30 +1894,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>4500</v>
+        <v>26200</v>
       </c>
       <c r="G36" t="n">
-        <v>-208284.8117173554</v>
+        <v>-557152.8571173555</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12</v>
+      </c>
       <c r="K36" t="n">
         <v>12.2</v>
       </c>
@@ -1914,30 +1938,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>36800</v>
+        <v>26200</v>
       </c>
       <c r="G37" t="n">
-        <v>-208284.8117173554</v>
+        <v>-557152.8571173555</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12</v>
+      </c>
       <c r="K37" t="n">
         <v>12.2</v>
       </c>
@@ -1956,30 +1982,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>19200</v>
+        <v>26200</v>
       </c>
       <c r="G38" t="n">
-        <v>-227484.8117173554</v>
+        <v>-557152.8571173555</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12</v>
+      </c>
       <c r="K38" t="n">
         <v>12.2</v>
       </c>
@@ -1998,30 +2026,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="D39" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F39" t="n">
-        <v>360</v>
+        <v>52400</v>
       </c>
       <c r="G39" t="n">
-        <v>-227124.8117173554</v>
+        <v>-609552.8571173555</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12</v>
+      </c>
       <c r="K39" t="n">
         <v>12.2</v>
       </c>
@@ -2040,30 +2070,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="C40" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="D40" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="E40" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F40" t="n">
-        <v>3750</v>
+        <v>51600</v>
       </c>
       <c r="G40" t="n">
-        <v>-227124.8117173554</v>
+        <v>-609552.8571173555</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K40" t="n">
         <v>12.2</v>
       </c>
@@ -2082,30 +2114,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="C41" t="n">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="D41" t="n">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="E41" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F41" t="n">
-        <v>70900</v>
+        <v>9020</v>
       </c>
       <c r="G41" t="n">
-        <v>-156224.8117173554</v>
+        <v>-609552.8571173555</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K41" t="n">
         <v>12.2</v>
       </c>
@@ -2124,30 +2158,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="C42" t="n">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="D42" t="n">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="E42" t="n">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="F42" t="n">
-        <v>269434.0544</v>
+        <v>18040</v>
       </c>
       <c r="G42" t="n">
-        <v>-156224.8117173554</v>
+        <v>-609552.8571173555</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K42" t="n">
         <v>12.2</v>
       </c>
@@ -2166,30 +2202,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="C43" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F43" t="n">
-        <v>180800</v>
+        <v>56000</v>
       </c>
       <c r="G43" t="n">
-        <v>-337024.8117173554</v>
+        <v>-553552.8571173555</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K43" t="n">
         <v>12.2</v>
       </c>
@@ -2208,30 +2246,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="C44" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E44" t="n">
-        <v>12.5</v>
+        <v>11.9</v>
       </c>
       <c r="F44" t="n">
-        <v>80007.3285</v>
+        <v>24793.3883</v>
       </c>
       <c r="G44" t="n">
-        <v>-257017.4832173554</v>
+        <v>-553552.8571173555</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>12</v>
+      </c>
       <c r="K44" t="n">
         <v>12.2</v>
       </c>
@@ -2250,30 +2290,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="C45" t="n">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="D45" t="n">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="E45" t="n">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="F45" t="n">
-        <v>3500</v>
+        <v>51908.9586</v>
       </c>
       <c r="G45" t="n">
-        <v>-253517.4832173554</v>
+        <v>-553552.8571173555</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12</v>
+      </c>
       <c r="K45" t="n">
         <v>12.2</v>
       </c>
@@ -2292,30 +2334,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="C46" t="n">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="D46" t="n">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="E46" t="n">
-        <v>12.6</v>
+        <v>11.9</v>
       </c>
       <c r="F46" t="n">
-        <v>15906.9047</v>
+        <v>6407.2936</v>
       </c>
       <c r="G46" t="n">
-        <v>-253517.4832173554</v>
+        <v>-559960.1507173554</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12</v>
+      </c>
       <c r="K46" t="n">
         <v>12.2</v>
       </c>
@@ -2334,30 +2378,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="C47" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="D47" t="n">
-        <v>12.8</v>
+        <v>11.9</v>
       </c>
       <c r="E47" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="F47" t="n">
-        <v>402172.356</v>
+        <v>273111.3334</v>
       </c>
       <c r="G47" t="n">
-        <v>148654.8727826446</v>
+        <v>-559960.1507173554</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K47" t="n">
         <v>12.2</v>
       </c>
@@ -2376,30 +2422,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.9</v>
+        <v>11.9</v>
       </c>
       <c r="C48" t="n">
-        <v>12.9</v>
+        <v>11.9</v>
       </c>
       <c r="D48" t="n">
-        <v>12.9</v>
+        <v>11.9</v>
       </c>
       <c r="E48" t="n">
-        <v>12.9</v>
+        <v>11.9</v>
       </c>
       <c r="F48" t="n">
-        <v>1450</v>
+        <v>30.723</v>
       </c>
       <c r="G48" t="n">
-        <v>150104.8727826446</v>
+        <v>-559960.1507173554</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K48" t="n">
         <v>12.2</v>
       </c>
@@ -2418,30 +2466,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="G49" t="n">
-        <v>150104.8727826446</v>
+        <v>-529960.1507173554</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K49" t="n">
         <v>12.2</v>
       </c>
@@ -2460,30 +2510,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="F50" t="n">
-        <v>412804.1085</v>
+        <v>11800</v>
       </c>
       <c r="G50" t="n">
-        <v>562908.9812826446</v>
+        <v>-529960.1507173554</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>12</v>
+      </c>
       <c r="K50" t="n">
         <v>12.2</v>
       </c>
@@ -2502,30 +2554,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="C51" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="E51" t="n">
-        <v>12.7</v>
+        <v>12</v>
       </c>
       <c r="F51" t="n">
-        <v>428157.2433</v>
+        <v>31210</v>
       </c>
       <c r="G51" t="n">
-        <v>134751.7379826446</v>
+        <v>-529960.1507173554</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12</v>
+      </c>
       <c r="K51" t="n">
         <v>12.2</v>
       </c>
@@ -2544,30 +2598,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>12.7</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>108987.8014</v>
+        <v>62420</v>
       </c>
       <c r="G52" t="n">
-        <v>134751.7379826446</v>
+        <v>-529960.1507173554</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12</v>
+      </c>
       <c r="K52" t="n">
         <v>12.2</v>
       </c>
@@ -2586,30 +2642,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="C53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>13.1</v>
+        <v>12</v>
       </c>
       <c r="E53" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>332844.5663</v>
+        <v>11210</v>
       </c>
       <c r="G53" t="n">
-        <v>467596.3042826446</v>
+        <v>-529960.1507173554</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12</v>
+      </c>
       <c r="K53" t="n">
         <v>12.2</v>
       </c>
@@ -2628,30 +2686,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="F54" t="n">
-        <v>21649.1388</v>
+        <v>10000</v>
       </c>
       <c r="G54" t="n">
-        <v>467596.3042826446</v>
+        <v>-529960.1507173554</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12</v>
+      </c>
       <c r="K54" t="n">
         <v>12.2</v>
       </c>
@@ -2670,30 +2730,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>13.1</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>22309.1742</v>
+        <v>7420</v>
       </c>
       <c r="G55" t="n">
-        <v>445287.1300826446</v>
+        <v>-529960.1507173554</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12</v>
+      </c>
       <c r="K55" t="n">
         <v>12.2</v>
       </c>
@@ -2712,30 +2774,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>33421.2311</v>
+        <v>6200</v>
       </c>
       <c r="G56" t="n">
-        <v>478708.3611826446</v>
+        <v>-529960.1507173554</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12</v>
+      </c>
       <c r="K56" t="n">
         <v>12.2</v>
       </c>
@@ -2754,30 +2818,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>13.2</v>
+        <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>101718.9473</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>580427.3084826446</v>
+        <v>-529960.1507173554</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>12</v>
+      </c>
       <c r="K57" t="n">
         <v>12.2</v>
       </c>
@@ -2796,30 +2862,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="C58" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="D58" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="E58" t="n">
-        <v>13.3</v>
+        <v>12.1</v>
       </c>
       <c r="F58" t="n">
-        <v>4051.175</v>
+        <v>21800</v>
       </c>
       <c r="G58" t="n">
-        <v>584478.4834826447</v>
+        <v>-508160.1507173554</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>12</v>
+      </c>
       <c r="K58" t="n">
         <v>12.2</v>
       </c>
@@ -2838,30 +2906,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="C59" t="n">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="D59" t="n">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="E59" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="F59" t="n">
-        <v>325224.886</v>
+        <v>68000</v>
       </c>
       <c r="G59" t="n">
-        <v>909703.3694826446</v>
+        <v>-508160.1507173554</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K59" t="n">
         <v>12.2</v>
       </c>
@@ -2880,30 +2950,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="C60" t="n">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="D60" t="n">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="E60" t="n">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="F60" t="n">
-        <v>117173.5118</v>
+        <v>34233.7196</v>
       </c>
       <c r="G60" t="n">
-        <v>792529.8576826446</v>
+        <v>-508160.1507173554</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K60" t="n">
         <v>12.2</v>
       </c>
@@ -2922,30 +2994,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="C61" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="D61" t="n">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="E61" t="n">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
       <c r="F61" t="n">
-        <v>106548.0577</v>
+        <v>3110</v>
       </c>
       <c r="G61" t="n">
-        <v>685981.7999826446</v>
+        <v>-508160.1507173554</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K61" t="n">
         <v>12.2</v>
       </c>
@@ -2964,30 +3038,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="C62" t="n">
-        <v>13.3</v>
+        <v>12.1</v>
       </c>
       <c r="D62" t="n">
-        <v>13.7</v>
+        <v>12.1</v>
       </c>
       <c r="E62" t="n">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
       <c r="F62" t="n">
-        <v>1372147.0943</v>
+        <v>13110</v>
       </c>
       <c r="G62" t="n">
-        <v>-686165.2943173554</v>
+        <v>-508160.1507173554</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K62" t="n">
         <v>12.2</v>
       </c>
@@ -3006,30 +3082,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="C63" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="D63" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="E63" t="n">
-        <v>13.3</v>
+        <v>12.1</v>
       </c>
       <c r="F63" t="n">
-        <v>31596.2088</v>
+        <v>3110</v>
       </c>
       <c r="G63" t="n">
-        <v>-654569.0855173554</v>
+        <v>-508160.1507173554</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K63" t="n">
         <v>12.2</v>
       </c>
@@ -3048,30 +3126,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="C64" t="n">
-        <v>13.3</v>
+        <v>12.1</v>
       </c>
       <c r="D64" t="n">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="E64" t="n">
-        <v>13.3</v>
+        <v>12.1</v>
       </c>
       <c r="F64" t="n">
-        <v>243008.7156</v>
+        <v>328.1895</v>
       </c>
       <c r="G64" t="n">
-        <v>-897577.8011173554</v>
+        <v>-508160.1507173554</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K64" t="n">
         <v>12.2</v>
       </c>
@@ -3090,30 +3170,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="C65" t="n">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="D65" t="n">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="E65" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="F65" t="n">
-        <v>184655.42</v>
+        <v>2043.6286</v>
       </c>
       <c r="G65" t="n">
-        <v>-712922.3811173553</v>
+        <v>-508160.1507173554</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K65" t="n">
         <v>12.2</v>
       </c>
@@ -3132,30 +3214,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="C66" t="n">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="D66" t="n">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="E66" t="n">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="F66" t="n">
-        <v>26994.313</v>
+        <v>32104.5068</v>
       </c>
       <c r="G66" t="n">
-        <v>-712922.3811173553</v>
+        <v>-508160.1507173554</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K66" t="n">
         <v>12.2</v>
       </c>
@@ -3174,30 +3258,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="C67" t="n">
-        <v>13.7</v>
+        <v>12.2</v>
       </c>
       <c r="D67" t="n">
-        <v>13.8</v>
+        <v>12.2</v>
       </c>
       <c r="E67" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="F67" t="n">
-        <v>234235.5035413044</v>
+        <v>20000</v>
       </c>
       <c r="G67" t="n">
-        <v>-478686.8775760509</v>
+        <v>-488160.1507173554</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K67" t="n">
         <v>12.2</v>
       </c>
@@ -3216,30 +3302,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="C68" t="n">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="D68" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="E68" t="n">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="F68" t="n">
-        <v>163470.7461</v>
+        <v>30000</v>
       </c>
       <c r="G68" t="n">
-        <v>-642157.6236760509</v>
+        <v>-488160.1507173554</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K68" t="n">
         <v>12.2</v>
       </c>
@@ -3258,30 +3346,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="C69" t="n">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="D69" t="n">
-        <v>13.8</v>
+        <v>12.2</v>
       </c>
       <c r="E69" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="F69" t="n">
-        <v>264483.3675673913</v>
+        <v>14800</v>
       </c>
       <c r="G69" t="n">
-        <v>-642157.6236760509</v>
+        <v>-488160.1507173554</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K69" t="n">
         <v>12.2</v>
       </c>
@@ -3300,30 +3390,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="C70" t="n">
-        <v>13.6</v>
+        <v>12.2</v>
       </c>
       <c r="D70" t="n">
-        <v>13.7</v>
+        <v>12.2</v>
       </c>
       <c r="E70" t="n">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="F70" t="n">
-        <v>95385.24400000001</v>
+        <v>50000</v>
       </c>
       <c r="G70" t="n">
-        <v>-546772.379676051</v>
+        <v>-488160.1507173554</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K70" t="n">
         <v>12.2</v>
       </c>
@@ -3342,22 +3434,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="C71" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="D71" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="E71" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F71" t="n">
-        <v>21215.5394</v>
+        <v>247908.6178</v>
       </c>
       <c r="G71" t="n">
-        <v>-546772.379676051</v>
+        <v>-240251.5329173554</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3384,22 +3476,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="C72" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="D72" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="E72" t="n">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="F72" t="n">
-        <v>59673.3433</v>
+        <v>25.3225</v>
       </c>
       <c r="G72" t="n">
-        <v>-606445.7229760509</v>
+        <v>-240226.2104173554</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3426,22 +3518,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="C73" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="D73" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="E73" t="n">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="F73" t="n">
-        <v>40712.3951</v>
+        <v>18833.4044</v>
       </c>
       <c r="G73" t="n">
-        <v>-606445.7229760509</v>
+        <v>-259059.6148173554</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3468,22 +3560,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="C74" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="D74" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="E74" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F74" t="n">
-        <v>49773.065</v>
+        <v>9421</v>
       </c>
       <c r="G74" t="n">
-        <v>-556672.6579760509</v>
+        <v>-249638.6148173554</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3510,22 +3602,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.6</v>
+        <v>12.2</v>
       </c>
       <c r="C75" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="D75" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="E75" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="F75" t="n">
-        <v>142187.092</v>
+        <v>38949</v>
       </c>
       <c r="G75" t="n">
-        <v>-698859.7499760508</v>
+        <v>-288587.6148173554</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3552,22 +3644,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="C76" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="D76" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="E76" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="F76" t="n">
-        <v>65233.3288</v>
+        <v>83135.2647</v>
       </c>
       <c r="G76" t="n">
-        <v>-698859.7499760508</v>
+        <v>-288587.6148173554</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3594,22 +3686,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="C77" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="D77" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="E77" t="n">
-        <v>13.4</v>
+        <v>12.4</v>
       </c>
       <c r="F77" t="n">
-        <v>6138.381</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>-698859.7499760508</v>
+        <v>-288577.6148173554</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3636,22 +3728,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="C78" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="D78" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="E78" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F78" t="n">
-        <v>43106.6361</v>
+        <v>2885.03</v>
       </c>
       <c r="G78" t="n">
-        <v>-698859.7499760508</v>
+        <v>-291462.6448173554</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3678,22 +3770,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="C79" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="D79" t="n">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="E79" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F79" t="n">
-        <v>804498.3001</v>
+        <v>41322.3139</v>
       </c>
       <c r="G79" t="n">
-        <v>105638.5501239492</v>
+        <v>-291462.6448173554</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3720,22 +3812,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="C80" t="n">
-        <v>13.8</v>
+        <v>12.4</v>
       </c>
       <c r="D80" t="n">
-        <v>13.9</v>
+        <v>12.4</v>
       </c>
       <c r="E80" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="F80" t="n">
-        <v>64481.2609</v>
+        <v>213406.3828</v>
       </c>
       <c r="G80" t="n">
-        <v>170119.8110239492</v>
+        <v>-78056.26201735545</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3762,22 +3854,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.8</v>
+        <v>12.5</v>
       </c>
       <c r="C81" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="D81" t="n">
-        <v>14.2</v>
+        <v>12.5</v>
       </c>
       <c r="E81" t="n">
-        <v>13.6</v>
+        <v>12.5</v>
       </c>
       <c r="F81" t="n">
-        <v>488479.4757890617</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-318359.6647651125</v>
+        <v>-78046.26201735545</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3804,22 +3896,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="C82" t="n">
-        <v>13.8</v>
+        <v>12.5</v>
       </c>
       <c r="D82" t="n">
-        <v>13.9</v>
+        <v>12.5</v>
       </c>
       <c r="E82" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="F82" t="n">
-        <v>86104.54577053488</v>
+        <v>50200</v>
       </c>
       <c r="G82" t="n">
-        <v>-232255.1189945776</v>
+        <v>-78046.26201735545</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3846,22 +3938,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="C83" t="n">
-        <v>13.9</v>
+        <v>12.5</v>
       </c>
       <c r="D83" t="n">
-        <v>13.9</v>
+        <v>12.5</v>
       </c>
       <c r="E83" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="F83" t="n">
-        <v>69724.56526404442</v>
+        <v>9035.440000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>-162530.5537305332</v>
+        <v>-78046.26201735545</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3888,22 +3980,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.9</v>
+        <v>12.4</v>
       </c>
       <c r="C84" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="D84" t="n">
-        <v>13.9</v>
+        <v>12.4</v>
       </c>
       <c r="E84" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="F84" t="n">
-        <v>37299.91126008758</v>
+        <v>6698.8709</v>
       </c>
       <c r="G84" t="n">
-        <v>-199830.4649906208</v>
+        <v>-84745.13291735544</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3930,22 +4022,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.7</v>
+        <v>12.2</v>
       </c>
       <c r="C85" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="D85" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="E85" t="n">
-        <v>13.6</v>
+        <v>12.2</v>
       </c>
       <c r="F85" t="n">
-        <v>64603.958</v>
+        <v>73748</v>
       </c>
       <c r="G85" t="n">
-        <v>-264434.4229906208</v>
+        <v>-158493.1329173555</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3972,22 +4064,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="C86" t="n">
-        <v>13.6</v>
+        <v>12.2</v>
       </c>
       <c r="D86" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="E86" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="F86" t="n">
-        <v>174055.8764</v>
+        <v>49160</v>
       </c>
       <c r="G86" t="n">
-        <v>-264434.4229906208</v>
+        <v>-207653.1329173555</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4014,22 +4106,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="C87" t="n">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="D87" t="n">
-        <v>13.9</v>
+        <v>12.3</v>
       </c>
       <c r="E87" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="F87" t="n">
-        <v>189296.725</v>
+        <v>24580</v>
       </c>
       <c r="G87" t="n">
-        <v>-75137.69799062077</v>
+        <v>-183073.1329173555</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4056,22 +4148,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="C88" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="D88" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="E88" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F88" t="n">
-        <v>74408.38740000001</v>
+        <v>49160</v>
       </c>
       <c r="G88" t="n">
-        <v>-149546.0853906208</v>
+        <v>-183073.1329173555</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4098,22 +4190,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="C89" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="D89" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="E89" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F89" t="n">
-        <v>253926.5924</v>
+        <v>61450</v>
       </c>
       <c r="G89" t="n">
-        <v>-403472.6777906208</v>
+        <v>-183073.1329173555</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4140,22 +4232,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="C90" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="D90" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="E90" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F90" t="n">
-        <v>92237.7935</v>
+        <v>8372.313899999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-403472.6777906208</v>
+        <v>-183073.1329173555</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4182,22 +4274,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="C91" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="D91" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="E91" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="F91" t="n">
-        <v>31536.54782352941</v>
+        <v>49662.3139</v>
       </c>
       <c r="G91" t="n">
-        <v>-435009.2256141502</v>
+        <v>-133410.8190173554</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4224,22 +4316,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="C92" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="D92" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="E92" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="F92" t="n">
-        <v>19379.67507647059</v>
+        <v>1900</v>
       </c>
       <c r="G92" t="n">
-        <v>-415629.5505376796</v>
+        <v>-133410.8190173554</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4266,22 +4358,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="C93" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="D93" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="E93" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F93" t="n">
-        <v>38936.9632</v>
+        <v>2600</v>
       </c>
       <c r="G93" t="n">
-        <v>-454566.5137376796</v>
+        <v>-136010.8190173554</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4308,22 +4400,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="C94" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="D94" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="E94" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F94" t="n">
-        <v>77476.4391</v>
+        <v>200</v>
       </c>
       <c r="G94" t="n">
-        <v>-377090.0746376796</v>
+        <v>-136010.8190173554</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4350,22 +4442,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="C95" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="D95" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="E95" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F95" t="n">
-        <v>121683.0617</v>
+        <v>1700</v>
       </c>
       <c r="G95" t="n">
-        <v>-377090.0746376796</v>
+        <v>-136010.8190173554</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4392,28 +4484,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="C96" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="D96" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="E96" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F96" t="n">
-        <v>18382.1984</v>
+        <v>3300</v>
       </c>
       <c r="G96" t="n">
-        <v>-395472.2730376796</v>
+        <v>-136010.8190173554</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
@@ -4421,47 +4513,51 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1.109754098360656</v>
-      </c>
-      <c r="N96" t="n">
-        <v>1.016393442622951</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="C97" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="D97" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="E97" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F97" t="n">
-        <v>145438.7925</v>
+        <v>2400</v>
       </c>
       <c r="G97" t="n">
-        <v>-250033.4805376795</v>
+        <v>-136010.8190173554</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4472,32 +4568,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="C98" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="D98" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="E98" t="n">
-        <v>13.5</v>
+        <v>12.3</v>
       </c>
       <c r="F98" t="n">
-        <v>28472.1818</v>
+        <v>7400</v>
       </c>
       <c r="G98" t="n">
-        <v>-250033.4805376795</v>
+        <v>-136010.8190173554</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4508,32 +4610,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="C99" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="D99" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="E99" t="n">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="F99" t="n">
-        <v>17256.6256</v>
+        <v>5950</v>
       </c>
       <c r="G99" t="n">
-        <v>-250033.4805376795</v>
+        <v>-136010.8190173554</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4544,32 +4652,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="C100" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="D100" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="E100" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="F100" t="n">
-        <v>4100</v>
+        <v>52950</v>
       </c>
       <c r="G100" t="n">
-        <v>-250033.4805376795</v>
+        <v>-136010.8190173554</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4580,32 +4694,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="C101" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="D101" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="E101" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="F101" t="n">
-        <v>4662.9148</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-254696.3953376795</v>
+        <v>-136000.8190173554</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4616,32 +4736,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="C102" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="D102" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="E102" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="F102" t="n">
-        <v>168413.7289</v>
+        <v>550</v>
       </c>
       <c r="G102" t="n">
-        <v>-86282.66643767955</v>
+        <v>-136000.8190173554</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4652,32 +4778,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="C103" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="D103" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E103" t="n">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="F103" t="n">
-        <v>28612.1861</v>
+        <v>76950</v>
       </c>
       <c r="G103" t="n">
-        <v>-86282.66643767955</v>
+        <v>-212950.8190173554</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4688,32 +4820,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="C104" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="D104" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="E104" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="F104" t="n">
-        <v>1492.2752</v>
+        <v>166.0073</v>
       </c>
       <c r="G104" t="n">
-        <v>-87774.94163767956</v>
+        <v>-212784.8117173554</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4724,32 +4862,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="C105" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="D105" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="E105" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="F105" t="n">
-        <v>1233.75</v>
+        <v>450</v>
       </c>
       <c r="G105" t="n">
-        <v>-86541.19163767956</v>
+        <v>-212784.8117173554</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4760,32 +4904,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="C106" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="D106" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="E106" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="F106" t="n">
-        <v>3327.3941</v>
+        <v>29600</v>
       </c>
       <c r="G106" t="n">
-        <v>-89868.58573767956</v>
+        <v>-212784.8117173554</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4796,32 +4946,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="C107" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="D107" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E107" t="n">
-        <v>13.5</v>
+        <v>12.4</v>
       </c>
       <c r="F107" t="n">
-        <v>67103.14109999999</v>
+        <v>4500</v>
       </c>
       <c r="G107" t="n">
-        <v>-22765.44463767957</v>
+        <v>-208284.8117173554</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4832,32 +4988,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="C108" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="D108" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E108" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="F108" t="n">
-        <v>3900.0729</v>
+        <v>36800</v>
       </c>
       <c r="G108" t="n">
-        <v>-22765.44463767957</v>
+        <v>-208284.8117173554</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4868,32 +5030,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="C109" t="n">
-        <v>13.7</v>
+        <v>12.2</v>
       </c>
       <c r="D109" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E109" t="n">
-        <v>13.6</v>
+        <v>12.2</v>
       </c>
       <c r="F109" t="n">
-        <v>60472.3772</v>
+        <v>19200</v>
       </c>
       <c r="G109" t="n">
-        <v>-22765.44463767957</v>
+        <v>-227484.8117173554</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4904,32 +5072,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="C110" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="D110" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="E110" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="F110" t="n">
-        <v>40686.1522</v>
+        <v>360</v>
       </c>
       <c r="G110" t="n">
-        <v>-63451.59683767956</v>
+        <v>-227124.8117173554</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4940,32 +5114,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="C111" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="D111" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="E111" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="F111" t="n">
-        <v>400</v>
+        <v>3750</v>
       </c>
       <c r="G111" t="n">
-        <v>-63451.59683767956</v>
+        <v>-227124.8117173554</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4976,32 +5156,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="C112" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="D112" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E112" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="F112" t="n">
-        <v>21285.6934</v>
+        <v>70900</v>
       </c>
       <c r="G112" t="n">
-        <v>-42165.90343767956</v>
+        <v>-156224.8117173554</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5012,32 +5198,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="C113" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="D113" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E113" t="n">
-        <v>13.6</v>
+        <v>12.5</v>
       </c>
       <c r="F113" t="n">
-        <v>4748.3918</v>
+        <v>269434.0544</v>
       </c>
       <c r="G113" t="n">
-        <v>-42165.90343767956</v>
+        <v>-156224.8117173554</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5048,32 +5240,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="C114" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="D114" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E114" t="n">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="F114" t="n">
-        <v>68359.0145</v>
+        <v>180800</v>
       </c>
       <c r="G114" t="n">
-        <v>-42165.90343767956</v>
+        <v>-337024.8117173554</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5084,32 +5282,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13.6</v>
+        <v>12.5</v>
       </c>
       <c r="C115" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="D115" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E115" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="F115" t="n">
-        <v>11161.5583</v>
+        <v>80007.3285</v>
       </c>
       <c r="G115" t="n">
-        <v>-42165.90343767956</v>
+        <v>-257017.4832173554</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5120,32 +5324,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="C116" t="n">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="D116" t="n">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="E116" t="n">
-        <v>13.7</v>
+        <v>12.6</v>
       </c>
       <c r="F116" t="n">
-        <v>24890.5109</v>
+        <v>3500</v>
       </c>
       <c r="G116" t="n">
-        <v>-42165.90343767956</v>
+        <v>-253517.4832173554</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5156,32 +5366,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.6</v>
+        <v>12.6</v>
       </c>
       <c r="C117" t="n">
-        <v>13.5</v>
+        <v>12.6</v>
       </c>
       <c r="D117" t="n">
-        <v>13.6</v>
+        <v>12.6</v>
       </c>
       <c r="E117" t="n">
-        <v>13.5</v>
+        <v>12.6</v>
       </c>
       <c r="F117" t="n">
-        <v>56538.997</v>
+        <v>15906.9047</v>
       </c>
       <c r="G117" t="n">
-        <v>-98704.90043767956</v>
+        <v>-253517.4832173554</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5192,32 +5408,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="C118" t="n">
-        <v>13.7</v>
+        <v>12.7</v>
       </c>
       <c r="D118" t="n">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="E118" t="n">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="F118" t="n">
-        <v>135939.5331</v>
+        <v>402172.356</v>
       </c>
       <c r="G118" t="n">
-        <v>37234.63266232044</v>
+        <v>148654.8727826446</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5228,32 +5450,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>13.6</v>
+        <v>12.9</v>
       </c>
       <c r="C119" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="D119" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="E119" t="n">
-        <v>13.6</v>
+        <v>12.9</v>
       </c>
       <c r="F119" t="n">
-        <v>60087.0528</v>
+        <v>1450</v>
       </c>
       <c r="G119" t="n">
-        <v>97321.68546232043</v>
+        <v>150104.8727826446</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5264,32 +5492,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="C120" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="D120" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="E120" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="F120" t="n">
-        <v>23323.2608</v>
+        <v>200</v>
       </c>
       <c r="G120" t="n">
-        <v>97321.68546232043</v>
+        <v>150104.8727826446</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5300,32 +5534,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="C121" t="n">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="D121" t="n">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="E121" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="F121" t="n">
-        <v>126265.6077</v>
+        <v>412804.1085</v>
       </c>
       <c r="G121" t="n">
-        <v>97321.68546232043</v>
+        <v>562908.9812826446</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5336,32 +5576,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="C122" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="D122" t="n">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="E122" t="n">
-        <v>13.8</v>
+        <v>12.7</v>
       </c>
       <c r="F122" t="n">
-        <v>10225.2643</v>
+        <v>428157.2433</v>
       </c>
       <c r="G122" t="n">
-        <v>97321.68546232043</v>
+        <v>134751.7379826446</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5372,32 +5618,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="C123" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="D123" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="E123" t="n">
-        <v>13.8</v>
+        <v>12.7</v>
       </c>
       <c r="F123" t="n">
-        <v>133873.041</v>
+        <v>108987.8014</v>
       </c>
       <c r="G123" t="n">
-        <v>97321.68546232043</v>
+        <v>134751.7379826446</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5408,32 +5660,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="C124" t="n">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="D124" t="n">
-        <v>13.8</v>
+        <v>13.1</v>
       </c>
       <c r="E124" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="F124" t="n">
-        <v>4798.913</v>
+        <v>332844.5663</v>
       </c>
       <c r="G124" t="n">
-        <v>97321.68546232043</v>
+        <v>467596.3042826446</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5444,32 +5702,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>13.8</v>
+        <v>13.2</v>
       </c>
       <c r="C125" t="n">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="D125" t="n">
-        <v>13.8</v>
+        <v>13.2</v>
       </c>
       <c r="E125" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="F125" t="n">
-        <v>2154.9869</v>
+        <v>21649.1388</v>
       </c>
       <c r="G125" t="n">
-        <v>97321.68546232043</v>
+        <v>467596.3042826446</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5480,32 +5744,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="C126" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="D126" t="n">
-        <v>13.8</v>
+        <v>13.1</v>
       </c>
       <c r="E126" t="n">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
       <c r="F126" t="n">
-        <v>63124.6234</v>
+        <v>22309.1742</v>
       </c>
       <c r="G126" t="n">
-        <v>97321.68546232043</v>
+        <v>445287.1300826446</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5516,32 +5786,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="C127" t="n">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="D127" t="n">
-        <v>13.7</v>
+        <v>13.2</v>
       </c>
       <c r="E127" t="n">
-        <v>13.6</v>
+        <v>13</v>
       </c>
       <c r="F127" t="n">
-        <v>111889.4542</v>
+        <v>33421.2311</v>
       </c>
       <c r="G127" t="n">
-        <v>-14567.76873767957</v>
+        <v>478708.3611826446</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5552,32 +5828,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>13.7</v>
+        <v>13.2</v>
       </c>
       <c r="C128" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="D128" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="E128" t="n">
-        <v>13.7</v>
+        <v>13.2</v>
       </c>
       <c r="F128" t="n">
-        <v>93003.9457</v>
+        <v>101718.9473</v>
       </c>
       <c r="G128" t="n">
-        <v>78436.17696232043</v>
+        <v>580427.3084826446</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5588,32 +5870,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="C129" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D129" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="E129" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F129" t="n">
-        <v>141034.7252</v>
+        <v>4051.175</v>
       </c>
       <c r="G129" t="n">
-        <v>-62598.54823767956</v>
+        <v>584478.4834826447</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5624,7 +5912,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C130" t="n">
         <v>13.6</v>
@@ -5633,23 +5921,29 @@
         <v>13.6</v>
       </c>
       <c r="E130" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F130" t="n">
-        <v>40000</v>
+        <v>325224.886</v>
       </c>
       <c r="G130" t="n">
-        <v>-62598.54823767956</v>
+        <v>909703.3694826446</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5672,10 +5966,10 @@
         <v>13.5</v>
       </c>
       <c r="F131" t="n">
-        <v>21945.0735</v>
+        <v>117173.5118</v>
       </c>
       <c r="G131" t="n">
-        <v>-84543.62173767955</v>
+        <v>792529.8576826446</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5684,40 +5978,48 @@
         <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>1.10155737704918</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1.016666666666667</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C132" t="n">
         <v>13.4</v>
       </c>
       <c r="D132" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E132" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="F132" t="n">
-        <v>197881.5877</v>
+        <v>106548.0577</v>
       </c>
       <c r="G132" t="n">
-        <v>-282425.2094376796</v>
+        <v>685981.7999826446</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5735,25 +6037,25 @@
         <v>13.4</v>
       </c>
       <c r="C133" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D133" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E133" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F133" t="n">
-        <v>106970.2176</v>
+        <v>1372147.0943</v>
       </c>
       <c r="G133" t="n">
-        <v>-175454.9918376796</v>
+        <v>-686165.2943173554</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5768,28 +6070,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C134" t="n">
         <v>13.4</v>
       </c>
       <c r="D134" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E134" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F134" t="n">
-        <v>120775.051</v>
+        <v>31596.2088</v>
       </c>
       <c r="G134" t="n">
-        <v>-296230.0428376796</v>
+        <v>-654569.0855173554</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5807,25 +6109,25 @@
         <v>13.4</v>
       </c>
       <c r="C135" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D135" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E135" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F135" t="n">
-        <v>22184.2329</v>
+        <v>243008.7156</v>
       </c>
       <c r="G135" t="n">
-        <v>-296230.0428376796</v>
+        <v>-897577.8011173554</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5840,28 +6142,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C136" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D136" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="E136" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F136" t="n">
-        <v>44739.2574</v>
+        <v>184655.42</v>
       </c>
       <c r="G136" t="n">
-        <v>-340969.3002376796</v>
+        <v>-712922.3811173553</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5876,28 +6178,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="C137" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E137" t="n">
         <v>13.4</v>
       </c>
-      <c r="D137" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E137" t="n">
-        <v>13.2</v>
-      </c>
       <c r="F137" t="n">
-        <v>1010</v>
+        <v>26994.313</v>
       </c>
       <c r="G137" t="n">
-        <v>-339959.3002376796</v>
+        <v>-712922.3811173553</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5912,22 +6214,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C138" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="D138" t="n">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="E138" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F138" t="n">
-        <v>78940.1562</v>
+        <v>234235.5035413044</v>
       </c>
       <c r="G138" t="n">
-        <v>-418899.4564376796</v>
+        <v>-478686.8775760509</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5948,28 +6250,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C139" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D139" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E139" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F139" t="n">
-        <v>171724.9201</v>
+        <v>163470.7461</v>
       </c>
       <c r="G139" t="n">
-        <v>-418899.4564376796</v>
+        <v>-642157.6236760509</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5984,28 +6286,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C140" t="n">
         <v>13.4</v>
       </c>
       <c r="D140" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="E140" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F140" t="n">
-        <v>53086.7348</v>
+        <v>264483.3675673913</v>
       </c>
       <c r="G140" t="n">
-        <v>-365812.7216376796</v>
+        <v>-642157.6236760509</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -6020,28 +6322,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C141" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="D141" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="E141" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="F141" t="n">
-        <v>33722.1239</v>
+        <v>95385.24400000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-399534.8455376796</v>
+        <v>-546772.379676051</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -6056,28 +6358,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="C142" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="D142" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="E142" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F142" t="n">
-        <v>78263.2539</v>
+        <v>21215.5394</v>
       </c>
       <c r="G142" t="n">
-        <v>-321271.5916376796</v>
+        <v>-546772.379676051</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -6092,28 +6394,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="C143" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D143" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="E143" t="n">
         <v>13.3</v>
       </c>
       <c r="F143" t="n">
-        <v>30000</v>
+        <v>59673.3433</v>
       </c>
       <c r="G143" t="n">
-        <v>-321271.5916376796</v>
+        <v>-606445.7229760509</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -6128,28 +6430,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C144" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D144" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E144" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F144" t="n">
-        <v>10000</v>
+        <v>40712.3951</v>
       </c>
       <c r="G144" t="n">
-        <v>-321271.5916376796</v>
+        <v>-606445.7229760509</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6164,28 +6466,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C145" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="D145" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="E145" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="F145" t="n">
-        <v>49335.6584</v>
+        <v>49773.065</v>
       </c>
       <c r="G145" t="n">
-        <v>-370607.2500376796</v>
+        <v>-556672.6579760509</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6200,28 +6502,28 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="C146" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="D146" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E146" t="n">
         <v>13.3</v>
       </c>
-      <c r="E146" t="n">
-        <v>13.2</v>
-      </c>
       <c r="F146" t="n">
-        <v>8173.5345</v>
+        <v>142187.092</v>
       </c>
       <c r="G146" t="n">
-        <v>-370607.2500376796</v>
+        <v>-698859.7499760508</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -6236,28 +6538,28 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C147" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="D147" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E147" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="F147" t="n">
-        <v>10406.6375</v>
+        <v>65233.3288</v>
       </c>
       <c r="G147" t="n">
-        <v>-370607.2500376796</v>
+        <v>-698859.7499760508</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -6272,22 +6574,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C148" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="D148" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="E148" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="F148" t="n">
-        <v>33276.9347</v>
+        <v>6138.381</v>
       </c>
       <c r="G148" t="n">
-        <v>-370607.2500376796</v>
+        <v>-698859.7499760508</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6308,28 +6610,28 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="C149" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="D149" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="E149" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="F149" t="n">
-        <v>45077.4066</v>
+        <v>43106.6361</v>
       </c>
       <c r="G149" t="n">
-        <v>-370607.2500376796</v>
+        <v>-698859.7499760508</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -6344,28 +6646,28 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="C150" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="D150" t="n">
-        <v>13.2</v>
+        <v>13.9</v>
       </c>
       <c r="E150" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="F150" t="n">
-        <v>63458.1205</v>
+        <v>804498.3001</v>
       </c>
       <c r="G150" t="n">
-        <v>-370607.2500376796</v>
+        <v>105638.5501239492</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -6380,28 +6682,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="C151" t="n">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="D151" t="n">
-        <v>13.2</v>
+        <v>13.9</v>
       </c>
       <c r="E151" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="F151" t="n">
-        <v>72796.1346</v>
+        <v>64481.2609</v>
       </c>
       <c r="G151" t="n">
-        <v>-370607.2500376796</v>
+        <v>170119.8110239492</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -6416,28 +6718,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="C152" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="D152" t="n">
-        <v>13.2</v>
+        <v>14.2</v>
       </c>
       <c r="E152" t="n">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="F152" t="n">
-        <v>87851.7352</v>
+        <v>488479.4757890617</v>
       </c>
       <c r="G152" t="n">
-        <v>-458458.9852376796</v>
+        <v>-318359.6647651125</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -6452,28 +6754,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="C153" t="n">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="D153" t="n">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
       <c r="E153" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="F153" t="n">
-        <v>1679784.0124</v>
+        <v>86104.54577053488</v>
       </c>
       <c r="G153" t="n">
-        <v>-2138242.997637679</v>
+        <v>-232255.1189945776</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6488,28 +6790,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="C154" t="n">
-        <v>13</v>
+        <v>13.9</v>
       </c>
       <c r="D154" t="n">
-        <v>13</v>
+        <v>13.9</v>
       </c>
       <c r="E154" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="F154" t="n">
-        <v>24539.0096</v>
+        <v>69724.56526404442</v>
       </c>
       <c r="G154" t="n">
-        <v>-2138242.997637679</v>
+        <v>-162530.5537305332</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6524,28 +6826,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>13</v>
+        <v>13.9</v>
       </c>
       <c r="C155" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="D155" t="n">
-        <v>13</v>
+        <v>13.9</v>
       </c>
       <c r="E155" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="F155" t="n">
-        <v>25691.1841</v>
+        <v>37299.91126008758</v>
       </c>
       <c r="G155" t="n">
-        <v>-2138242.997637679</v>
+        <v>-199830.4649906208</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6560,22 +6862,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="C156" t="n">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="D156" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="E156" t="n">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="F156" t="n">
-        <v>3483.7133</v>
+        <v>64603.958</v>
       </c>
       <c r="G156" t="n">
-        <v>-2138242.997637679</v>
+        <v>-264434.4229906208</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6596,22 +6898,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="C157" t="n">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="D157" t="n">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="E157" t="n">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="F157" t="n">
-        <v>148111.9192</v>
+        <v>174055.8764</v>
       </c>
       <c r="G157" t="n">
-        <v>-1990131.078437679</v>
+        <v>-264434.4229906208</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6632,22 +6934,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="C158" t="n">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
       <c r="D158" t="n">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
       <c r="E158" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="F158" t="n">
-        <v>26830</v>
+        <v>189296.725</v>
       </c>
       <c r="G158" t="n">
-        <v>-1990131.078437679</v>
+        <v>-75137.69799062077</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6668,28 +6970,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="C159" t="n">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="D159" t="n">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="E159" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="F159" t="n">
-        <v>35892.8622</v>
+        <v>74408.38740000001</v>
       </c>
       <c r="G159" t="n">
-        <v>-2026023.94063768</v>
+        <v>-149546.0853906208</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6704,28 +7006,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="C160" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="D160" t="n">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="E160" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="F160" t="n">
-        <v>50000</v>
+        <v>253926.5924</v>
       </c>
       <c r="G160" t="n">
-        <v>-1976023.94063768</v>
+        <v>-403472.6777906208</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6740,28 +7042,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="C161" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="D161" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="E161" t="n">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="F161" t="n">
-        <v>2880</v>
+        <v>92237.7935</v>
       </c>
       <c r="G161" t="n">
-        <v>-1976023.94063768</v>
+        <v>-403472.6777906208</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6776,28 +7078,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="C162" t="n">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="D162" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="E162" t="n">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="F162" t="n">
-        <v>194495.1951</v>
+        <v>31536.54782352941</v>
       </c>
       <c r="G162" t="n">
-        <v>-1976023.94063768</v>
+        <v>-435009.2256141502</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6812,28 +7114,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="C163" t="n">
-        <v>12.8</v>
+        <v>13.7</v>
       </c>
       <c r="D163" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="E163" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="F163" t="n">
-        <v>196082.2526</v>
+        <v>19379.67507647059</v>
       </c>
       <c r="G163" t="n">
-        <v>-2172106.19323768</v>
+        <v>-415629.5505376796</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6848,22 +7150,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="C164" t="n">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="D164" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="E164" t="n">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="F164" t="n">
-        <v>17660</v>
+        <v>38936.9632</v>
       </c>
       <c r="G164" t="n">
-        <v>-2172106.19323768</v>
+        <v>-454566.5137376796</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6884,22 +7186,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="C165" t="n">
-        <v>12.8</v>
+        <v>13.7</v>
       </c>
       <c r="D165" t="n">
-        <v>12.8</v>
+        <v>13.7</v>
       </c>
       <c r="E165" t="n">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="F165" t="n">
-        <v>44482.8906</v>
+        <v>77476.4391</v>
       </c>
       <c r="G165" t="n">
-        <v>-2172106.19323768</v>
+        <v>-377090.0746376796</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6920,22 +7222,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>12.8</v>
+        <v>13.7</v>
       </c>
       <c r="C166" t="n">
-        <v>12.8</v>
+        <v>13.7</v>
       </c>
       <c r="D166" t="n">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="E166" t="n">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="F166" t="n">
-        <v>47661.7465</v>
+        <v>121683.0617</v>
       </c>
       <c r="G166" t="n">
-        <v>-2172106.19323768</v>
+        <v>-377090.0746376796</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6956,22 +7258,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="C167" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="D167" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="E167" t="n">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="F167" t="n">
-        <v>70466.4127</v>
+        <v>18382.1984</v>
       </c>
       <c r="G167" t="n">
-        <v>-2101639.780537679</v>
+        <v>-395472.2730376796</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6992,22 +7294,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="C168" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="D168" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="E168" t="n">
-        <v>12.9</v>
+        <v>13.5</v>
       </c>
       <c r="F168" t="n">
-        <v>7643.5723</v>
+        <v>145438.7925</v>
       </c>
       <c r="G168" t="n">
-        <v>-2101639.780537679</v>
+        <v>-250033.4805376795</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7028,22 +7330,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12.8</v>
+        <v>13.7</v>
       </c>
       <c r="C169" t="n">
-        <v>12.8</v>
+        <v>13.7</v>
       </c>
       <c r="D169" t="n">
-        <v>12.8</v>
+        <v>13.7</v>
       </c>
       <c r="E169" t="n">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="F169" t="n">
-        <v>21603.1695</v>
+        <v>28472.1818</v>
       </c>
       <c r="G169" t="n">
-        <v>-2123242.950037679</v>
+        <v>-250033.4805376795</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7064,22 +7366,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="C170" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="D170" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="E170" t="n">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="F170" t="n">
-        <v>8987.961499999999</v>
+        <v>17256.6256</v>
       </c>
       <c r="G170" t="n">
-        <v>-2114254.988537679</v>
+        <v>-250033.4805376795</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7100,22 +7402,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="C171" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="D171" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="E171" t="n">
-        <v>13</v>
+        <v>13.7</v>
       </c>
       <c r="F171" t="n">
-        <v>8988</v>
+        <v>4100</v>
       </c>
       <c r="G171" t="n">
-        <v>-2114254.988537679</v>
+        <v>-250033.4805376795</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7136,22 +7438,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="C172" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="D172" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="E172" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="F172" t="n">
-        <v>59992.2809</v>
+        <v>4662.9148</v>
       </c>
       <c r="G172" t="n">
-        <v>-2174247.269437679</v>
+        <v>-254696.3953376795</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7172,22 +7474,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="C173" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="D173" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="E173" t="n">
-        <v>12.9</v>
+        <v>13.5</v>
       </c>
       <c r="F173" t="n">
-        <v>8864</v>
+        <v>168413.7289</v>
       </c>
       <c r="G173" t="n">
-        <v>-2165383.269437679</v>
+        <v>-86282.66643767955</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7208,22 +7510,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="C174" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="D174" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="E174" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="F174" t="n">
-        <v>182.2526</v>
+        <v>28612.1861</v>
       </c>
       <c r="G174" t="n">
-        <v>-2165383.269437679</v>
+        <v>-86282.66643767955</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7239,6 +7541,2562 @@
       </c>
       <c r="N174" t="inlineStr"/>
     </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1492.2752</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-87774.94163767956</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1233.75</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-86541.19163767956</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3327.3941</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-89868.58573767956</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C178" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>67103.14109999999</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-22765.44463767957</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D179" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3900.0729</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-22765.44463767957</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>60472.3772</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-22765.44463767957</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C181" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F181" t="n">
+        <v>40686.1522</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-63451.59683767956</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C182" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F182" t="n">
+        <v>400</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-63451.59683767956</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C183" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>21285.6934</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-42165.90343767956</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C184" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4748.3918</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-42165.90343767956</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C185" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D185" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E185" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F185" t="n">
+        <v>68359.0145</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-42165.90343767956</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C186" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D186" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>11161.5583</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-42165.90343767956</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C187" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D187" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E187" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24890.5109</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-42165.90343767956</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>56538.997</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-98704.90043767956</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C189" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D189" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>135939.5331</v>
+      </c>
+      <c r="G189" t="n">
+        <v>37234.63266232044</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D190" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E190" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F190" t="n">
+        <v>60087.0528</v>
+      </c>
+      <c r="G190" t="n">
+        <v>97321.68546232043</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C191" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D191" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E191" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F191" t="n">
+        <v>23323.2608</v>
+      </c>
+      <c r="G191" t="n">
+        <v>97321.68546232043</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C192" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D192" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E192" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>126265.6077</v>
+      </c>
+      <c r="G192" t="n">
+        <v>97321.68546232043</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E193" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10225.2643</v>
+      </c>
+      <c r="G193" t="n">
+        <v>97321.68546232043</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D194" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E194" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F194" t="n">
+        <v>133873.041</v>
+      </c>
+      <c r="G194" t="n">
+        <v>97321.68546232043</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C195" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D195" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E195" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F195" t="n">
+        <v>4798.913</v>
+      </c>
+      <c r="G195" t="n">
+        <v>97321.68546232043</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C196" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D196" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E196" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2154.9869</v>
+      </c>
+      <c r="G196" t="n">
+        <v>97321.68546232043</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E197" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>63124.6234</v>
+      </c>
+      <c r="G197" t="n">
+        <v>97321.68546232043</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C198" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E198" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>111889.4542</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-14567.76873767957</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C199" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D199" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E199" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F199" t="n">
+        <v>93003.9457</v>
+      </c>
+      <c r="G199" t="n">
+        <v>78436.17696232043</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C200" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D200" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F200" t="n">
+        <v>141034.7252</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-62598.54823767956</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C201" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D201" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E201" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F201" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-62598.54823767956</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C202" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E202" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21945.0735</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-84543.62173767955</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C203" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D203" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F203" t="n">
+        <v>197881.5877</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-282425.2094376796</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C204" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F204" t="n">
+        <v>106970.2176</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-175454.9918376796</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C205" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D205" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E205" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F205" t="n">
+        <v>120775.051</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-296230.0428376796</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C206" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D206" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E206" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F206" t="n">
+        <v>22184.2329</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-296230.0428376796</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C207" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D207" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E207" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F207" t="n">
+        <v>44739.2574</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-340969.3002376796</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E208" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-339959.3002376796</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C209" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D209" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E209" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F209" t="n">
+        <v>78940.1562</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-418899.4564376796</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C210" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D210" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E210" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F210" t="n">
+        <v>171724.9201</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-418899.4564376796</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C211" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D211" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E211" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F211" t="n">
+        <v>53086.7348</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-365812.7216376796</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C212" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D212" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E212" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F212" t="n">
+        <v>33722.1239</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-399534.8455376796</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C213" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D213" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E213" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F213" t="n">
+        <v>78263.2539</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-321271.5916376796</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D214" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E214" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F214" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-321271.5916376796</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C215" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E215" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F215" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-321271.5916376796</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D216" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F216" t="n">
+        <v>49335.6584</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-370607.2500376796</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C217" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D217" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E217" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>8173.5345</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-370607.2500376796</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C218" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D218" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E218" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>10406.6375</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-370607.2500376796</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C219" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D219" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E219" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F219" t="n">
+        <v>33276.9347</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-370607.2500376796</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C220" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D220" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E220" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F220" t="n">
+        <v>45077.4066</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-370607.2500376796</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>63458.1205</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-370607.2500376796</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>72796.1346</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-370607.2500376796</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>87851.7352</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-458458.9852376796</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>13</v>
+      </c>
+      <c r="D224" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E224" t="n">
+        <v>13</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1679784.0124</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-2138242.997637679</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>13</v>
+      </c>
+      <c r="C225" t="n">
+        <v>13</v>
+      </c>
+      <c r="D225" t="n">
+        <v>13</v>
+      </c>
+      <c r="E225" t="n">
+        <v>13</v>
+      </c>
+      <c r="F225" t="n">
+        <v>24539.0096</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-2138242.997637679</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>13</v>
+      </c>
+      <c r="C226" t="n">
+        <v>13</v>
+      </c>
+      <c r="D226" t="n">
+        <v>13</v>
+      </c>
+      <c r="E226" t="n">
+        <v>13</v>
+      </c>
+      <c r="F226" t="n">
+        <v>25691.1841</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-2138242.997637679</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>13</v>
+      </c>
+      <c r="C227" t="n">
+        <v>13</v>
+      </c>
+      <c r="D227" t="n">
+        <v>13</v>
+      </c>
+      <c r="E227" t="n">
+        <v>13</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3483.7133</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-2138242.997637679</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>148111.9192</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1990131.078437679</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>26830</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1990131.078437679</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>13</v>
+      </c>
+      <c r="C230" t="n">
+        <v>13</v>
+      </c>
+      <c r="D230" t="n">
+        <v>13</v>
+      </c>
+      <c r="E230" t="n">
+        <v>13</v>
+      </c>
+      <c r="F230" t="n">
+        <v>35892.8622</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-2026023.94063768</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>13</v>
+      </c>
+      <c r="C231" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>13</v>
+      </c>
+      <c r="F231" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1976023.94063768</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2880</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1976023.94063768</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>13</v>
+      </c>
+      <c r="C233" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>13</v>
+      </c>
+      <c r="F233" t="n">
+        <v>194495.1951</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1976023.94063768</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>13</v>
+      </c>
+      <c r="C234" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D234" t="n">
+        <v>13</v>
+      </c>
+      <c r="E234" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F234" t="n">
+        <v>196082.2526</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-2172106.19323768</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C235" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D235" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E235" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F235" t="n">
+        <v>17660</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-2172106.19323768</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C236" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D236" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E236" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F236" t="n">
+        <v>44482.8906</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-2172106.19323768</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C237" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D237" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E237" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F237" t="n">
+        <v>47661.7465</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-2172106.19323768</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C238" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D238" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E238" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F238" t="n">
+        <v>70466.4127</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-2101639.780537679</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C239" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D239" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E239" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F239" t="n">
+        <v>7643.5723</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-2101639.780537679</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C240" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E240" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F240" t="n">
+        <v>21603.1695</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-2123242.950037679</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>13</v>
+      </c>
+      <c r="C241" t="n">
+        <v>13</v>
+      </c>
+      <c r="D241" t="n">
+        <v>13</v>
+      </c>
+      <c r="E241" t="n">
+        <v>13</v>
+      </c>
+      <c r="F241" t="n">
+        <v>8987.961499999999</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-2114254.988537679</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>13</v>
+      </c>
+      <c r="C242" t="n">
+        <v>13</v>
+      </c>
+      <c r="D242" t="n">
+        <v>13</v>
+      </c>
+      <c r="E242" t="n">
+        <v>13</v>
+      </c>
+      <c r="F242" t="n">
+        <v>8988</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-2114254.988537679</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C243" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D243" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E243" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F243" t="n">
+        <v>59992.2809</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-2174247.269437679</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D244" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E244" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F244" t="n">
+        <v>8864</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-2165383.269437679</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D245" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E245" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F245" t="n">
+        <v>182.2526</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-2165383.269437679</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-18 BackTest LBA.xlsx
+++ b/BackTest/2019-10-18 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>12</v>
       </c>
-      <c r="K3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>12</v>
       </c>
-      <c r="K4" t="n">
-        <v>12</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>12</v>
       </c>
-      <c r="K5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J6" t="n">
         <v>12.2</v>
       </c>
-      <c r="K6" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J7" t="n">
         <v>12.2</v>
       </c>
-      <c r="K7" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J8" t="n">
         <v>12.2</v>
       </c>
-      <c r="K8" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,22 +724,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,26 +761,23 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J10" t="n">
         <v>12.2</v>
       </c>
-      <c r="K10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,22 +804,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -878,22 +843,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,22 +882,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,22 +921,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,26 +958,21 @@
         <v>12281.46908264462</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>12.2</v>
       </c>
-      <c r="K15" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1048,22 +999,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1090,22 +1038,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1132,22 +1077,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1174,22 +1116,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1216,22 +1155,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1258,22 +1194,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1298,26 +1231,21 @@
         <v>-1633.449717355383</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1342,26 +1270,21 @@
         <v>-1633.449717355383</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1386,24 +1309,23 @@
         <v>-1633.449717355383</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1428,26 +1350,23 @@
         <v>-1633.449717355383</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J25" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1472,26 +1391,23 @@
         <v>-1633.449717355383</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J26" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1516,26 +1432,23 @@
         <v>-3546.449717355383</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J27" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1560,26 +1473,23 @@
         <v>-622625.5954173554</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
-        <v>12</v>
-      </c>
-      <c r="K28" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1604,26 +1514,21 @@
         <v>-571185.5955173554</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1648,26 +1553,23 @@
         <v>-571185.5955173554</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
-      </c>
-      <c r="K30" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1692,26 +1594,21 @@
         <v>-496889.9981173554</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>12</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1736,26 +1633,21 @@
         <v>-526299.9981173554</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>12.2</v>
       </c>
-      <c r="K32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1780,26 +1672,21 @@
         <v>-526299.9981173554</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1824,26 +1711,21 @@
         <v>-526299.9981173554</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1868,26 +1750,21 @@
         <v>-557152.8571173555</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1912,26 +1789,21 @@
         <v>-557152.8571173555</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>12</v>
-      </c>
-      <c r="K36" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1956,26 +1828,21 @@
         <v>-557152.8571173555</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>12</v>
-      </c>
-      <c r="K37" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2000,26 +1867,21 @@
         <v>-557152.8571173555</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>12</v>
-      </c>
-      <c r="K38" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2044,26 +1906,21 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>12</v>
-      </c>
-      <c r="K39" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2088,26 +1945,23 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J40" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K40" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2132,26 +1986,23 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J41" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K41" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2176,26 +2027,23 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J42" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K42" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2220,26 +2068,23 @@
         <v>-553552.8571173555</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J43" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K43" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2264,26 +2109,23 @@
         <v>-553552.8571173555</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J44" t="n">
-        <v>12</v>
-      </c>
-      <c r="K44" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2308,26 +2150,23 @@
         <v>-553552.8571173555</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J45" t="n">
-        <v>12</v>
-      </c>
-      <c r="K45" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2352,26 +2191,23 @@
         <v>-559960.1507173554</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>12</v>
-      </c>
-      <c r="K46" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2396,26 +2232,23 @@
         <v>-559960.1507173554</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J47" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K47" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2440,26 +2273,23 @@
         <v>-559960.1507173554</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J48" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2484,26 +2314,23 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K49" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2528,26 +2355,23 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>12</v>
-      </c>
-      <c r="K50" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2572,26 +2396,21 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>12</v>
-      </c>
-      <c r="K51" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2616,26 +2435,23 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J52" t="n">
-        <v>12</v>
-      </c>
-      <c r="K52" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2660,26 +2476,21 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>12</v>
-      </c>
-      <c r="K53" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2704,26 +2515,21 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>12</v>
-      </c>
-      <c r="K54" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2748,26 +2554,21 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>12</v>
-      </c>
-      <c r="K55" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2792,26 +2593,21 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>12</v>
-      </c>
-      <c r="K56" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2836,26 +2632,21 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>12</v>
-      </c>
-      <c r="K57" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2880,26 +2671,21 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>12</v>
-      </c>
-      <c r="K58" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2924,26 +2710,23 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J59" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K59" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2968,26 +2751,23 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J60" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K60" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3012,26 +2792,23 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J61" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K61" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3056,26 +2833,21 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3100,26 +2872,21 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3144,26 +2911,21 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K64" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3188,26 +2950,23 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J65" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3232,26 +2991,23 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J66" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3276,26 +3032,23 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="J67" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3320,26 +3073,23 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J68" t="n">
         <v>12.2</v>
       </c>
-      <c r="K68" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3364,26 +3114,21 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>12.2</v>
       </c>
-      <c r="K69" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3408,26 +3153,21 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>12.2</v>
       </c>
-      <c r="K70" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3454,22 +3194,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3496,22 +3233,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3538,22 +3272,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3580,22 +3311,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3622,22 +3350,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3664,22 +3389,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3706,22 +3428,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3748,22 +3467,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3790,22 +3506,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3832,22 +3545,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3874,22 +3584,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3916,22 +3623,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3958,22 +3662,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4000,22 +3701,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4042,22 +3740,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4084,22 +3779,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4126,22 +3818,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4168,22 +3857,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4210,22 +3896,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4252,22 +3935,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4294,22 +3974,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4336,22 +4013,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4378,22 +4052,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4420,22 +4091,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4462,22 +4130,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4504,22 +4169,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4546,22 +4208,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4588,22 +4247,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4630,22 +4286,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4672,22 +4325,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4714,22 +4364,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4756,22 +4403,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4798,22 +4442,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4840,22 +4481,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4882,22 +4520,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4924,22 +4559,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4966,22 +4598,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5008,22 +4637,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5050,22 +4676,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5092,22 +4715,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5134,22 +4754,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5176,22 +4793,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5218,22 +4832,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5260,22 +4871,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5302,22 +4910,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5344,22 +4949,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5386,22 +4988,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5428,22 +5027,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5470,22 +5066,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5512,22 +5105,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5554,22 +5144,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5596,22 +5183,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5638,22 +5222,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5680,22 +5261,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5722,22 +5300,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5764,22 +5339,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5806,22 +5378,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5848,22 +5417,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5890,22 +5456,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5932,22 +5495,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5972,26 +5532,21 @@
         <v>792529.8576826446</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1.10155737704918</v>
-      </c>
-      <c r="N131" t="n">
-        <v>1.016666666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6016,18 +5571,21 @@
         <v>685981.7999826446</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6052,18 +5610,21 @@
         <v>-686165.2943173554</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6088,18 +5649,21 @@
         <v>-654569.0855173554</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6124,18 +5688,21 @@
         <v>-897577.8011173554</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6160,18 +5727,23 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.10155737704918</v>
+      </c>
       <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>1.016666666666667</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6196,18 +5768,15 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6232,18 +5801,15 @@
         <v>-478686.8775760509</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6268,18 +5834,15 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6304,18 +5867,15 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6340,18 +5900,15 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6376,18 +5933,15 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6412,18 +5966,15 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6448,18 +5999,15 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6484,18 +6032,15 @@
         <v>-556672.6579760509</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6522,16 +6067,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6558,16 +6100,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6594,16 +6133,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6628,18 +6164,15 @@
         <v>-698859.7499760508</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6666,16 +6199,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6702,16 +6232,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6738,16 +6265,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6774,16 +6298,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6810,16 +6331,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6846,16 +6364,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6882,16 +6397,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6918,16 +6430,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6954,16 +6463,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6990,16 +6496,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7026,16 +6529,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7062,16 +6562,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7098,16 +6595,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7134,16 +6628,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7170,16 +6661,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7206,16 +6694,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7242,16 +6727,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7278,16 +6760,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7314,16 +6793,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7350,16 +6826,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7386,16 +6859,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7422,16 +6892,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7458,16 +6925,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7494,16 +6958,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7530,16 +6991,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7566,16 +7024,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7602,16 +7057,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7638,16 +7090,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7674,16 +7123,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7710,16 +7156,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7746,16 +7189,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7782,16 +7222,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7818,16 +7255,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7854,16 +7288,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7890,16 +7321,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7926,16 +7354,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7962,16 +7387,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7998,16 +7420,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8034,16 +7453,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8070,16 +7486,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8106,16 +7519,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8142,16 +7552,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8178,16 +7585,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8214,16 +7618,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8250,16 +7651,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8286,16 +7684,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8322,16 +7717,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8356,18 +7748,15 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8392,18 +7781,15 @@
         <v>-14567.76873767957</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8428,18 +7814,15 @@
         <v>78436.17696232043</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8464,18 +7847,15 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8502,16 +7882,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8538,16 +7915,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8574,16 +7948,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8610,16 +7981,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8646,16 +8014,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8682,16 +8047,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8718,16 +8080,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8754,16 +8113,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8790,16 +8146,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8826,16 +8179,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8862,16 +8212,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8898,16 +8245,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8934,16 +8278,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8970,16 +8311,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9006,16 +8344,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9042,16 +8377,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9078,16 +8410,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9114,16 +8443,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9150,16 +8476,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9186,16 +8509,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9222,16 +8542,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9258,16 +8575,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9294,16 +8608,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9330,16 +8641,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9366,16 +8674,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9402,16 +8707,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9438,16 +8740,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9474,16 +8773,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9510,16 +8806,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9546,16 +8839,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9582,16 +8872,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9618,16 +8905,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9654,16 +8938,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9690,16 +8971,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9726,16 +9004,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9762,16 +9037,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9798,16 +9070,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9834,16 +9103,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9870,16 +9136,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9906,16 +9169,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9942,16 +9202,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9978,16 +9235,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10014,16 +9268,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10050,16 +9301,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10086,18 +9334,15 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest LBA.xlsx
+++ b/BackTest/2019-10-18 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
@@ -521,7 +521,7 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>12</v>
@@ -562,7 +562,7 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>12</v>
@@ -603,7 +603,7 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>12.2</v>
@@ -640,7 +640,7 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>12.2</v>
@@ -681,11 +681,9 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>12.2</v>
       </c>
@@ -761,7 +759,7 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>12.2</v>
@@ -1309,11 +1307,9 @@
         <v>-1633.449717355383</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>12.2</v>
       </c>
@@ -1350,11 +1346,9 @@
         <v>-1633.449717355383</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>12.2</v>
       </c>
@@ -1391,11 +1385,9 @@
         <v>-1633.449717355383</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>12.2</v>
       </c>
@@ -1432,11 +1424,9 @@
         <v>-3546.449717355383</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>12.2</v>
       </c>
@@ -1473,11 +1463,9 @@
         <v>-622625.5954173554</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>12.2</v>
       </c>
@@ -1553,11 +1541,9 @@
         <v>-571185.5955173554</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>12.2</v>
       </c>
@@ -1906,9 +1892,11 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>12</v>
+      </c>
       <c r="J39" t="n">
         <v>12.2</v>
       </c>
@@ -1945,7 +1933,7 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>11.9</v>
@@ -1986,7 +1974,7 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>11.9</v>
@@ -2027,7 +2015,7 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>11.9</v>
@@ -2068,7 +2056,7 @@
         <v>-553552.8571173555</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>11.9</v>
@@ -2109,7 +2097,7 @@
         <v>-553552.8571173555</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>12</v>
@@ -2150,7 +2138,7 @@
         <v>-553552.8571173555</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>12</v>
@@ -2191,7 +2179,7 @@
         <v>-559960.1507173554</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>12</v>
@@ -2232,7 +2220,7 @@
         <v>-559960.1507173554</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>11.9</v>
@@ -2273,7 +2261,7 @@
         <v>-559960.1507173554</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>11.9</v>
@@ -2314,7 +2302,7 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>11.9</v>
@@ -2355,7 +2343,7 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>12</v>
@@ -2396,9 +2384,11 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>12</v>
+      </c>
       <c r="J51" t="n">
         <v>12.2</v>
       </c>
@@ -2435,7 +2425,7 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>12</v>
@@ -2476,9 +2466,11 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
       <c r="J53" t="n">
         <v>12.2</v>
       </c>
@@ -2515,9 +2507,11 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
       <c r="J54" t="n">
         <v>12.2</v>
       </c>
@@ -2554,9 +2548,11 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12</v>
+      </c>
       <c r="J55" t="n">
         <v>12.2</v>
       </c>
@@ -2593,9 +2589,11 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12</v>
+      </c>
       <c r="J56" t="n">
         <v>12.2</v>
       </c>
@@ -2632,9 +2630,11 @@
         <v>-529960.1507173554</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12</v>
+      </c>
       <c r="J57" t="n">
         <v>12.2</v>
       </c>
@@ -2671,9 +2671,11 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>12</v>
+      </c>
       <c r="J58" t="n">
         <v>12.2</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>12.1</v>
@@ -2751,7 +2753,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>12.1</v>
@@ -2792,7 +2794,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>12.1</v>
@@ -2833,9 +2835,11 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J62" t="n">
         <v>12.2</v>
       </c>
@@ -2872,9 +2876,11 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J63" t="n">
         <v>12.2</v>
       </c>
@@ -2911,9 +2917,11 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J64" t="n">
         <v>12.2</v>
       </c>
@@ -2950,7 +2958,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>12.1</v>
@@ -2991,7 +2999,7 @@
         <v>-508160.1507173554</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>12.1</v>
@@ -3032,7 +3040,7 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>12.1</v>
@@ -3073,11 +3081,9 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>12.2</v>
       </c>
@@ -3231,9 +3237,11 @@
         <v>-240226.2104173554</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J72" t="n">
         <v>12.2</v>
       </c>
@@ -5532,7 +5540,7 @@
         <v>792529.8576826446</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
@@ -5571,7 +5579,7 @@
         <v>685981.7999826446</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
@@ -5610,7 +5618,7 @@
         <v>-686165.2943173554</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
@@ -5649,7 +5657,7 @@
         <v>-654569.0855173554</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
@@ -5688,7 +5696,7 @@
         <v>-897577.8011173554</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
@@ -5727,7 +5735,7 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
@@ -5735,15 +5743,13 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.10155737704918</v>
-      </c>
-      <c r="M136" t="n">
-        <v>1.016666666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5768,11 +5774,17 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5813,17 @@
         <v>-478686.8775760509</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5834,11 +5852,17 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5867,11 +5891,17 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5900,11 +5930,17 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5933,11 +5969,17 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5966,11 +6008,17 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5999,11 +6047,17 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +6086,17 @@
         <v>-556672.6579760509</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6068,8 +6128,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6101,8 +6167,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6134,8 +6206,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6164,11 +6242,17 @@
         <v>-698859.7499760508</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6200,8 +6284,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6233,8 +6323,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6266,8 +6362,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6296,15 +6398,23 @@
         <v>-232255.1189945776</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>1.126147540983607</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1.016666666666667</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6329,7 +6439,7 @@
         <v>-162530.5537305332</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6362,7 +6472,7 @@
         <v>-199830.4649906208</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6395,7 +6505,7 @@
         <v>-264434.4229906208</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6428,7 +6538,7 @@
         <v>-264434.4229906208</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6824,7 +6934,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6857,7 +6967,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6890,7 +7000,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6923,7 +7033,7 @@
         <v>-254696.3953376795</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6956,7 +7066,7 @@
         <v>-86282.66643767955</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6989,7 +7099,7 @@
         <v>-86282.66643767955</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7022,7 +7132,7 @@
         <v>-87774.94163767956</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7055,7 +7165,7 @@
         <v>-86541.19163767956</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7088,7 +7198,7 @@
         <v>-89868.58573767956</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7121,7 +7231,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7154,7 +7264,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7187,7 +7297,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7220,7 +7330,7 @@
         <v>-63451.59683767956</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7253,7 +7363,7 @@
         <v>-63451.59683767956</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7418,7 +7528,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7451,7 +7561,7 @@
         <v>-98704.90043767956</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7484,7 +7594,7 @@
         <v>37234.63266232044</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7517,7 +7627,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7550,7 +7660,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7583,7 +7693,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7616,7 +7726,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7649,7 +7759,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7682,7 +7792,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7715,7 +7825,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7748,7 +7858,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7781,7 +7891,7 @@
         <v>-14567.76873767957</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7814,7 +7924,7 @@
         <v>78436.17696232043</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7847,7 +7957,7 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7880,7 +7990,7 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7913,7 +8023,7 @@
         <v>-84543.62173767955</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7946,7 +8056,7 @@
         <v>-282425.2094376796</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7979,7 +8089,7 @@
         <v>-175454.9918376796</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8012,7 +8122,7 @@
         <v>-296230.0428376796</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8045,7 +8155,7 @@
         <v>-296230.0428376796</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8078,7 +8188,7 @@
         <v>-340969.3002376796</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8111,7 +8221,7 @@
         <v>-339959.3002376796</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8144,7 +8254,7 @@
         <v>-418899.4564376796</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8177,7 +8287,7 @@
         <v>-418899.4564376796</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8210,7 +8320,7 @@
         <v>-365812.7216376796</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8243,7 +8353,7 @@
         <v>-399534.8455376796</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8276,7 +8386,7 @@
         <v>-321271.5916376796</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8309,7 +8419,7 @@
         <v>-321271.5916376796</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8342,7 +8452,7 @@
         <v>-321271.5916376796</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8375,7 +8485,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8408,7 +8518,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8441,7 +8551,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8474,7 +8584,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8507,7 +8617,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8540,7 +8650,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8573,7 +8683,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9343,6 +9453,6 @@
       <c r="M245" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest LBA.xlsx
+++ b/BackTest/2019-10-18 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -603,14 +603,10 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +636,11 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +672,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -723,14 +705,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -759,19 +735,11 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -803,14 +771,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -842,14 +804,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -881,14 +837,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -920,14 +870,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -959,14 +903,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -998,14 +936,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +969,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1035,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1154,14 +1068,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1101,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1232,14 +1134,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1271,14 +1167,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1200,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1349,14 +1233,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1388,14 +1266,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1427,14 +1299,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1466,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1505,14 +1365,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1544,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1583,14 +1431,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1622,14 +1464,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1661,14 +1497,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1700,14 +1530,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1739,14 +1563,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1778,14 +1596,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1817,14 +1629,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1856,14 +1662,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1892,19 +1692,11 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>12</v>
-      </c>
-      <c r="J39" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1933,19 +1725,11 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J40" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1980,13 +1764,9 @@
         <v>11.9</v>
       </c>
       <c r="J41" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.9</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2021,11 +1801,11 @@
         <v>11.9</v>
       </c>
       <c r="J42" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2062,11 +1842,11 @@
         <v>11.9</v>
       </c>
       <c r="J43" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -2103,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="J44" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2144,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="J45" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2185,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2226,7 +2006,7 @@
         <v>11.9</v>
       </c>
       <c r="J47" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2267,7 +2047,7 @@
         <v>11.9</v>
       </c>
       <c r="J48" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2308,7 +2088,7 @@
         <v>11.9</v>
       </c>
       <c r="J49" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2349,7 +2129,7 @@
         <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2390,7 +2170,7 @@
         <v>12</v>
       </c>
       <c r="J51" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2431,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="J52" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2472,7 +2252,7 @@
         <v>12</v>
       </c>
       <c r="J53" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2513,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="J54" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2554,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="J55" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2595,7 +2375,7 @@
         <v>12</v>
       </c>
       <c r="J56" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2636,7 +2416,7 @@
         <v>12</v>
       </c>
       <c r="J57" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2677,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="J58" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2718,7 +2498,7 @@
         <v>12.1</v>
       </c>
       <c r="J59" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2759,7 +2539,7 @@
         <v>12.1</v>
       </c>
       <c r="J60" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2800,7 +2580,7 @@
         <v>12.1</v>
       </c>
       <c r="J61" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2841,7 +2621,7 @@
         <v>12.1</v>
       </c>
       <c r="J62" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2882,7 +2662,7 @@
         <v>12.1</v>
       </c>
       <c r="J63" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2923,7 +2703,7 @@
         <v>12.1</v>
       </c>
       <c r="J64" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2964,7 +2744,7 @@
         <v>12.1</v>
       </c>
       <c r="J65" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3005,7 +2785,7 @@
         <v>12.1</v>
       </c>
       <c r="J66" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3046,7 +2826,7 @@
         <v>12.1</v>
       </c>
       <c r="J67" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3081,11 +2861,13 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J68" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3120,11 +2902,13 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J69" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3159,11 +2943,13 @@
         <v>-488160.1507173554</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J70" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3198,11 +2984,13 @@
         <v>-240251.5329173554</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J71" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3237,13 +3025,11 @@
         <v>-240226.2104173554</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3282,7 +3068,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3321,7 +3107,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3360,7 +3146,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3399,7 +3185,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3438,7 +3224,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3477,7 +3263,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3516,7 +3302,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3555,7 +3341,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3594,7 +3380,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3633,7 +3419,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3672,7 +3458,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3711,7 +3497,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3750,7 +3536,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3789,7 +3575,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3828,7 +3614,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3867,7 +3653,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3906,7 +3692,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3945,7 +3731,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3984,7 +3770,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4023,7 +3809,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4062,7 +3848,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4101,7 +3887,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4140,7 +3926,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4179,7 +3965,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4218,7 +4004,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4257,7 +4043,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4296,7 +4082,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4335,7 +4121,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4374,7 +4160,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4413,7 +4199,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4452,7 +4238,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4491,7 +4277,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4530,7 +4316,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4569,7 +4355,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4608,7 +4394,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4647,7 +4433,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4686,7 +4472,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4725,7 +4511,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4764,7 +4550,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4803,7 +4589,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4842,7 +4628,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4881,7 +4667,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4920,7 +4706,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4959,7 +4745,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4998,7 +4784,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5037,7 +4823,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5076,7 +4862,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5111,21 +4897,23 @@
         <v>150104.8727826446</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>1.079033613445378</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.033613445378151</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5150,17 +4938,11 @@
         <v>562908.9812826446</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5189,17 +4971,11 @@
         <v>134751.7379826446</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5228,17 +5004,11 @@
         <v>134751.7379826446</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5267,17 +5037,11 @@
         <v>467596.3042826446</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5306,17 +5070,11 @@
         <v>467596.3042826446</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5345,17 +5103,11 @@
         <v>445287.1300826446</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5384,17 +5136,11 @@
         <v>478708.3611826446</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5423,17 +5169,11 @@
         <v>580427.3084826446</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5462,17 +5202,11 @@
         <v>584478.4834826447</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5501,17 +5235,11 @@
         <v>909703.3694826446</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5540,17 +5268,11 @@
         <v>792529.8576826446</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5579,17 +5301,11 @@
         <v>685981.7999826446</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5618,17 +5334,11 @@
         <v>-686165.2943173554</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5657,17 +5367,11 @@
         <v>-654569.0855173554</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5696,17 +5400,11 @@
         <v>-897577.8011173554</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5735,17 +5433,11 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5774,17 +5466,11 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5813,17 +5499,11 @@
         <v>-478686.8775760509</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5852,17 +5532,11 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5891,17 +5565,11 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5930,17 +5598,11 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5969,17 +5631,11 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6008,17 +5664,11 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6047,17 +5697,11 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6086,17 +5730,11 @@
         <v>-556672.6579760509</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6125,17 +5763,11 @@
         <v>-698859.7499760508</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6164,17 +5796,11 @@
         <v>-698859.7499760508</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6206,14 +5832,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6245,14 +5865,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6284,14 +5898,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6323,14 +5931,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6362,14 +5964,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6398,23 +5994,15 @@
         <v>-232255.1189945776</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
-        <v>1.126147540983607</v>
-      </c>
-      <c r="M153" t="n">
-        <v>1.016666666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6472,7 +6060,7 @@
         <v>-199830.4649906208</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6505,7 +6093,7 @@
         <v>-264434.4229906208</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6538,7 +6126,7 @@
         <v>-264434.4229906208</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6934,7 +6522,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6967,7 +6555,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7000,7 +6588,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7033,7 +6621,7 @@
         <v>-254696.3953376795</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7066,7 +6654,7 @@
         <v>-86282.66643767955</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7099,7 +6687,7 @@
         <v>-86282.66643767955</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7132,7 +6720,7 @@
         <v>-87774.94163767956</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7165,7 +6753,7 @@
         <v>-86541.19163767956</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7198,7 +6786,7 @@
         <v>-89868.58573767956</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7231,7 +6819,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7264,7 +6852,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7297,7 +6885,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7330,7 +6918,7 @@
         <v>-63451.59683767956</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7363,7 +6951,7 @@
         <v>-63451.59683767956</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7528,7 +7116,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7561,7 +7149,7 @@
         <v>-98704.90043767956</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7594,7 +7182,7 @@
         <v>37234.63266232044</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7627,7 +7215,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7660,7 +7248,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7693,7 +7281,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7726,7 +7314,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7759,7 +7347,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7792,7 +7380,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7825,7 +7413,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7858,7 +7446,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7891,7 +7479,7 @@
         <v>-14567.76873767957</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7924,7 +7512,7 @@
         <v>78436.17696232043</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7957,7 +7545,7 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7990,7 +7578,7 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8023,7 +7611,7 @@
         <v>-84543.62173767955</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8056,7 +7644,7 @@
         <v>-282425.2094376796</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8089,7 +7677,7 @@
         <v>-175454.9918376796</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8122,7 +7710,7 @@
         <v>-296230.0428376796</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8155,7 +7743,7 @@
         <v>-296230.0428376796</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8188,7 +7776,7 @@
         <v>-340969.3002376796</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8221,7 +7809,7 @@
         <v>-339959.3002376796</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8254,7 +7842,7 @@
         <v>-418899.4564376796</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8287,7 +7875,7 @@
         <v>-418899.4564376796</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8320,7 +7908,7 @@
         <v>-365812.7216376796</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8353,7 +7941,7 @@
         <v>-399534.8455376796</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8386,7 +7974,7 @@
         <v>-321271.5916376796</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8419,7 +8007,7 @@
         <v>-321271.5916376796</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8452,7 +8040,7 @@
         <v>-321271.5916376796</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8485,7 +8073,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8518,7 +8106,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8551,7 +8139,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8584,7 +8172,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8617,7 +8205,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8650,7 +8238,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8683,7 +8271,7 @@
         <v>-370607.2500376796</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9453,6 +9041,6 @@
       <c r="M245" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest LBA.xlsx
+++ b/BackTest/2019-10-18 BackTest LBA.xlsx
@@ -451,7 +451,7 @@
         <v>-35868.53091735538</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -603,10 +603,14 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.2</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -636,11 +640,19 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,11 +681,19 @@
         <v>12731.46908264462</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -705,8 +725,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -738,8 +764,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -771,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -804,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -837,8 +881,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -870,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -903,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -936,8 +998,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -969,8 +1037,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1002,8 +1076,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1035,8 +1115,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1068,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1101,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1134,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1167,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1200,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1233,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1266,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1299,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1332,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1365,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1398,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1431,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1464,8 +1622,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1497,8 +1661,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1530,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1563,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1596,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1629,8 +1817,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1662,8 +1856,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1695,8 +1895,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1728,8 +1934,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1758,15 +1970,17 @@
         <v>-609552.8571173555</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1801,11 +2015,11 @@
         <v>11.9</v>
       </c>
       <c r="J42" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1842,11 +2056,11 @@
         <v>11.9</v>
       </c>
       <c r="J43" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1883,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="J44" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1924,7 +2138,7 @@
         <v>12</v>
       </c>
       <c r="J45" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1965,7 +2179,7 @@
         <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2006,7 +2220,7 @@
         <v>11.9</v>
       </c>
       <c r="J47" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2047,7 +2261,7 @@
         <v>11.9</v>
       </c>
       <c r="J48" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2088,7 +2302,7 @@
         <v>11.9</v>
       </c>
       <c r="J49" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2129,7 +2343,7 @@
         <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2170,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="J51" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2211,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="J52" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2252,7 +2466,7 @@
         <v>12</v>
       </c>
       <c r="J53" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2293,7 +2507,7 @@
         <v>12</v>
       </c>
       <c r="J54" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2334,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="J55" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2375,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="J56" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2416,7 +2630,7 @@
         <v>12</v>
       </c>
       <c r="J57" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2457,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="J58" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2498,7 +2712,7 @@
         <v>12.1</v>
       </c>
       <c r="J59" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2539,7 +2753,7 @@
         <v>12.1</v>
       </c>
       <c r="J60" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2580,7 +2794,7 @@
         <v>12.1</v>
       </c>
       <c r="J61" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2621,7 +2835,7 @@
         <v>12.1</v>
       </c>
       <c r="J62" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2662,7 +2876,7 @@
         <v>12.1</v>
       </c>
       <c r="J63" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2703,7 +2917,7 @@
         <v>12.1</v>
       </c>
       <c r="J64" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2744,7 +2958,7 @@
         <v>12.1</v>
       </c>
       <c r="J65" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2785,7 +2999,7 @@
         <v>12.1</v>
       </c>
       <c r="J66" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2826,7 +3040,7 @@
         <v>12.1</v>
       </c>
       <c r="J67" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2867,7 +3081,7 @@
         <v>12.2</v>
       </c>
       <c r="J68" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2908,7 +3122,7 @@
         <v>12.2</v>
       </c>
       <c r="J69" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2949,7 +3163,7 @@
         <v>12.2</v>
       </c>
       <c r="J70" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2990,7 +3204,7 @@
         <v>12.2</v>
       </c>
       <c r="J71" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3025,11 +3239,13 @@
         <v>-240226.2104173554</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J72" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3064,11 +3280,13 @@
         <v>-259059.6148173554</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J73" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3103,11 +3321,13 @@
         <v>-249638.6148173554</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J74" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3142,11 +3362,13 @@
         <v>-288587.6148173554</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J75" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3181,11 +3403,13 @@
         <v>-288587.6148173554</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J76" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3220,11 +3444,13 @@
         <v>-288577.6148173554</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J77" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3259,11 +3485,13 @@
         <v>-291462.6448173554</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J78" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3298,11 +3526,13 @@
         <v>-291462.6448173554</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J79" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3337,11 +3567,13 @@
         <v>-78056.26201735545</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J80" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3376,11 +3608,13 @@
         <v>-78046.26201735545</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J81" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3415,11 +3649,13 @@
         <v>-78046.26201735545</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J82" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3454,11 +3690,13 @@
         <v>-78046.26201735545</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J83" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3493,11 +3731,13 @@
         <v>-84745.13291735544</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J84" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3532,11 +3772,13 @@
         <v>-158493.1329173555</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J85" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3571,11 +3813,13 @@
         <v>-207653.1329173555</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J86" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3610,11 +3854,13 @@
         <v>-183073.1329173555</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J87" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3649,11 +3895,13 @@
         <v>-183073.1329173555</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J88" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3688,11 +3936,13 @@
         <v>-183073.1329173555</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J89" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3727,11 +3977,13 @@
         <v>-183073.1329173555</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J90" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3766,11 +4018,13 @@
         <v>-133410.8190173554</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J91" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3805,11 +4059,13 @@
         <v>-133410.8190173554</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J92" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3844,11 +4100,13 @@
         <v>-136010.8190173554</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J93" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3883,11 +4141,13 @@
         <v>-136010.8190173554</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J94" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3926,7 +4186,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3965,7 +4225,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4004,7 +4264,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4043,7 +4303,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4082,7 +4342,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4121,7 +4381,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4160,7 +4420,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4199,7 +4459,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4238,7 +4498,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4277,7 +4537,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4316,7 +4576,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4355,7 +4615,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4394,7 +4654,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4433,7 +4693,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4472,7 +4732,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4511,7 +4771,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4550,7 +4810,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4589,7 +4849,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4628,7 +4888,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4667,7 +4927,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4706,7 +4966,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4745,7 +5005,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4784,7 +5044,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4823,7 +5083,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4862,7 +5122,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4897,23 +5157,21 @@
         <v>150104.8727826446</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.079033613445378</v>
-      </c>
-      <c r="M120" t="n">
-        <v>1.033613445378151</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4938,11 +5196,17 @@
         <v>562908.9812826446</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4971,11 +5235,17 @@
         <v>134751.7379826446</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +5274,17 @@
         <v>134751.7379826446</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5037,11 +5313,17 @@
         <v>467596.3042826446</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5070,11 +5352,17 @@
         <v>467596.3042826446</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5103,11 +5391,17 @@
         <v>445287.1300826446</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5136,11 +5430,17 @@
         <v>478708.3611826446</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +5469,17 @@
         <v>580427.3084826446</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +5508,17 @@
         <v>584478.4834826447</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5235,11 +5547,17 @@
         <v>909703.3694826446</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5268,11 +5586,17 @@
         <v>792529.8576826446</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5301,11 +5625,17 @@
         <v>685981.7999826446</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5334,11 +5664,17 @@
         <v>-686165.2943173554</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5367,11 +5703,17 @@
         <v>-654569.0855173554</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5400,11 +5742,17 @@
         <v>-897577.8011173554</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5781,17 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +5820,17 @@
         <v>-712922.3811173553</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +5859,17 @@
         <v>-478686.8775760509</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +5898,17 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5565,11 +5937,17 @@
         <v>-642157.6236760509</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5976,17 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5631,11 +6015,17 @@
         <v>-546772.379676051</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5664,11 +6054,17 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5697,11 +6093,17 @@
         <v>-606445.7229760509</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5730,11 +6132,17 @@
         <v>-556672.6579760509</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +6171,17 @@
         <v>-698859.7499760508</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5796,11 +6210,17 @@
         <v>-698859.7499760508</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5832,8 +6252,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5865,8 +6291,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5898,8 +6330,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5931,8 +6369,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5961,15 +6405,23 @@
         <v>-318359.6647651125</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>1.117950819672131</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.016666666666667</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5994,7 +6446,7 @@
         <v>-232255.1189945776</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6060,7 +6512,7 @@
         <v>-199830.4649906208</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6093,7 +6545,7 @@
         <v>-264434.4229906208</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6126,7 +6578,7 @@
         <v>-264434.4229906208</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6159,7 +6611,7 @@
         <v>-75137.69799062077</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6192,7 +6644,7 @@
         <v>-149546.0853906208</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6225,7 +6677,7 @@
         <v>-403472.6777906208</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6258,7 +6710,7 @@
         <v>-403472.6777906208</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6291,7 +6743,7 @@
         <v>-435009.2256141502</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6324,7 +6776,7 @@
         <v>-415629.5505376796</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6357,7 +6809,7 @@
         <v>-454566.5137376796</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6456,7 +6908,7 @@
         <v>-395472.2730376796</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6588,7 +7040,7 @@
         <v>-250033.4805376795</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6621,7 +7073,7 @@
         <v>-254696.3953376795</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6654,7 +7106,7 @@
         <v>-86282.66643767955</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6687,7 +7139,7 @@
         <v>-86282.66643767955</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6720,7 +7172,7 @@
         <v>-87774.94163767956</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6753,7 +7205,7 @@
         <v>-86541.19163767956</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6786,7 +7238,7 @@
         <v>-89868.58573767956</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6852,7 +7304,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6885,7 +7337,7 @@
         <v>-22765.44463767957</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6918,7 +7370,7 @@
         <v>-63451.59683767956</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6951,7 +7403,7 @@
         <v>-63451.59683767956</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6984,7 +7436,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7017,7 +7469,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7050,7 +7502,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7083,7 +7535,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7116,7 +7568,7 @@
         <v>-42165.90343767956</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7149,7 +7601,7 @@
         <v>-98704.90043767956</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7182,7 +7634,7 @@
         <v>37234.63266232044</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7215,7 +7667,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7248,7 +7700,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7281,7 +7733,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7314,7 +7766,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7347,7 +7799,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7380,7 +7832,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7413,7 +7865,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7446,7 +7898,7 @@
         <v>97321.68546232043</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7479,7 +7931,7 @@
         <v>-14567.76873767957</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7512,7 +7964,7 @@
         <v>78436.17696232043</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7545,7 +7997,7 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7578,7 +8030,7 @@
         <v>-62598.54823767956</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7611,7 +8063,7 @@
         <v>-84543.62173767955</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7644,7 +8096,7 @@
         <v>-282425.2094376796</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7677,7 +8129,7 @@
         <v>-175454.9918376796</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7710,7 +8162,7 @@
         <v>-296230.0428376796</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
